--- a/PJ管理/01.成果物/04.T_テスト／移行/テスト仕様書兼報告書_DMS30201_検索閲覧出図画面.xlsx
+++ b/PJ管理/01.成果物/04.T_テスト／移行/テスト仕様書兼報告書_DMS30201_検索閲覧出図画面.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20403"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="O:\Projects\03.JTEKT\00.プロジェクト別\09.2024年度DRASAPサーバ更新2024\30.設計ドキュメント\T_テスト／移行\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\DRASAP_Web\PJ管理\01.成果物\04.T_テスト／移行\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FA565D6-EA5E-4FEC-8EB7-33DC4DE0DDA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02878FD9-E172-4CCF-A5D0-DF9312B75E81}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18120" tabRatio="368" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="33120" windowHeight="18120" tabRatio="368" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="検索閲覧出図画面（日本語）" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1456" uniqueCount="637">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1461" uniqueCount="642">
   <si>
     <t>作成者</t>
     <rPh sb="0" eb="3">
@@ -10618,6 +10618,29 @@
     <t>HELPのリンクが表示されている</t>
     <rPh sb="9" eb="11">
       <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>OK</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>NG</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>N/A</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>NG⇒OK</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>合計</t>
+    <rPh sb="0" eb="2">
+      <t>ゴウケイ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -10848,7 +10871,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
@@ -10972,6 +10995,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -11261,29 +11290,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q495"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15.45" x14ac:dyDescent="0.65"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" style="2" customWidth="1"/>
-    <col min="2" max="3" width="31.2109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="29.0703125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="37.5703125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="43.85546875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="44.7109375" style="1" customWidth="1"/>
-    <col min="8" max="11" width="46.85546875" style="1" customWidth="1"/>
-    <col min="12" max="12" width="46.85546875" style="1" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="84.85546875" style="1" customWidth="1"/>
-    <col min="14" max="14" width="9.2109375" style="2" customWidth="1"/>
-    <col min="15" max="15" width="12.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.7109375" style="2" customWidth="1"/>
-    <col min="17" max="17" width="45.78515625" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="8.7109375" style="1"/>
+    <col min="1" max="1" width="6.125" style="2" customWidth="1"/>
+    <col min="2" max="3" width="31.25" style="1" customWidth="1"/>
+    <col min="4" max="4" width="29.125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="37.625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="43.875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="44.75" style="1" customWidth="1"/>
+    <col min="8" max="11" width="46.875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="46.875" style="1" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="84.875" style="1" customWidth="1"/>
+    <col min="14" max="14" width="9.25" style="2" customWidth="1"/>
+    <col min="15" max="15" width="12.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.75" style="2" customWidth="1"/>
+    <col min="17" max="17" width="45.75" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="23.6" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="1" spans="1:17" ht="23.65" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="31" t="s">
         <v>16</v>
       </c>
@@ -11292,8 +11321,15 @@
       <c r="D1" s="32"/>
       <c r="E1" s="33"/>
       <c r="F1" s="22"/>
-    </row>
-    <row r="2" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="N1" s="42" t="s">
+        <v>637</v>
+      </c>
+      <c r="O1" s="2">
+        <f>COUNTIF(N$7:N$1000,N1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="34" t="s">
         <v>11</v>
       </c>
@@ -11307,8 +11343,15 @@
       <c r="E2" s="3" t="s">
         <v>416</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="N2" s="42" t="s">
+        <v>638</v>
+      </c>
+      <c r="O2" s="2">
+        <f t="shared" ref="O2:O4" si="0">COUNTIF(N$7:N$1000,N2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="36" t="s">
         <v>12</v>
       </c>
@@ -11323,8 +11366,15 @@
         <v>45553</v>
       </c>
       <c r="F3" s="23"/>
-    </row>
-    <row r="4" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="N3" s="42" t="s">
+        <v>639</v>
+      </c>
+      <c r="O3" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="31" t="s">
         <v>2</v>
       </c>
@@ -11333,8 +11383,15 @@
       <c r="D4" s="32"/>
       <c r="E4" s="33"/>
       <c r="F4" s="22"/>
-    </row>
-    <row r="5" spans="1:17" ht="67.5" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="N4" s="42" t="s">
+        <v>640</v>
+      </c>
+      <c r="O4" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="67.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="38" t="s">
         <v>15</v>
       </c>
@@ -11343,8 +11400,15 @@
       <c r="D5" s="40"/>
       <c r="E5" s="41"/>
       <c r="F5" s="24"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.65">
+      <c r="N5" s="42" t="s">
+        <v>641</v>
+      </c>
+      <c r="O5" s="43" t="str">
+        <f>"未実施："&amp;COUNTA(A$7:A$1000)-SUM(O1:O4)&amp;"／実施済："&amp;SUM(O1:O4)</f>
+        <v>未実施：488／実施済：0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A6" s="27" t="s">
         <v>632</v>
       </c>
@@ -11381,7 +11445,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="30.9" x14ac:dyDescent="0.65">
+    <row r="7" spans="1:17" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A7" s="10">
         <f>ROW()-6</f>
         <v>1</v>
@@ -11415,9 +11479,9 @@
       <c r="P7" s="14"/>
       <c r="Q7" s="16"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A8" s="10">
-        <f t="shared" ref="A8:A71" si="0">ROW()-6</f>
+        <f t="shared" ref="A8:A71" si="1">ROW()-6</f>
         <v>2</v>
       </c>
       <c r="B8" s="11"/>
@@ -11441,9 +11505,9 @@
       <c r="P8" s="14"/>
       <c r="Q8" s="16"/>
     </row>
-    <row r="9" spans="1:17" ht="61.75" x14ac:dyDescent="0.65">
+    <row r="9" spans="1:17" ht="63" x14ac:dyDescent="0.4">
       <c r="A9" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="B9" s="11"/>
@@ -11467,9 +11531,9 @@
       <c r="P9" s="14"/>
       <c r="Q9" s="16"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A10" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="B10" s="11"/>
@@ -11493,9 +11557,9 @@
       <c r="P10" s="14"/>
       <c r="Q10" s="16"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A11" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="B11" s="12"/>
@@ -11519,9 +11583,9 @@
       <c r="P11" s="14"/>
       <c r="Q11" s="16"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A12" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="B12" s="12"/>
@@ -11545,9 +11609,9 @@
       <c r="P12" s="14"/>
       <c r="Q12" s="16"/>
     </row>
-    <row r="13" spans="1:17" ht="30.9" x14ac:dyDescent="0.65">
+    <row r="13" spans="1:17" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A13" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="B13" s="11"/>
@@ -11573,9 +11637,9 @@
       <c r="P13" s="14"/>
       <c r="Q13" s="16"/>
     </row>
-    <row r="14" spans="1:17" ht="30.9" x14ac:dyDescent="0.65">
+    <row r="14" spans="1:17" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A14" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="B14" s="11"/>
@@ -11599,9 +11663,9 @@
       <c r="P14" s="14"/>
       <c r="Q14" s="16"/>
     </row>
-    <row r="15" spans="1:17" ht="30.9" x14ac:dyDescent="0.65">
+    <row r="15" spans="1:17" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A15" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="B15" s="11"/>
@@ -11627,9 +11691,9 @@
       <c r="P15" s="14"/>
       <c r="Q15" s="16"/>
     </row>
-    <row r="16" spans="1:17" ht="30.9" x14ac:dyDescent="0.65">
+    <row r="16" spans="1:17" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A16" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="B16" s="11"/>
@@ -11655,9 +11719,9 @@
       <c r="P16" s="14"/>
       <c r="Q16" s="16"/>
     </row>
-    <row r="17" spans="1:17" ht="30.9" x14ac:dyDescent="0.65">
+    <row r="17" spans="1:17" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A17" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="B17" s="11"/>
@@ -11681,9 +11745,9 @@
       <c r="P17" s="14"/>
       <c r="Q17" s="16"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A18" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="B18" s="11"/>
@@ -11709,9 +11773,9 @@
       <c r="P18" s="14"/>
       <c r="Q18" s="16"/>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A19" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="B19" s="11"/>
@@ -11735,9 +11799,9 @@
       <c r="P19" s="14"/>
       <c r="Q19" s="16"/>
     </row>
-    <row r="20" spans="1:17" ht="123.45" x14ac:dyDescent="0.65">
+    <row r="20" spans="1:17" ht="126" x14ac:dyDescent="0.4">
       <c r="A20" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="B20" s="12"/>
@@ -11767,9 +11831,9 @@
       <c r="P20" s="14"/>
       <c r="Q20" s="16"/>
     </row>
-    <row r="21" spans="1:17" ht="123.45" x14ac:dyDescent="0.65">
+    <row r="21" spans="1:17" ht="126" x14ac:dyDescent="0.4">
       <c r="A21" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="B21" s="12"/>
@@ -11795,9 +11859,9 @@
       <c r="P21" s="14"/>
       <c r="Q21" s="16"/>
     </row>
-    <row r="22" spans="1:17" ht="108" x14ac:dyDescent="0.65">
+    <row r="22" spans="1:17" ht="110.25" x14ac:dyDescent="0.4">
       <c r="A22" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="B22" s="12"/>
@@ -11823,9 +11887,9 @@
       <c r="P22" s="14"/>
       <c r="Q22" s="16"/>
     </row>
-    <row r="23" spans="1:17" ht="123.45" x14ac:dyDescent="0.65">
+    <row r="23" spans="1:17" ht="126" x14ac:dyDescent="0.4">
       <c r="A23" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>17</v>
       </c>
       <c r="B23" s="12"/>
@@ -11851,9 +11915,9 @@
       <c r="P23" s="14"/>
       <c r="Q23" s="16"/>
     </row>
-    <row r="24" spans="1:17" ht="123.45" x14ac:dyDescent="0.65">
+    <row r="24" spans="1:17" ht="126" x14ac:dyDescent="0.4">
       <c r="A24" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="B24" s="11"/>
@@ -11879,9 +11943,9 @@
       <c r="P24" s="14"/>
       <c r="Q24" s="16"/>
     </row>
-    <row r="25" spans="1:17" ht="169.75" x14ac:dyDescent="0.65">
+    <row r="25" spans="1:17" ht="173.25" x14ac:dyDescent="0.4">
       <c r="A25" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>19</v>
       </c>
       <c r="B25" s="12"/>
@@ -11913,9 +11977,9 @@
       <c r="P25" s="14"/>
       <c r="Q25" s="16"/>
     </row>
-    <row r="26" spans="1:17" ht="30.9" x14ac:dyDescent="0.65">
+    <row r="26" spans="1:17" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A26" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="B26" s="11"/>
@@ -11941,9 +12005,9 @@
       <c r="P26" s="14"/>
       <c r="Q26" s="16"/>
     </row>
-    <row r="27" spans="1:17" ht="30.9" x14ac:dyDescent="0.65">
+    <row r="27" spans="1:17" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A27" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>21</v>
       </c>
       <c r="B27" s="12"/>
@@ -11967,9 +12031,9 @@
       <c r="P27" s="14"/>
       <c r="Q27" s="16"/>
     </row>
-    <row r="28" spans="1:17" ht="30.9" x14ac:dyDescent="0.65">
+    <row r="28" spans="1:17" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A28" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>22</v>
       </c>
       <c r="B28" s="11"/>
@@ -11993,9 +12057,9 @@
       <c r="P28" s="14"/>
       <c r="Q28" s="16"/>
     </row>
-    <row r="29" spans="1:17" ht="30.9" x14ac:dyDescent="0.65">
+    <row r="29" spans="1:17" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A29" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>23</v>
       </c>
       <c r="B29" s="11"/>
@@ -12019,9 +12083,9 @@
       <c r="P29" s="14"/>
       <c r="Q29" s="16"/>
     </row>
-    <row r="30" spans="1:17" ht="30.9" x14ac:dyDescent="0.65">
+    <row r="30" spans="1:17" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A30" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
       <c r="B30" s="11"/>
@@ -12047,9 +12111,9 @@
       <c r="P30" s="14"/>
       <c r="Q30" s="16"/>
     </row>
-    <row r="31" spans="1:17" ht="46.3" x14ac:dyDescent="0.65">
+    <row r="31" spans="1:17" ht="47.25" x14ac:dyDescent="0.4">
       <c r="A31" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
       <c r="B31" s="11"/>
@@ -12073,9 +12137,9 @@
       <c r="P31" s="14"/>
       <c r="Q31" s="16"/>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A32" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>26</v>
       </c>
       <c r="B32" s="11"/>
@@ -12101,9 +12165,9 @@
       <c r="P32" s="14"/>
       <c r="Q32" s="16"/>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A33" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>27</v>
       </c>
       <c r="B33" s="11"/>
@@ -12129,9 +12193,9 @@
       <c r="P33" s="14"/>
       <c r="Q33" s="16"/>
     </row>
-    <row r="34" spans="1:17" ht="61.75" x14ac:dyDescent="0.65">
+    <row r="34" spans="1:17" ht="63" x14ac:dyDescent="0.4">
       <c r="A34" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>28</v>
       </c>
       <c r="B34" s="11"/>
@@ -12155,9 +12219,9 @@
       <c r="P34" s="14"/>
       <c r="Q34" s="16"/>
     </row>
-    <row r="35" spans="1:17" ht="61.75" x14ac:dyDescent="0.65">
+    <row r="35" spans="1:17" ht="63" x14ac:dyDescent="0.4">
       <c r="A35" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>29</v>
       </c>
       <c r="B35" s="11"/>
@@ -12181,9 +12245,9 @@
       <c r="P35" s="14"/>
       <c r="Q35" s="16"/>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A36" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
       <c r="B36" s="11"/>
@@ -12209,9 +12273,9 @@
       <c r="P36" s="14"/>
       <c r="Q36" s="16"/>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A37" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>31</v>
       </c>
       <c r="B37" s="12"/>
@@ -12235,9 +12299,9 @@
       <c r="P37" s="14"/>
       <c r="Q37" s="16"/>
     </row>
-    <row r="38" spans="1:17" ht="30.9" x14ac:dyDescent="0.65">
+    <row r="38" spans="1:17" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A38" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>32</v>
       </c>
       <c r="B38" s="12"/>
@@ -12261,9 +12325,9 @@
       <c r="P38" s="14"/>
       <c r="Q38" s="16"/>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A39" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>33</v>
       </c>
       <c r="B39" s="12"/>
@@ -12291,9 +12355,9 @@
       <c r="P39" s="14"/>
       <c r="Q39" s="16"/>
     </row>
-    <row r="40" spans="1:17" ht="169.75" x14ac:dyDescent="0.65">
+    <row r="40" spans="1:17" ht="173.25" x14ac:dyDescent="0.4">
       <c r="A40" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>34</v>
       </c>
       <c r="B40" s="11"/>
@@ -12321,9 +12385,9 @@
       <c r="P40" s="14"/>
       <c r="Q40" s="16"/>
     </row>
-    <row r="41" spans="1:17" ht="123.45" x14ac:dyDescent="0.65">
+    <row r="41" spans="1:17" ht="126" x14ac:dyDescent="0.4">
       <c r="A41" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>35</v>
       </c>
       <c r="B41" s="12"/>
@@ -12349,9 +12413,9 @@
       <c r="P41" s="14"/>
       <c r="Q41" s="16"/>
     </row>
-    <row r="42" spans="1:17" ht="30.9" x14ac:dyDescent="0.65">
+    <row r="42" spans="1:17" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A42" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>36</v>
       </c>
       <c r="B42" s="12"/>
@@ -12375,9 +12439,9 @@
       <c r="P42" s="14"/>
       <c r="Q42" s="16"/>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A43" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>37</v>
       </c>
       <c r="B43" s="12"/>
@@ -12401,9 +12465,9 @@
       <c r="P43" s="14"/>
       <c r="Q43" s="16"/>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A44" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>38</v>
       </c>
       <c r="B44" s="12"/>
@@ -12427,9 +12491,9 @@
       <c r="P44" s="14"/>
       <c r="Q44" s="16"/>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A45" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>39</v>
       </c>
       <c r="B45" s="12"/>
@@ -12453,9 +12517,9 @@
       <c r="P45" s="14"/>
       <c r="Q45" s="16"/>
     </row>
-    <row r="46" spans="1:17" ht="77.150000000000006" x14ac:dyDescent="0.65">
+    <row r="46" spans="1:17" ht="78.75" x14ac:dyDescent="0.4">
       <c r="A46" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
       <c r="B46" s="12"/>
@@ -12481,9 +12545,9 @@
       <c r="P46" s="14"/>
       <c r="Q46" s="16"/>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A47" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>41</v>
       </c>
       <c r="B47" s="12"/>
@@ -12507,9 +12571,9 @@
       <c r="P47" s="14"/>
       <c r="Q47" s="16"/>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A48" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>42</v>
       </c>
       <c r="B48" s="12"/>
@@ -12537,9 +12601,9 @@
       <c r="P48" s="14"/>
       <c r="Q48" s="16"/>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A49" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>43</v>
       </c>
       <c r="B49" s="12"/>
@@ -12565,9 +12629,9 @@
       <c r="P49" s="14"/>
       <c r="Q49" s="16"/>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A50" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>44</v>
       </c>
       <c r="B50" s="12"/>
@@ -12591,9 +12655,9 @@
       <c r="P50" s="14"/>
       <c r="Q50" s="16"/>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A51" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45</v>
       </c>
       <c r="B51" s="12"/>
@@ -12617,9 +12681,9 @@
       <c r="P51" s="14"/>
       <c r="Q51" s="16"/>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A52" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>46</v>
       </c>
       <c r="B52" s="12"/>
@@ -12645,9 +12709,9 @@
       <c r="P52" s="14"/>
       <c r="Q52" s="16"/>
     </row>
-    <row r="53" spans="1:17" ht="30.9" x14ac:dyDescent="0.65">
+    <row r="53" spans="1:17" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A53" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>47</v>
       </c>
       <c r="B53" s="12"/>
@@ -12675,9 +12739,9 @@
       <c r="P53" s="14"/>
       <c r="Q53" s="16"/>
     </row>
-    <row r="54" spans="1:17" ht="30.9" x14ac:dyDescent="0.65">
+    <row r="54" spans="1:17" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A54" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>48</v>
       </c>
       <c r="B54" s="12"/>
@@ -12701,9 +12765,9 @@
       <c r="P54" s="14"/>
       <c r="Q54" s="16"/>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A55" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>49</v>
       </c>
       <c r="B55" s="12"/>
@@ -12727,9 +12791,9 @@
       <c r="P55" s="14"/>
       <c r="Q55" s="16"/>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A56" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>50</v>
       </c>
       <c r="B56" s="12"/>
@@ -12753,9 +12817,9 @@
       <c r="P56" s="14"/>
       <c r="Q56" s="16"/>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A57" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>51</v>
       </c>
       <c r="B57" s="12"/>
@@ -12779,9 +12843,9 @@
       <c r="P57" s="14"/>
       <c r="Q57" s="16"/>
     </row>
-    <row r="58" spans="1:17" ht="46.3" x14ac:dyDescent="0.65">
+    <row r="58" spans="1:17" ht="47.25" x14ac:dyDescent="0.4">
       <c r="A58" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>52</v>
       </c>
       <c r="B58" s="11"/>
@@ -12807,9 +12871,9 @@
       <c r="P58" s="14"/>
       <c r="Q58" s="16"/>
     </row>
-    <row r="59" spans="1:17" ht="46.3" x14ac:dyDescent="0.65">
+    <row r="59" spans="1:17" ht="47.25" x14ac:dyDescent="0.4">
       <c r="A59" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>53</v>
       </c>
       <c r="B59" s="12"/>
@@ -12833,9 +12897,9 @@
       <c r="P59" s="14"/>
       <c r="Q59" s="16"/>
     </row>
-    <row r="60" spans="1:17" ht="46.3" x14ac:dyDescent="0.65">
+    <row r="60" spans="1:17" ht="47.25" x14ac:dyDescent="0.4">
       <c r="A60" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>54</v>
       </c>
       <c r="B60" s="12"/>
@@ -12865,9 +12929,9 @@
       <c r="P60" s="14"/>
       <c r="Q60" s="16"/>
     </row>
-    <row r="61" spans="1:17" ht="30.9" x14ac:dyDescent="0.65">
+    <row r="61" spans="1:17" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A61" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>55</v>
       </c>
       <c r="B61" s="12"/>
@@ -12893,9 +12957,9 @@
       <c r="P61" s="14"/>
       <c r="Q61" s="16"/>
     </row>
-    <row r="62" spans="1:17" ht="30.9" x14ac:dyDescent="0.65">
+    <row r="62" spans="1:17" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A62" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>56</v>
       </c>
       <c r="B62" s="12"/>
@@ -12921,9 +12985,9 @@
       <c r="P62" s="14"/>
       <c r="Q62" s="16"/>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A63" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>57</v>
       </c>
       <c r="B63" s="12"/>
@@ -12955,9 +13019,9 @@
       <c r="P63" s="14"/>
       <c r="Q63" s="16"/>
     </row>
-    <row r="64" spans="1:17" ht="92.6" x14ac:dyDescent="0.65">
+    <row r="64" spans="1:17" ht="94.5" x14ac:dyDescent="0.4">
       <c r="A64" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>58</v>
       </c>
       <c r="B64" s="12"/>
@@ -12983,9 +13047,9 @@
       <c r="P64" s="14"/>
       <c r="Q64" s="16"/>
     </row>
-    <row r="65" spans="1:17" ht="92.6" x14ac:dyDescent="0.65">
+    <row r="65" spans="1:17" ht="94.5" x14ac:dyDescent="0.4">
       <c r="A65" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>59</v>
       </c>
       <c r="B65" s="12"/>
@@ -13009,9 +13073,9 @@
       <c r="P65" s="14"/>
       <c r="Q65" s="16"/>
     </row>
-    <row r="66" spans="1:17" ht="92.6" x14ac:dyDescent="0.65">
+    <row r="66" spans="1:17" ht="94.5" x14ac:dyDescent="0.4">
       <c r="A66" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
       <c r="B66" s="12"/>
@@ -13035,9 +13099,9 @@
       <c r="P66" s="14"/>
       <c r="Q66" s="16"/>
     </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="67" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A67" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>61</v>
       </c>
       <c r="B67" s="12"/>
@@ -13063,9 +13127,9 @@
       <c r="P67" s="14"/>
       <c r="Q67" s="16"/>
     </row>
-    <row r="68" spans="1:17" ht="92.6" x14ac:dyDescent="0.65">
+    <row r="68" spans="1:17" ht="94.5" x14ac:dyDescent="0.4">
       <c r="A68" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>62</v>
       </c>
       <c r="B68" s="12"/>
@@ -13091,9 +13155,9 @@
       <c r="P68" s="14"/>
       <c r="Q68" s="16"/>
     </row>
-    <row r="69" spans="1:17" ht="92.6" x14ac:dyDescent="0.65">
+    <row r="69" spans="1:17" ht="94.5" x14ac:dyDescent="0.4">
       <c r="A69" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>63</v>
       </c>
       <c r="B69" s="12"/>
@@ -13117,9 +13181,9 @@
       <c r="P69" s="14"/>
       <c r="Q69" s="16"/>
     </row>
-    <row r="70" spans="1:17" ht="92.6" x14ac:dyDescent="0.65">
+    <row r="70" spans="1:17" ht="94.5" x14ac:dyDescent="0.4">
       <c r="A70" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>64</v>
       </c>
       <c r="B70" s="12"/>
@@ -13143,9 +13207,9 @@
       <c r="P70" s="14"/>
       <c r="Q70" s="16"/>
     </row>
-    <row r="71" spans="1:17" ht="30.9" x14ac:dyDescent="0.65">
+    <row r="71" spans="1:17" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A71" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>65</v>
       </c>
       <c r="B71" s="12"/>
@@ -13175,9 +13239,9 @@
       <c r="P71" s="14"/>
       <c r="Q71" s="16"/>
     </row>
-    <row r="72" spans="1:17" ht="30.9" x14ac:dyDescent="0.65">
+    <row r="72" spans="1:17" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A72" s="10">
-        <f t="shared" ref="A72:A135" si="1">ROW()-6</f>
+        <f t="shared" ref="A72:A135" si="2">ROW()-6</f>
         <v>66</v>
       </c>
       <c r="B72" s="12"/>
@@ -13203,9 +13267,9 @@
       <c r="P72" s="14"/>
       <c r="Q72" s="16"/>
     </row>
-    <row r="73" spans="1:17" ht="92.6" x14ac:dyDescent="0.65">
+    <row r="73" spans="1:17" ht="94.5" x14ac:dyDescent="0.4">
       <c r="A73" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>67</v>
       </c>
       <c r="B73" s="12"/>
@@ -13231,9 +13295,9 @@
       <c r="P73" s="14"/>
       <c r="Q73" s="16"/>
     </row>
-    <row r="74" spans="1:17" ht="92.6" x14ac:dyDescent="0.65">
+    <row r="74" spans="1:17" ht="94.5" x14ac:dyDescent="0.4">
       <c r="A74" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>68</v>
       </c>
       <c r="B74" s="12"/>
@@ -13257,9 +13321,9 @@
       <c r="P74" s="14"/>
       <c r="Q74" s="16"/>
     </row>
-    <row r="75" spans="1:17" ht="92.6" x14ac:dyDescent="0.65">
+    <row r="75" spans="1:17" ht="94.5" x14ac:dyDescent="0.4">
       <c r="A75" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>69</v>
       </c>
       <c r="B75" s="12"/>
@@ -13283,9 +13347,9 @@
       <c r="P75" s="14"/>
       <c r="Q75" s="16"/>
     </row>
-    <row r="76" spans="1:17" ht="30.9" x14ac:dyDescent="0.65">
+    <row r="76" spans="1:17" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A76" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>70</v>
       </c>
       <c r="B76" s="12"/>
@@ -13313,9 +13377,9 @@
       <c r="P76" s="14"/>
       <c r="Q76" s="16"/>
     </row>
-    <row r="77" spans="1:17" ht="30.9" x14ac:dyDescent="0.65">
+    <row r="77" spans="1:17" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A77" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>71</v>
       </c>
       <c r="B77" s="12"/>
@@ -13341,9 +13405,9 @@
       <c r="P77" s="14"/>
       <c r="Q77" s="16"/>
     </row>
-    <row r="78" spans="1:17" ht="92.6" x14ac:dyDescent="0.65">
+    <row r="78" spans="1:17" ht="94.5" x14ac:dyDescent="0.4">
       <c r="A78" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>72</v>
       </c>
       <c r="B78" s="12"/>
@@ -13369,9 +13433,9 @@
       <c r="P78" s="14"/>
       <c r="Q78" s="16"/>
     </row>
-    <row r="79" spans="1:17" ht="92.6" x14ac:dyDescent="0.65">
+    <row r="79" spans="1:17" ht="94.5" x14ac:dyDescent="0.4">
       <c r="A79" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>73</v>
       </c>
       <c r="B79" s="12"/>
@@ -13395,9 +13459,9 @@
       <c r="P79" s="14"/>
       <c r="Q79" s="16"/>
     </row>
-    <row r="80" spans="1:17" ht="92.6" x14ac:dyDescent="0.65">
+    <row r="80" spans="1:17" ht="94.5" x14ac:dyDescent="0.4">
       <c r="A80" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>74</v>
       </c>
       <c r="B80" s="12"/>
@@ -13421,9 +13485,9 @@
       <c r="P80" s="14"/>
       <c r="Q80" s="16"/>
     </row>
-    <row r="81" spans="1:17" ht="30.9" x14ac:dyDescent="0.65">
+    <row r="81" spans="1:17" ht="47.25" x14ac:dyDescent="0.4">
       <c r="A81" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>75</v>
       </c>
       <c r="B81" s="12"/>
@@ -13449,9 +13513,9 @@
       <c r="P81" s="14"/>
       <c r="Q81" s="16"/>
     </row>
-    <row r="82" spans="1:17" ht="30.9" x14ac:dyDescent="0.65">
+    <row r="82" spans="1:17" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A82" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>76</v>
       </c>
       <c r="B82" s="12"/>
@@ -13477,9 +13541,9 @@
       <c r="P82" s="14"/>
       <c r="Q82" s="16"/>
     </row>
-    <row r="83" spans="1:17" ht="92.6" x14ac:dyDescent="0.65">
+    <row r="83" spans="1:17" ht="94.5" x14ac:dyDescent="0.4">
       <c r="A83" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>77</v>
       </c>
       <c r="B83" s="12"/>
@@ -13505,9 +13569,9 @@
       <c r="P83" s="14"/>
       <c r="Q83" s="16"/>
     </row>
-    <row r="84" spans="1:17" ht="92.6" x14ac:dyDescent="0.65">
+    <row r="84" spans="1:17" ht="94.5" x14ac:dyDescent="0.4">
       <c r="A84" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>78</v>
       </c>
       <c r="B84" s="12"/>
@@ -13531,9 +13595,9 @@
       <c r="P84" s="14"/>
       <c r="Q84" s="16"/>
     </row>
-    <row r="85" spans="1:17" ht="92.6" x14ac:dyDescent="0.65">
+    <row r="85" spans="1:17" ht="94.5" x14ac:dyDescent="0.4">
       <c r="A85" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>79</v>
       </c>
       <c r="B85" s="12"/>
@@ -13557,9 +13621,9 @@
       <c r="P85" s="14"/>
       <c r="Q85" s="16"/>
     </row>
-    <row r="86" spans="1:17" ht="30.9" x14ac:dyDescent="0.65">
+    <row r="86" spans="1:17" ht="47.25" x14ac:dyDescent="0.4">
       <c r="A86" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>80</v>
       </c>
       <c r="B86" s="12"/>
@@ -13587,9 +13651,9 @@
       <c r="P86" s="14"/>
       <c r="Q86" s="16"/>
     </row>
-    <row r="87" spans="1:17" ht="30.9" x14ac:dyDescent="0.65">
+    <row r="87" spans="1:17" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A87" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>81</v>
       </c>
       <c r="B87" s="12"/>
@@ -13615,9 +13679,9 @@
       <c r="P87" s="14"/>
       <c r="Q87" s="16"/>
     </row>
-    <row r="88" spans="1:17" ht="92.6" x14ac:dyDescent="0.65">
+    <row r="88" spans="1:17" ht="94.5" x14ac:dyDescent="0.4">
       <c r="A88" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>82</v>
       </c>
       <c r="B88" s="12"/>
@@ -13643,9 +13707,9 @@
       <c r="P88" s="14"/>
       <c r="Q88" s="16"/>
     </row>
-    <row r="89" spans="1:17" ht="92.6" x14ac:dyDescent="0.65">
+    <row r="89" spans="1:17" ht="94.5" x14ac:dyDescent="0.4">
       <c r="A89" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>83</v>
       </c>
       <c r="B89" s="12"/>
@@ -13669,9 +13733,9 @@
       <c r="P89" s="14"/>
       <c r="Q89" s="16"/>
     </row>
-    <row r="90" spans="1:17" ht="92.6" x14ac:dyDescent="0.65">
+    <row r="90" spans="1:17" ht="94.5" x14ac:dyDescent="0.4">
       <c r="A90" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>84</v>
       </c>
       <c r="B90" s="12"/>
@@ -13695,9 +13759,9 @@
       <c r="P90" s="14"/>
       <c r="Q90" s="16"/>
     </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="91" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A91" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>85</v>
       </c>
       <c r="B91" s="12"/>
@@ -13725,9 +13789,9 @@
       <c r="P91" s="14"/>
       <c r="Q91" s="16"/>
     </row>
-    <row r="92" spans="1:17" ht="92.6" x14ac:dyDescent="0.65">
+    <row r="92" spans="1:17" ht="94.5" x14ac:dyDescent="0.4">
       <c r="A92" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>86</v>
       </c>
       <c r="B92" s="12"/>
@@ -13755,9 +13819,9 @@
       <c r="P92" s="14"/>
       <c r="Q92" s="16"/>
     </row>
-    <row r="93" spans="1:17" ht="92.6" x14ac:dyDescent="0.65">
+    <row r="93" spans="1:17" ht="94.5" x14ac:dyDescent="0.4">
       <c r="A93" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>87</v>
       </c>
       <c r="B93" s="12"/>
@@ -13781,9 +13845,9 @@
       <c r="P93" s="14"/>
       <c r="Q93" s="16"/>
     </row>
-    <row r="94" spans="1:17" ht="92.6" x14ac:dyDescent="0.65">
+    <row r="94" spans="1:17" ht="94.5" x14ac:dyDescent="0.4">
       <c r="A94" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>88</v>
       </c>
       <c r="B94" s="12"/>
@@ -13807,9 +13871,9 @@
       <c r="P94" s="14"/>
       <c r="Q94" s="16"/>
     </row>
-    <row r="95" spans="1:17" ht="30.9" x14ac:dyDescent="0.65">
+    <row r="95" spans="1:17" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A95" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>89</v>
       </c>
       <c r="B95" s="12"/>
@@ -13837,9 +13901,9 @@
       <c r="P95" s="14"/>
       <c r="Q95" s="16"/>
     </row>
-    <row r="96" spans="1:17" ht="30.9" x14ac:dyDescent="0.65">
+    <row r="96" spans="1:17" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A96" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>90</v>
       </c>
       <c r="B96" s="12"/>
@@ -13863,9 +13927,9 @@
       <c r="P96" s="14"/>
       <c r="Q96" s="16"/>
     </row>
-    <row r="97" spans="1:17" ht="92.6" x14ac:dyDescent="0.65">
+    <row r="97" spans="1:17" ht="94.5" x14ac:dyDescent="0.4">
       <c r="A97" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>91</v>
       </c>
       <c r="B97" s="12"/>
@@ -13893,9 +13957,9 @@
       <c r="P97" s="14"/>
       <c r="Q97" s="16"/>
     </row>
-    <row r="98" spans="1:17" ht="92.6" x14ac:dyDescent="0.65">
+    <row r="98" spans="1:17" ht="94.5" x14ac:dyDescent="0.4">
       <c r="A98" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>92</v>
       </c>
       <c r="B98" s="12"/>
@@ -13919,9 +13983,9 @@
       <c r="P98" s="14"/>
       <c r="Q98" s="16"/>
     </row>
-    <row r="99" spans="1:17" ht="92.6" x14ac:dyDescent="0.65">
+    <row r="99" spans="1:17" ht="94.5" x14ac:dyDescent="0.4">
       <c r="A99" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>93</v>
       </c>
       <c r="B99" s="12"/>
@@ -13945,9 +14009,9 @@
       <c r="P99" s="14"/>
       <c r="Q99" s="16"/>
     </row>
-    <row r="100" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="100" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A100" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>94</v>
       </c>
       <c r="B100" s="12"/>
@@ -13977,9 +14041,9 @@
       <c r="P100" s="14"/>
       <c r="Q100" s="16"/>
     </row>
-    <row r="101" spans="1:17" ht="92.6" x14ac:dyDescent="0.65">
+    <row r="101" spans="1:17" ht="94.5" x14ac:dyDescent="0.4">
       <c r="A101" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>95</v>
       </c>
       <c r="B101" s="12"/>
@@ -14005,9 +14069,9 @@
       <c r="P101" s="14"/>
       <c r="Q101" s="16"/>
     </row>
-    <row r="102" spans="1:17" ht="92.6" x14ac:dyDescent="0.65">
+    <row r="102" spans="1:17" ht="94.5" x14ac:dyDescent="0.4">
       <c r="A102" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>96</v>
       </c>
       <c r="B102" s="12"/>
@@ -14031,9 +14095,9 @@
       <c r="P102" s="14"/>
       <c r="Q102" s="16"/>
     </row>
-    <row r="103" spans="1:17" ht="92.6" x14ac:dyDescent="0.65">
+    <row r="103" spans="1:17" ht="94.5" x14ac:dyDescent="0.4">
       <c r="A103" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>97</v>
       </c>
       <c r="B103" s="12"/>
@@ -14057,9 +14121,9 @@
       <c r="P103" s="14"/>
       <c r="Q103" s="16"/>
     </row>
-    <row r="104" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="104" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A104" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>98</v>
       </c>
       <c r="B104" s="12"/>
@@ -14085,9 +14149,9 @@
       <c r="P104" s="14"/>
       <c r="Q104" s="16"/>
     </row>
-    <row r="105" spans="1:17" ht="92.6" x14ac:dyDescent="0.65">
+    <row r="105" spans="1:17" ht="94.5" x14ac:dyDescent="0.4">
       <c r="A105" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>99</v>
       </c>
       <c r="B105" s="12"/>
@@ -14113,9 +14177,9 @@
       <c r="P105" s="14"/>
       <c r="Q105" s="16"/>
     </row>
-    <row r="106" spans="1:17" ht="92.6" x14ac:dyDescent="0.65">
+    <row r="106" spans="1:17" ht="94.5" x14ac:dyDescent="0.4">
       <c r="A106" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
       <c r="B106" s="12"/>
@@ -14139,9 +14203,9 @@
       <c r="P106" s="14"/>
       <c r="Q106" s="16"/>
     </row>
-    <row r="107" spans="1:17" ht="92.6" x14ac:dyDescent="0.65">
+    <row r="107" spans="1:17" ht="94.5" x14ac:dyDescent="0.4">
       <c r="A107" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>101</v>
       </c>
       <c r="B107" s="12"/>
@@ -14165,9 +14229,9 @@
       <c r="P107" s="14"/>
       <c r="Q107" s="16"/>
     </row>
-    <row r="108" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="108" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A108" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>102</v>
       </c>
       <c r="B108" s="12"/>
@@ -14195,9 +14259,9 @@
       <c r="P108" s="14"/>
       <c r="Q108" s="16"/>
     </row>
-    <row r="109" spans="1:17" ht="92.6" x14ac:dyDescent="0.65">
+    <row r="109" spans="1:17" ht="94.5" x14ac:dyDescent="0.4">
       <c r="A109" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>103</v>
       </c>
       <c r="B109" s="12"/>
@@ -14225,9 +14289,9 @@
       <c r="P109" s="14"/>
       <c r="Q109" s="16"/>
     </row>
-    <row r="110" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="110" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A110" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>104</v>
       </c>
       <c r="B110" s="12"/>
@@ -14253,9 +14317,9 @@
       <c r="P110" s="14"/>
       <c r="Q110" s="16"/>
     </row>
-    <row r="111" spans="1:17" ht="92.6" x14ac:dyDescent="0.65">
+    <row r="111" spans="1:17" ht="94.5" x14ac:dyDescent="0.4">
       <c r="A111" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>105</v>
       </c>
       <c r="B111" s="12"/>
@@ -14281,9 +14345,9 @@
       <c r="P111" s="14"/>
       <c r="Q111" s="16"/>
     </row>
-    <row r="112" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="112" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A112" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>106</v>
       </c>
       <c r="B112" s="12"/>
@@ -14311,9 +14375,9 @@
       <c r="P112" s="14"/>
       <c r="Q112" s="16"/>
     </row>
-    <row r="113" spans="1:17" ht="92.6" x14ac:dyDescent="0.65">
+    <row r="113" spans="1:17" ht="94.5" x14ac:dyDescent="0.4">
       <c r="A113" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>107</v>
       </c>
       <c r="B113" s="12"/>
@@ -14341,9 +14405,9 @@
       <c r="P113" s="14"/>
       <c r="Q113" s="16"/>
     </row>
-    <row r="114" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="114" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A114" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>108</v>
       </c>
       <c r="B114" s="12"/>
@@ -14369,9 +14433,9 @@
       <c r="P114" s="14"/>
       <c r="Q114" s="16"/>
     </row>
-    <row r="115" spans="1:17" ht="92.6" x14ac:dyDescent="0.65">
+    <row r="115" spans="1:17" ht="94.5" x14ac:dyDescent="0.4">
       <c r="A115" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>109</v>
       </c>
       <c r="B115" s="12"/>
@@ -14397,9 +14461,9 @@
       <c r="P115" s="14"/>
       <c r="Q115" s="16"/>
     </row>
-    <row r="116" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="116" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A116" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>110</v>
       </c>
       <c r="B116" s="12"/>
@@ -14427,9 +14491,9 @@
       <c r="P116" s="14"/>
       <c r="Q116" s="16"/>
     </row>
-    <row r="117" spans="1:17" ht="92.6" x14ac:dyDescent="0.65">
+    <row r="117" spans="1:17" ht="94.5" x14ac:dyDescent="0.4">
       <c r="A117" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>111</v>
       </c>
       <c r="B117" s="12"/>
@@ -14457,9 +14521,9 @@
       <c r="P117" s="14"/>
       <c r="Q117" s="16"/>
     </row>
-    <row r="118" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="118" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A118" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>112</v>
       </c>
       <c r="B118" s="12"/>
@@ -14485,9 +14549,9 @@
       <c r="P118" s="14"/>
       <c r="Q118" s="16"/>
     </row>
-    <row r="119" spans="1:17" ht="92.6" x14ac:dyDescent="0.65">
+    <row r="119" spans="1:17" ht="94.5" x14ac:dyDescent="0.4">
       <c r="A119" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>113</v>
       </c>
       <c r="B119" s="12"/>
@@ -14513,9 +14577,9 @@
       <c r="P119" s="14"/>
       <c r="Q119" s="16"/>
     </row>
-    <row r="120" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="120" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A120" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>114</v>
       </c>
       <c r="B120" s="12"/>
@@ -14543,9 +14607,9 @@
       <c r="P120" s="14"/>
       <c r="Q120" s="16"/>
     </row>
-    <row r="121" spans="1:17" ht="92.6" x14ac:dyDescent="0.65">
+    <row r="121" spans="1:17" ht="94.5" x14ac:dyDescent="0.4">
       <c r="A121" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>115</v>
       </c>
       <c r="B121" s="12"/>
@@ -14573,9 +14637,9 @@
       <c r="P121" s="14"/>
       <c r="Q121" s="16"/>
     </row>
-    <row r="122" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="122" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A122" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>116</v>
       </c>
       <c r="B122" s="12"/>
@@ -14601,9 +14665,9 @@
       <c r="P122" s="14"/>
       <c r="Q122" s="16"/>
     </row>
-    <row r="123" spans="1:17" ht="92.6" x14ac:dyDescent="0.65">
+    <row r="123" spans="1:17" ht="94.5" x14ac:dyDescent="0.4">
       <c r="A123" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>117</v>
       </c>
       <c r="B123" s="12"/>
@@ -14629,9 +14693,9 @@
       <c r="P123" s="14"/>
       <c r="Q123" s="16"/>
     </row>
-    <row r="124" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="124" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A124" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>118</v>
       </c>
       <c r="B124" s="12"/>
@@ -14659,9 +14723,9 @@
       <c r="P124" s="14"/>
       <c r="Q124" s="16"/>
     </row>
-    <row r="125" spans="1:17" ht="92.6" x14ac:dyDescent="0.65">
+    <row r="125" spans="1:17" ht="94.5" x14ac:dyDescent="0.4">
       <c r="A125" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>119</v>
       </c>
       <c r="B125" s="12"/>
@@ -14689,9 +14753,9 @@
       <c r="P125" s="14"/>
       <c r="Q125" s="16"/>
     </row>
-    <row r="126" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="126" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A126" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>120</v>
       </c>
       <c r="B126" s="12"/>
@@ -14717,9 +14781,9 @@
       <c r="P126" s="14"/>
       <c r="Q126" s="16"/>
     </row>
-    <row r="127" spans="1:17" ht="92.6" x14ac:dyDescent="0.65">
+    <row r="127" spans="1:17" ht="94.5" x14ac:dyDescent="0.4">
       <c r="A127" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>121</v>
       </c>
       <c r="B127" s="12"/>
@@ -14745,9 +14809,9 @@
       <c r="P127" s="14"/>
       <c r="Q127" s="16"/>
     </row>
-    <row r="128" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="128" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A128" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>122</v>
       </c>
       <c r="B128" s="12"/>
@@ -14775,9 +14839,9 @@
       <c r="P128" s="14"/>
       <c r="Q128" s="16"/>
     </row>
-    <row r="129" spans="1:17" ht="92.6" x14ac:dyDescent="0.65">
+    <row r="129" spans="1:17" ht="94.5" x14ac:dyDescent="0.4">
       <c r="A129" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>123</v>
       </c>
       <c r="B129" s="12"/>
@@ -14805,9 +14869,9 @@
       <c r="P129" s="14"/>
       <c r="Q129" s="16"/>
     </row>
-    <row r="130" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="130" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A130" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>124</v>
       </c>
       <c r="B130" s="12"/>
@@ -14833,9 +14897,9 @@
       <c r="P130" s="14"/>
       <c r="Q130" s="16"/>
     </row>
-    <row r="131" spans="1:17" ht="92.6" x14ac:dyDescent="0.65">
+    <row r="131" spans="1:17" ht="94.5" x14ac:dyDescent="0.4">
       <c r="A131" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>125</v>
       </c>
       <c r="B131" s="12"/>
@@ -14861,9 +14925,9 @@
       <c r="P131" s="14"/>
       <c r="Q131" s="16"/>
     </row>
-    <row r="132" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="132" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A132" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>126</v>
       </c>
       <c r="B132" s="12"/>
@@ -14891,9 +14955,9 @@
       <c r="P132" s="14"/>
       <c r="Q132" s="16"/>
     </row>
-    <row r="133" spans="1:17" ht="92.6" x14ac:dyDescent="0.65">
+    <row r="133" spans="1:17" ht="94.5" x14ac:dyDescent="0.4">
       <c r="A133" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>127</v>
       </c>
       <c r="B133" s="12"/>
@@ -14921,9 +14985,9 @@
       <c r="P133" s="14"/>
       <c r="Q133" s="16"/>
     </row>
-    <row r="134" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="134" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A134" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>128</v>
       </c>
       <c r="B134" s="12"/>
@@ -14949,9 +15013,9 @@
       <c r="P134" s="14"/>
       <c r="Q134" s="16"/>
     </row>
-    <row r="135" spans="1:17" ht="92.6" x14ac:dyDescent="0.65">
+    <row r="135" spans="1:17" ht="94.5" x14ac:dyDescent="0.4">
       <c r="A135" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>129</v>
       </c>
       <c r="B135" s="12"/>
@@ -14977,9 +15041,9 @@
       <c r="P135" s="14"/>
       <c r="Q135" s="16"/>
     </row>
-    <row r="136" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="136" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A136" s="10">
-        <f t="shared" ref="A136:A199" si="2">ROW()-6</f>
+        <f t="shared" ref="A136:A199" si="3">ROW()-6</f>
         <v>130</v>
       </c>
       <c r="B136" s="12"/>
@@ -15007,9 +15071,9 @@
       <c r="P136" s="14"/>
       <c r="Q136" s="16"/>
     </row>
-    <row r="137" spans="1:17" ht="92.6" x14ac:dyDescent="0.65">
+    <row r="137" spans="1:17" ht="94.5" x14ac:dyDescent="0.4">
       <c r="A137" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>131</v>
       </c>
       <c r="B137" s="12"/>
@@ -15037,9 +15101,9 @@
       <c r="P137" s="14"/>
       <c r="Q137" s="16"/>
     </row>
-    <row r="138" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="138" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A138" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>132</v>
       </c>
       <c r="B138" s="12"/>
@@ -15067,9 +15131,9 @@
       <c r="P138" s="14"/>
       <c r="Q138" s="16"/>
     </row>
-    <row r="139" spans="1:17" ht="92.6" x14ac:dyDescent="0.65">
+    <row r="139" spans="1:17" ht="94.5" x14ac:dyDescent="0.4">
       <c r="A139" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>133</v>
       </c>
       <c r="B139" s="12"/>
@@ -15097,9 +15161,9 @@
       <c r="P139" s="14"/>
       <c r="Q139" s="16"/>
     </row>
-    <row r="140" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="140" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A140" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>134</v>
       </c>
       <c r="B140" s="12"/>
@@ -15125,9 +15189,9 @@
       <c r="P140" s="14"/>
       <c r="Q140" s="16"/>
     </row>
-    <row r="141" spans="1:17" ht="92.6" x14ac:dyDescent="0.65">
+    <row r="141" spans="1:17" ht="94.5" x14ac:dyDescent="0.4">
       <c r="A141" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>135</v>
       </c>
       <c r="B141" s="12"/>
@@ -15153,9 +15217,9 @@
       <c r="P141" s="14"/>
       <c r="Q141" s="16"/>
     </row>
-    <row r="142" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="142" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A142" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>136</v>
       </c>
       <c r="B142" s="12"/>
@@ -15183,9 +15247,9 @@
       <c r="P142" s="14"/>
       <c r="Q142" s="16"/>
     </row>
-    <row r="143" spans="1:17" ht="92.6" x14ac:dyDescent="0.65">
+    <row r="143" spans="1:17" ht="94.5" x14ac:dyDescent="0.4">
       <c r="A143" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>137</v>
       </c>
       <c r="B143" s="12"/>
@@ -15213,9 +15277,9 @@
       <c r="P143" s="14"/>
       <c r="Q143" s="16"/>
     </row>
-    <row r="144" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="144" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A144" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>138</v>
       </c>
       <c r="B144" s="12"/>
@@ -15243,9 +15307,9 @@
       <c r="P144" s="14"/>
       <c r="Q144" s="16"/>
     </row>
-    <row r="145" spans="1:17" ht="92.6" x14ac:dyDescent="0.65">
+    <row r="145" spans="1:17" ht="94.5" x14ac:dyDescent="0.4">
       <c r="A145" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>139</v>
       </c>
       <c r="B145" s="12"/>
@@ -15273,9 +15337,9 @@
       <c r="P145" s="14"/>
       <c r="Q145" s="16"/>
     </row>
-    <row r="146" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="146" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A146" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>140</v>
       </c>
       <c r="B146" s="12"/>
@@ -15303,9 +15367,9 @@
       <c r="P146" s="14"/>
       <c r="Q146" s="16"/>
     </row>
-    <row r="147" spans="1:17" ht="92.6" x14ac:dyDescent="0.65">
+    <row r="147" spans="1:17" ht="94.5" x14ac:dyDescent="0.4">
       <c r="A147" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>141</v>
       </c>
       <c r="B147" s="12"/>
@@ -15333,9 +15397,9 @@
       <c r="P147" s="14"/>
       <c r="Q147" s="16"/>
     </row>
-    <row r="148" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="148" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A148" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>142</v>
       </c>
       <c r="B148" s="12"/>
@@ -15363,9 +15427,9 @@
       <c r="P148" s="14"/>
       <c r="Q148" s="16"/>
     </row>
-    <row r="149" spans="1:17" ht="92.6" x14ac:dyDescent="0.65">
+    <row r="149" spans="1:17" ht="94.5" x14ac:dyDescent="0.4">
       <c r="A149" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>143</v>
       </c>
       <c r="B149" s="12"/>
@@ -15393,9 +15457,9 @@
       <c r="P149" s="14"/>
       <c r="Q149" s="16"/>
     </row>
-    <row r="150" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="150" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A150" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>144</v>
       </c>
       <c r="B150" s="12"/>
@@ -15421,9 +15485,9 @@
       <c r="P150" s="14"/>
       <c r="Q150" s="16"/>
     </row>
-    <row r="151" spans="1:17" ht="92.6" x14ac:dyDescent="0.65">
+    <row r="151" spans="1:17" ht="94.5" x14ac:dyDescent="0.4">
       <c r="A151" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>145</v>
       </c>
       <c r="B151" s="12"/>
@@ -15449,9 +15513,9 @@
       <c r="P151" s="14"/>
       <c r="Q151" s="16"/>
     </row>
-    <row r="152" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="152" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A152" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>146</v>
       </c>
       <c r="B152" s="12"/>
@@ -15479,9 +15543,9 @@
       <c r="P152" s="14"/>
       <c r="Q152" s="16"/>
     </row>
-    <row r="153" spans="1:17" ht="92.6" x14ac:dyDescent="0.65">
+    <row r="153" spans="1:17" ht="94.5" x14ac:dyDescent="0.4">
       <c r="A153" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>147</v>
       </c>
       <c r="B153" s="12"/>
@@ -15509,9 +15573,9 @@
       <c r="P153" s="14"/>
       <c r="Q153" s="16"/>
     </row>
-    <row r="154" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="154" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A154" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>148</v>
       </c>
       <c r="B154" s="12"/>
@@ -15537,9 +15601,9 @@
       <c r="P154" s="14"/>
       <c r="Q154" s="16"/>
     </row>
-    <row r="155" spans="1:17" ht="92.6" x14ac:dyDescent="0.65">
+    <row r="155" spans="1:17" ht="94.5" x14ac:dyDescent="0.4">
       <c r="A155" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>149</v>
       </c>
       <c r="B155" s="12"/>
@@ -15565,9 +15629,9 @@
       <c r="P155" s="14"/>
       <c r="Q155" s="16"/>
     </row>
-    <row r="156" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="156" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A156" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>150</v>
       </c>
       <c r="B156" s="12"/>
@@ -15595,9 +15659,9 @@
       <c r="P156" s="14"/>
       <c r="Q156" s="16"/>
     </row>
-    <row r="157" spans="1:17" ht="92.6" x14ac:dyDescent="0.65">
+    <row r="157" spans="1:17" ht="94.5" x14ac:dyDescent="0.4">
       <c r="A157" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>151</v>
       </c>
       <c r="B157" s="12"/>
@@ -15625,9 +15689,9 @@
       <c r="P157" s="14"/>
       <c r="Q157" s="16"/>
     </row>
-    <row r="158" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="158" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A158" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>152</v>
       </c>
       <c r="B158" s="12"/>
@@ -15653,9 +15717,9 @@
       <c r="P158" s="14"/>
       <c r="Q158" s="16"/>
     </row>
-    <row r="159" spans="1:17" ht="92.6" x14ac:dyDescent="0.65">
+    <row r="159" spans="1:17" ht="94.5" x14ac:dyDescent="0.4">
       <c r="A159" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>153</v>
       </c>
       <c r="B159" s="12"/>
@@ -15681,9 +15745,9 @@
       <c r="P159" s="14"/>
       <c r="Q159" s="16"/>
     </row>
-    <row r="160" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="160" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A160" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>154</v>
       </c>
       <c r="B160" s="12"/>
@@ -15711,9 +15775,9 @@
       <c r="P160" s="14"/>
       <c r="Q160" s="16"/>
     </row>
-    <row r="161" spans="1:17" ht="92.6" x14ac:dyDescent="0.65">
+    <row r="161" spans="1:17" ht="94.5" x14ac:dyDescent="0.4">
       <c r="A161" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>155</v>
       </c>
       <c r="B161" s="12"/>
@@ -15741,9 +15805,9 @@
       <c r="P161" s="14"/>
       <c r="Q161" s="16"/>
     </row>
-    <row r="162" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="162" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A162" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>156</v>
       </c>
       <c r="B162" s="12"/>
@@ -15769,9 +15833,9 @@
       <c r="P162" s="14"/>
       <c r="Q162" s="16"/>
     </row>
-    <row r="163" spans="1:17" ht="92.6" x14ac:dyDescent="0.65">
+    <row r="163" spans="1:17" ht="94.5" x14ac:dyDescent="0.4">
       <c r="A163" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>157</v>
       </c>
       <c r="B163" s="12"/>
@@ -15797,9 +15861,9 @@
       <c r="P163" s="14"/>
       <c r="Q163" s="16"/>
     </row>
-    <row r="164" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="164" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A164" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>158</v>
       </c>
       <c r="B164" s="12"/>
@@ -15827,9 +15891,9 @@
       <c r="P164" s="14"/>
       <c r="Q164" s="16"/>
     </row>
-    <row r="165" spans="1:17" ht="92.6" x14ac:dyDescent="0.65">
+    <row r="165" spans="1:17" ht="94.5" x14ac:dyDescent="0.4">
       <c r="A165" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>159</v>
       </c>
       <c r="B165" s="12"/>
@@ -15857,9 +15921,9 @@
       <c r="P165" s="14"/>
       <c r="Q165" s="16"/>
     </row>
-    <row r="166" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="166" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A166" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>160</v>
       </c>
       <c r="B166" s="12"/>
@@ -15885,9 +15949,9 @@
       <c r="P166" s="14"/>
       <c r="Q166" s="16"/>
     </row>
-    <row r="167" spans="1:17" ht="92.6" x14ac:dyDescent="0.65">
+    <row r="167" spans="1:17" ht="94.5" x14ac:dyDescent="0.4">
       <c r="A167" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>161</v>
       </c>
       <c r="B167" s="12"/>
@@ -15913,9 +15977,9 @@
       <c r="P167" s="14"/>
       <c r="Q167" s="16"/>
     </row>
-    <row r="168" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="168" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A168" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>162</v>
       </c>
       <c r="B168" s="12"/>
@@ -15943,9 +16007,9 @@
       <c r="P168" s="14"/>
       <c r="Q168" s="16"/>
     </row>
-    <row r="169" spans="1:17" ht="92.6" x14ac:dyDescent="0.65">
+    <row r="169" spans="1:17" ht="94.5" x14ac:dyDescent="0.4">
       <c r="A169" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>163</v>
       </c>
       <c r="B169" s="12"/>
@@ -15973,9 +16037,9 @@
       <c r="P169" s="14"/>
       <c r="Q169" s="16"/>
     </row>
-    <row r="170" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="170" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A170" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>164</v>
       </c>
       <c r="B170" s="12"/>
@@ -16003,9 +16067,9 @@
       <c r="P170" s="14"/>
       <c r="Q170" s="16"/>
     </row>
-    <row r="171" spans="1:17" ht="92.6" x14ac:dyDescent="0.65">
+    <row r="171" spans="1:17" ht="94.5" x14ac:dyDescent="0.4">
       <c r="A171" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>165</v>
       </c>
       <c r="B171" s="12"/>
@@ -16033,9 +16097,9 @@
       <c r="P171" s="14"/>
       <c r="Q171" s="16"/>
     </row>
-    <row r="172" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="172" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A172" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>166</v>
       </c>
       <c r="B172" s="12"/>
@@ -16063,9 +16127,9 @@
       <c r="P172" s="14"/>
       <c r="Q172" s="16"/>
     </row>
-    <row r="173" spans="1:17" ht="92.6" x14ac:dyDescent="0.65">
+    <row r="173" spans="1:17" ht="94.5" x14ac:dyDescent="0.4">
       <c r="A173" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>167</v>
       </c>
       <c r="B173" s="12"/>
@@ -16093,9 +16157,9 @@
       <c r="P173" s="14"/>
       <c r="Q173" s="16"/>
     </row>
-    <row r="174" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="174" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A174" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>168</v>
       </c>
       <c r="B174" s="12"/>
@@ -16121,9 +16185,9 @@
       <c r="P174" s="14"/>
       <c r="Q174" s="16"/>
     </row>
-    <row r="175" spans="1:17" ht="92.6" x14ac:dyDescent="0.65">
+    <row r="175" spans="1:17" ht="94.5" x14ac:dyDescent="0.4">
       <c r="A175" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>169</v>
       </c>
       <c r="B175" s="12"/>
@@ -16149,9 +16213,9 @@
       <c r="P175" s="14"/>
       <c r="Q175" s="16"/>
     </row>
-    <row r="176" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="176" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A176" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>170</v>
       </c>
       <c r="B176" s="12"/>
@@ -16179,9 +16243,9 @@
       <c r="P176" s="14"/>
       <c r="Q176" s="16"/>
     </row>
-    <row r="177" spans="1:17" ht="92.6" x14ac:dyDescent="0.65">
+    <row r="177" spans="1:17" ht="94.5" x14ac:dyDescent="0.4">
       <c r="A177" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>171</v>
       </c>
       <c r="B177" s="12"/>
@@ -16209,9 +16273,9 @@
       <c r="P177" s="14"/>
       <c r="Q177" s="16"/>
     </row>
-    <row r="178" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="178" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A178" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>172</v>
       </c>
       <c r="B178" s="12"/>
@@ -16239,9 +16303,9 @@
       <c r="P178" s="14"/>
       <c r="Q178" s="16"/>
     </row>
-    <row r="179" spans="1:17" ht="92.6" x14ac:dyDescent="0.65">
+    <row r="179" spans="1:17" ht="94.5" x14ac:dyDescent="0.4">
       <c r="A179" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>173</v>
       </c>
       <c r="B179" s="12"/>
@@ -16269,9 +16333,9 @@
       <c r="P179" s="14"/>
       <c r="Q179" s="16"/>
     </row>
-    <row r="180" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="180" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A180" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>174</v>
       </c>
       <c r="B180" s="12"/>
@@ -16299,9 +16363,9 @@
       <c r="P180" s="14"/>
       <c r="Q180" s="16"/>
     </row>
-    <row r="181" spans="1:17" ht="92.6" x14ac:dyDescent="0.65">
+    <row r="181" spans="1:17" ht="94.5" x14ac:dyDescent="0.4">
       <c r="A181" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>175</v>
       </c>
       <c r="B181" s="12"/>
@@ -16329,9 +16393,9 @@
       <c r="P181" s="14"/>
       <c r="Q181" s="16"/>
     </row>
-    <row r="182" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="182" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A182" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>176</v>
       </c>
       <c r="B182" s="12"/>
@@ -16359,9 +16423,9 @@
       <c r="P182" s="14"/>
       <c r="Q182" s="16"/>
     </row>
-    <row r="183" spans="1:17" ht="92.6" x14ac:dyDescent="0.65">
+    <row r="183" spans="1:17" ht="94.5" x14ac:dyDescent="0.4">
       <c r="A183" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>177</v>
       </c>
       <c r="B183" s="12"/>
@@ -16389,9 +16453,9 @@
       <c r="P183" s="14"/>
       <c r="Q183" s="16"/>
     </row>
-    <row r="184" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="184" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A184" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>178</v>
       </c>
       <c r="B184" s="12"/>
@@ -16417,9 +16481,9 @@
       <c r="P184" s="14"/>
       <c r="Q184" s="16"/>
     </row>
-    <row r="185" spans="1:17" ht="92.6" x14ac:dyDescent="0.65">
+    <row r="185" spans="1:17" ht="94.5" x14ac:dyDescent="0.4">
       <c r="A185" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>179</v>
       </c>
       <c r="B185" s="12"/>
@@ -16445,9 +16509,9 @@
       <c r="P185" s="14"/>
       <c r="Q185" s="16"/>
     </row>
-    <row r="186" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="186" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A186" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>180</v>
       </c>
       <c r="B186" s="12"/>
@@ -16475,9 +16539,9 @@
       <c r="P186" s="14"/>
       <c r="Q186" s="16"/>
     </row>
-    <row r="187" spans="1:17" ht="92.6" x14ac:dyDescent="0.65">
+    <row r="187" spans="1:17" ht="94.5" x14ac:dyDescent="0.4">
       <c r="A187" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>181</v>
       </c>
       <c r="B187" s="12"/>
@@ -16505,9 +16569,9 @@
       <c r="P187" s="14"/>
       <c r="Q187" s="16"/>
     </row>
-    <row r="188" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="188" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A188" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>182</v>
       </c>
       <c r="B188" s="12"/>
@@ -16535,9 +16599,9 @@
       <c r="P188" s="14"/>
       <c r="Q188" s="16"/>
     </row>
-    <row r="189" spans="1:17" ht="92.6" x14ac:dyDescent="0.65">
+    <row r="189" spans="1:17" ht="94.5" x14ac:dyDescent="0.4">
       <c r="A189" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>183</v>
       </c>
       <c r="B189" s="12"/>
@@ -16565,9 +16629,9 @@
       <c r="P189" s="14"/>
       <c r="Q189" s="16"/>
     </row>
-    <row r="190" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="190" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A190" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>184</v>
       </c>
       <c r="B190" s="12"/>
@@ -16595,9 +16659,9 @@
       <c r="P190" s="14"/>
       <c r="Q190" s="16"/>
     </row>
-    <row r="191" spans="1:17" ht="92.6" x14ac:dyDescent="0.65">
+    <row r="191" spans="1:17" ht="94.5" x14ac:dyDescent="0.4">
       <c r="A191" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>185</v>
       </c>
       <c r="B191" s="12"/>
@@ -16625,9 +16689,9 @@
       <c r="P191" s="14"/>
       <c r="Q191" s="16"/>
     </row>
-    <row r="192" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="192" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A192" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>186</v>
       </c>
       <c r="B192" s="12"/>
@@ -16655,9 +16719,9 @@
       <c r="P192" s="14"/>
       <c r="Q192" s="16"/>
     </row>
-    <row r="193" spans="1:17" ht="92.6" x14ac:dyDescent="0.65">
+    <row r="193" spans="1:17" ht="94.5" x14ac:dyDescent="0.4">
       <c r="A193" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>187</v>
       </c>
       <c r="B193" s="12"/>
@@ -16685,9 +16749,9 @@
       <c r="P193" s="14"/>
       <c r="Q193" s="16"/>
     </row>
-    <row r="194" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="194" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A194" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>188</v>
       </c>
       <c r="B194" s="12"/>
@@ -16715,9 +16779,9 @@
       <c r="P194" s="14"/>
       <c r="Q194" s="16"/>
     </row>
-    <row r="195" spans="1:17" ht="92.6" x14ac:dyDescent="0.65">
+    <row r="195" spans="1:17" ht="94.5" x14ac:dyDescent="0.4">
       <c r="A195" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>189</v>
       </c>
       <c r="B195" s="12"/>
@@ -16745,9 +16809,9 @@
       <c r="P195" s="14"/>
       <c r="Q195" s="16"/>
     </row>
-    <row r="196" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="196" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A196" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>190</v>
       </c>
       <c r="B196" s="12"/>
@@ -16775,9 +16839,9 @@
       <c r="P196" s="14"/>
       <c r="Q196" s="16"/>
     </row>
-    <row r="197" spans="1:17" ht="92.6" x14ac:dyDescent="0.65">
+    <row r="197" spans="1:17" ht="94.5" x14ac:dyDescent="0.4">
       <c r="A197" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>191</v>
       </c>
       <c r="B197" s="12"/>
@@ -16805,9 +16869,9 @@
       <c r="P197" s="14"/>
       <c r="Q197" s="16"/>
     </row>
-    <row r="198" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="198" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A198" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>192</v>
       </c>
       <c r="B198" s="12"/>
@@ -16835,9 +16899,9 @@
       <c r="P198" s="14"/>
       <c r="Q198" s="16"/>
     </row>
-    <row r="199" spans="1:17" ht="92.6" x14ac:dyDescent="0.65">
+    <row r="199" spans="1:17" ht="94.5" x14ac:dyDescent="0.4">
       <c r="A199" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>193</v>
       </c>
       <c r="B199" s="12"/>
@@ -16865,9 +16929,9 @@
       <c r="P199" s="14"/>
       <c r="Q199" s="16"/>
     </row>
-    <row r="200" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="200" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A200" s="10">
-        <f t="shared" ref="A200:A263" si="3">ROW()-6</f>
+        <f t="shared" ref="A200:A263" si="4">ROW()-6</f>
         <v>194</v>
       </c>
       <c r="B200" s="12"/>
@@ -16895,9 +16959,9 @@
       <c r="P200" s="14"/>
       <c r="Q200" s="16"/>
     </row>
-    <row r="201" spans="1:17" ht="92.6" x14ac:dyDescent="0.65">
+    <row r="201" spans="1:17" ht="94.5" x14ac:dyDescent="0.4">
       <c r="A201" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>195</v>
       </c>
       <c r="B201" s="12"/>
@@ -16925,9 +16989,9 @@
       <c r="P201" s="14"/>
       <c r="Q201" s="16"/>
     </row>
-    <row r="202" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="202" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A202" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>196</v>
       </c>
       <c r="B202" s="12"/>
@@ -16953,9 +17017,9 @@
       <c r="P202" s="14"/>
       <c r="Q202" s="16"/>
     </row>
-    <row r="203" spans="1:17" ht="92.6" x14ac:dyDescent="0.65">
+    <row r="203" spans="1:17" ht="94.5" x14ac:dyDescent="0.4">
       <c r="A203" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>197</v>
       </c>
       <c r="B203" s="12"/>
@@ -16981,9 +17045,9 @@
       <c r="P203" s="14"/>
       <c r="Q203" s="16"/>
     </row>
-    <row r="204" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="204" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A204" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>198</v>
       </c>
       <c r="B204" s="12"/>
@@ -17013,9 +17077,9 @@
       <c r="P204" s="14"/>
       <c r="Q204" s="16"/>
     </row>
-    <row r="205" spans="1:17" ht="92.6" x14ac:dyDescent="0.65">
+    <row r="205" spans="1:17" ht="94.5" x14ac:dyDescent="0.4">
       <c r="A205" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>199</v>
       </c>
       <c r="B205" s="12"/>
@@ -17041,9 +17105,9 @@
       <c r="P205" s="14"/>
       <c r="Q205" s="16"/>
     </row>
-    <row r="206" spans="1:17" ht="92.6" x14ac:dyDescent="0.65">
+    <row r="206" spans="1:17" ht="94.5" x14ac:dyDescent="0.4">
       <c r="A206" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>200</v>
       </c>
       <c r="B206" s="12"/>
@@ -17067,9 +17131,9 @@
       <c r="P206" s="14"/>
       <c r="Q206" s="16"/>
     </row>
-    <row r="207" spans="1:17" ht="92.6" x14ac:dyDescent="0.65">
+    <row r="207" spans="1:17" ht="94.5" x14ac:dyDescent="0.4">
       <c r="A207" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>201</v>
       </c>
       <c r="B207" s="12"/>
@@ -17093,9 +17157,9 @@
       <c r="P207" s="14"/>
       <c r="Q207" s="16"/>
     </row>
-    <row r="208" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="208" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A208" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>202</v>
       </c>
       <c r="B208" s="12"/>
@@ -17121,9 +17185,9 @@
       <c r="P208" s="14"/>
       <c r="Q208" s="16"/>
     </row>
-    <row r="209" spans="1:17" ht="92.6" x14ac:dyDescent="0.65">
+    <row r="209" spans="1:17" ht="94.5" x14ac:dyDescent="0.4">
       <c r="A209" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>203</v>
       </c>
       <c r="B209" s="12"/>
@@ -17149,9 +17213,9 @@
       <c r="P209" s="14"/>
       <c r="Q209" s="16"/>
     </row>
-    <row r="210" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="210" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A210" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>204</v>
       </c>
       <c r="B210" s="12"/>
@@ -17177,9 +17241,9 @@
       <c r="P210" s="14"/>
       <c r="Q210" s="16"/>
     </row>
-    <row r="211" spans="1:17" ht="92.6" x14ac:dyDescent="0.65">
+    <row r="211" spans="1:17" ht="94.5" x14ac:dyDescent="0.4">
       <c r="A211" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>205</v>
       </c>
       <c r="B211" s="12"/>
@@ -17205,9 +17269,9 @@
       <c r="P211" s="14"/>
       <c r="Q211" s="16"/>
     </row>
-    <row r="212" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="212" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A212" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>206</v>
       </c>
       <c r="B212" s="12"/>
@@ -17233,9 +17297,9 @@
       <c r="P212" s="14"/>
       <c r="Q212" s="16"/>
     </row>
-    <row r="213" spans="1:17" ht="92.6" x14ac:dyDescent="0.65">
+    <row r="213" spans="1:17" ht="94.5" x14ac:dyDescent="0.4">
       <c r="A213" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>207</v>
       </c>
       <c r="B213" s="12"/>
@@ -17261,9 +17325,9 @@
       <c r="P213" s="14"/>
       <c r="Q213" s="16"/>
     </row>
-    <row r="214" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="214" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A214" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>208</v>
       </c>
       <c r="B214" s="12"/>
@@ -17289,9 +17353,9 @@
       <c r="P214" s="14"/>
       <c r="Q214" s="16"/>
     </row>
-    <row r="215" spans="1:17" ht="92.6" x14ac:dyDescent="0.65">
+    <row r="215" spans="1:17" ht="94.5" x14ac:dyDescent="0.4">
       <c r="A215" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>209</v>
       </c>
       <c r="B215" s="12"/>
@@ -17317,9 +17381,9 @@
       <c r="P215" s="14"/>
       <c r="Q215" s="16"/>
     </row>
-    <row r="216" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="216" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A216" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>210</v>
       </c>
       <c r="B216" s="12"/>
@@ -17349,9 +17413,9 @@
       <c r="P216" s="14"/>
       <c r="Q216" s="16"/>
     </row>
-    <row r="217" spans="1:17" ht="92.6" x14ac:dyDescent="0.65">
+    <row r="217" spans="1:17" ht="94.5" x14ac:dyDescent="0.4">
       <c r="A217" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>211</v>
       </c>
       <c r="B217" s="12"/>
@@ -17377,9 +17441,9 @@
       <c r="P217" s="14"/>
       <c r="Q217" s="16"/>
     </row>
-    <row r="218" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="218" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A218" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>212</v>
       </c>
       <c r="B218" s="12"/>
@@ -17405,9 +17469,9 @@
       <c r="P218" s="14"/>
       <c r="Q218" s="16"/>
     </row>
-    <row r="219" spans="1:17" ht="92.6" x14ac:dyDescent="0.65">
+    <row r="219" spans="1:17" ht="94.5" x14ac:dyDescent="0.4">
       <c r="A219" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>213</v>
       </c>
       <c r="B219" s="12"/>
@@ -17433,9 +17497,9 @@
       <c r="P219" s="14"/>
       <c r="Q219" s="16"/>
     </row>
-    <row r="220" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="220" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A220" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>214</v>
       </c>
       <c r="B220" s="12"/>
@@ -17461,9 +17525,9 @@
       <c r="P220" s="14"/>
       <c r="Q220" s="16"/>
     </row>
-    <row r="221" spans="1:17" ht="92.6" x14ac:dyDescent="0.65">
+    <row r="221" spans="1:17" ht="94.5" x14ac:dyDescent="0.4">
       <c r="A221" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>215</v>
       </c>
       <c r="B221" s="12"/>
@@ -17489,9 +17553,9 @@
       <c r="P221" s="14"/>
       <c r="Q221" s="16"/>
     </row>
-    <row r="222" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="222" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A222" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>216</v>
       </c>
       <c r="B222" s="12"/>
@@ -17517,9 +17581,9 @@
       <c r="P222" s="14"/>
       <c r="Q222" s="16"/>
     </row>
-    <row r="223" spans="1:17" ht="92.6" x14ac:dyDescent="0.65">
+    <row r="223" spans="1:17" ht="94.5" x14ac:dyDescent="0.4">
       <c r="A223" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>217</v>
       </c>
       <c r="B223" s="12"/>
@@ -17545,9 +17609,9 @@
       <c r="P223" s="14"/>
       <c r="Q223" s="16"/>
     </row>
-    <row r="224" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="224" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A224" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>218</v>
       </c>
       <c r="B224" s="12"/>
@@ -17573,9 +17637,9 @@
       <c r="P224" s="14"/>
       <c r="Q224" s="16"/>
     </row>
-    <row r="225" spans="1:17" ht="92.6" x14ac:dyDescent="0.65">
+    <row r="225" spans="1:17" ht="94.5" x14ac:dyDescent="0.4">
       <c r="A225" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>219</v>
       </c>
       <c r="B225" s="12"/>
@@ -17601,9 +17665,9 @@
       <c r="P225" s="14"/>
       <c r="Q225" s="16"/>
     </row>
-    <row r="226" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="226" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A226" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>220</v>
       </c>
       <c r="B226" s="12"/>
@@ -17631,9 +17695,9 @@
       <c r="P226" s="14"/>
       <c r="Q226" s="16"/>
     </row>
-    <row r="227" spans="1:17" ht="92.6" x14ac:dyDescent="0.65">
+    <row r="227" spans="1:17" ht="94.5" x14ac:dyDescent="0.4">
       <c r="A227" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>221</v>
       </c>
       <c r="B227" s="12"/>
@@ -17659,9 +17723,9 @@
       <c r="P227" s="14"/>
       <c r="Q227" s="16"/>
     </row>
-    <row r="228" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="228" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A228" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>222</v>
       </c>
       <c r="B228" s="12"/>
@@ -17687,9 +17751,9 @@
       <c r="P228" s="14"/>
       <c r="Q228" s="16"/>
     </row>
-    <row r="229" spans="1:17" ht="92.6" x14ac:dyDescent="0.65">
+    <row r="229" spans="1:17" ht="94.5" x14ac:dyDescent="0.4">
       <c r="A229" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>223</v>
       </c>
       <c r="B229" s="12"/>
@@ -17715,9 +17779,9 @@
       <c r="P229" s="14"/>
       <c r="Q229" s="16"/>
     </row>
-    <row r="230" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="230" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A230" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>224</v>
       </c>
       <c r="B230" s="12"/>
@@ -17743,9 +17807,9 @@
       <c r="P230" s="14"/>
       <c r="Q230" s="16"/>
     </row>
-    <row r="231" spans="1:17" ht="92.6" x14ac:dyDescent="0.65">
+    <row r="231" spans="1:17" ht="94.5" x14ac:dyDescent="0.4">
       <c r="A231" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>225</v>
       </c>
       <c r="B231" s="12"/>
@@ -17771,9 +17835,9 @@
       <c r="P231" s="14"/>
       <c r="Q231" s="16"/>
     </row>
-    <row r="232" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="232" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A232" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>226</v>
       </c>
       <c r="B232" s="12"/>
@@ -17799,9 +17863,9 @@
       <c r="P232" s="14"/>
       <c r="Q232" s="16"/>
     </row>
-    <row r="233" spans="1:17" ht="92.6" x14ac:dyDescent="0.65">
+    <row r="233" spans="1:17" ht="94.5" x14ac:dyDescent="0.4">
       <c r="A233" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>227</v>
       </c>
       <c r="B233" s="12"/>
@@ -17827,9 +17891,9 @@
       <c r="P233" s="14"/>
       <c r="Q233" s="16"/>
     </row>
-    <row r="234" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="234" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A234" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>228</v>
       </c>
       <c r="B234" s="12"/>
@@ -17855,9 +17919,9 @@
       <c r="P234" s="14"/>
       <c r="Q234" s="16"/>
     </row>
-    <row r="235" spans="1:17" ht="92.6" x14ac:dyDescent="0.65">
+    <row r="235" spans="1:17" ht="94.5" x14ac:dyDescent="0.4">
       <c r="A235" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>229</v>
       </c>
       <c r="B235" s="12"/>
@@ -17883,9 +17947,9 @@
       <c r="P235" s="14"/>
       <c r="Q235" s="16"/>
     </row>
-    <row r="236" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="236" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A236" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>230</v>
       </c>
       <c r="B236" s="12"/>
@@ -17913,9 +17977,9 @@
       <c r="P236" s="14"/>
       <c r="Q236" s="16"/>
     </row>
-    <row r="237" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="237" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A237" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>231</v>
       </c>
       <c r="B237" s="12"/>
@@ -17941,9 +18005,9 @@
       <c r="P237" s="14"/>
       <c r="Q237" s="16"/>
     </row>
-    <row r="238" spans="1:17" ht="92.6" x14ac:dyDescent="0.65">
+    <row r="238" spans="1:17" ht="94.5" x14ac:dyDescent="0.4">
       <c r="A238" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>232</v>
       </c>
       <c r="B238" s="12"/>
@@ -17969,9 +18033,9 @@
       <c r="P238" s="14"/>
       <c r="Q238" s="16"/>
     </row>
-    <row r="239" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="239" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A239" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>233</v>
       </c>
       <c r="B239" s="12"/>
@@ -17997,9 +18061,9 @@
       <c r="P239" s="14"/>
       <c r="Q239" s="16"/>
     </row>
-    <row r="240" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="240" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A240" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>234</v>
       </c>
       <c r="B240" s="12"/>
@@ -18023,9 +18087,9 @@
       <c r="P240" s="14"/>
       <c r="Q240" s="16"/>
     </row>
-    <row r="241" spans="1:17" ht="92.6" x14ac:dyDescent="0.65">
+    <row r="241" spans="1:17" ht="94.5" x14ac:dyDescent="0.4">
       <c r="A241" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>235</v>
       </c>
       <c r="B241" s="12"/>
@@ -18049,9 +18113,9 @@
       <c r="P241" s="14"/>
       <c r="Q241" s="16"/>
     </row>
-    <row r="242" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="242" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A242" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>236</v>
       </c>
       <c r="B242" s="12"/>
@@ -18077,9 +18141,9 @@
       <c r="P242" s="14"/>
       <c r="Q242" s="16"/>
     </row>
-    <row r="243" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="243" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A243" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>237</v>
       </c>
       <c r="B243" s="12"/>
@@ -18103,9 +18167,9 @@
       <c r="P243" s="14"/>
       <c r="Q243" s="16"/>
     </row>
-    <row r="244" spans="1:17" ht="92.6" x14ac:dyDescent="0.65">
+    <row r="244" spans="1:17" ht="94.5" x14ac:dyDescent="0.4">
       <c r="A244" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>238</v>
       </c>
       <c r="B244" s="12"/>
@@ -18129,9 +18193,9 @@
       <c r="P244" s="14"/>
       <c r="Q244" s="16"/>
     </row>
-    <row r="245" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="245" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A245" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>239</v>
       </c>
       <c r="B245" s="12"/>
@@ -18157,9 +18221,9 @@
       <c r="P245" s="14"/>
       <c r="Q245" s="16"/>
     </row>
-    <row r="246" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="246" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A246" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>240</v>
       </c>
       <c r="B246" s="12"/>
@@ -18183,9 +18247,9 @@
       <c r="P246" s="14"/>
       <c r="Q246" s="16"/>
     </row>
-    <row r="247" spans="1:17" ht="92.6" x14ac:dyDescent="0.65">
+    <row r="247" spans="1:17" ht="94.5" x14ac:dyDescent="0.4">
       <c r="A247" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>241</v>
       </c>
       <c r="B247" s="12"/>
@@ -18209,9 +18273,9 @@
       <c r="P247" s="14"/>
       <c r="Q247" s="16"/>
     </row>
-    <row r="248" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="248" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A248" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>242</v>
       </c>
       <c r="B248" s="12"/>
@@ -18237,9 +18301,9 @@
       <c r="P248" s="14"/>
       <c r="Q248" s="16"/>
     </row>
-    <row r="249" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="249" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A249" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>243</v>
       </c>
       <c r="B249" s="12"/>
@@ -18263,9 +18327,9 @@
       <c r="P249" s="14"/>
       <c r="Q249" s="16"/>
     </row>
-    <row r="250" spans="1:17" ht="92.6" x14ac:dyDescent="0.65">
+    <row r="250" spans="1:17" ht="94.5" x14ac:dyDescent="0.4">
       <c r="A250" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>244</v>
       </c>
       <c r="B250" s="12"/>
@@ -18289,9 +18353,9 @@
       <c r="P250" s="14"/>
       <c r="Q250" s="16"/>
     </row>
-    <row r="251" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="251" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A251" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>245</v>
       </c>
       <c r="B251" s="12"/>
@@ -18317,9 +18381,9 @@
       <c r="P251" s="14"/>
       <c r="Q251" s="16"/>
     </row>
-    <row r="252" spans="1:17" ht="30.9" x14ac:dyDescent="0.65">
+    <row r="252" spans="1:17" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A252" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>246</v>
       </c>
       <c r="B252" s="12"/>
@@ -18343,9 +18407,9 @@
       <c r="P252" s="14"/>
       <c r="Q252" s="16"/>
     </row>
-    <row r="253" spans="1:17" ht="92.6" x14ac:dyDescent="0.65">
+    <row r="253" spans="1:17" ht="94.5" x14ac:dyDescent="0.4">
       <c r="A253" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>247</v>
       </c>
       <c r="B253" s="12"/>
@@ -18369,9 +18433,9 @@
       <c r="P253" s="14"/>
       <c r="Q253" s="16"/>
     </row>
-    <row r="254" spans="1:17" ht="46.3" x14ac:dyDescent="0.65">
+    <row r="254" spans="1:17" ht="47.25" x14ac:dyDescent="0.4">
       <c r="A254" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>248</v>
       </c>
       <c r="B254" s="12"/>
@@ -18399,9 +18463,9 @@
       <c r="P254" s="14"/>
       <c r="Q254" s="16"/>
     </row>
-    <row r="255" spans="1:17" ht="92.6" x14ac:dyDescent="0.65">
+    <row r="255" spans="1:17" ht="94.5" x14ac:dyDescent="0.4">
       <c r="A255" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>249</v>
       </c>
       <c r="B255" s="12"/>
@@ -18429,9 +18493,9 @@
       <c r="P255" s="14"/>
       <c r="Q255" s="16"/>
     </row>
-    <row r="256" spans="1:17" ht="92.6" x14ac:dyDescent="0.65">
+    <row r="256" spans="1:17" ht="94.5" x14ac:dyDescent="0.4">
       <c r="A256" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>250</v>
       </c>
       <c r="B256" s="12"/>
@@ -18455,9 +18519,9 @@
       <c r="P256" s="14"/>
       <c r="Q256" s="16"/>
     </row>
-    <row r="257" spans="1:17" ht="92.6" x14ac:dyDescent="0.65">
+    <row r="257" spans="1:17" ht="94.5" x14ac:dyDescent="0.4">
       <c r="A257" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>251</v>
       </c>
       <c r="B257" s="12"/>
@@ -18481,9 +18545,9 @@
       <c r="P257" s="14"/>
       <c r="Q257" s="16"/>
     </row>
-    <row r="258" spans="1:17" ht="46.3" x14ac:dyDescent="0.65">
+    <row r="258" spans="1:17" ht="47.25" x14ac:dyDescent="0.4">
       <c r="A258" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>252</v>
       </c>
       <c r="B258" s="12"/>
@@ -18509,9 +18573,9 @@
       <c r="P258" s="14"/>
       <c r="Q258" s="16"/>
     </row>
-    <row r="259" spans="1:17" ht="30.9" x14ac:dyDescent="0.65">
+    <row r="259" spans="1:17" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A259" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>253</v>
       </c>
       <c r="B259" s="12"/>
@@ -18535,9 +18599,9 @@
       <c r="P259" s="14"/>
       <c r="Q259" s="16"/>
     </row>
-    <row r="260" spans="1:17" ht="92.6" x14ac:dyDescent="0.65">
+    <row r="260" spans="1:17" ht="94.5" x14ac:dyDescent="0.4">
       <c r="A260" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>254</v>
       </c>
       <c r="B260" s="12"/>
@@ -18565,9 +18629,9 @@
       <c r="P260" s="14"/>
       <c r="Q260" s="16"/>
     </row>
-    <row r="261" spans="1:17" ht="92.6" x14ac:dyDescent="0.65">
+    <row r="261" spans="1:17" ht="94.5" x14ac:dyDescent="0.4">
       <c r="A261" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>255</v>
       </c>
       <c r="B261" s="12"/>
@@ -18591,9 +18655,9 @@
       <c r="P261" s="14"/>
       <c r="Q261" s="16"/>
     </row>
-    <row r="262" spans="1:17" ht="92.6" x14ac:dyDescent="0.65">
+    <row r="262" spans="1:17" ht="94.5" x14ac:dyDescent="0.4">
       <c r="A262" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>256</v>
       </c>
       <c r="B262" s="12"/>
@@ -18617,9 +18681,9 @@
       <c r="P262" s="14"/>
       <c r="Q262" s="16"/>
     </row>
-    <row r="263" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="263" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A263" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>257</v>
       </c>
       <c r="B263" s="12"/>
@@ -18651,9 +18715,9 @@
       <c r="P263" s="14"/>
       <c r="Q263" s="16"/>
     </row>
-    <row r="264" spans="1:17" ht="30.9" x14ac:dyDescent="0.65">
+    <row r="264" spans="1:17" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A264" s="10">
-        <f t="shared" ref="A264:A327" si="4">ROW()-6</f>
+        <f t="shared" ref="A264:A327" si="5">ROW()-6</f>
         <v>258</v>
       </c>
       <c r="B264" s="12"/>
@@ -18679,9 +18743,9 @@
       <c r="P264" s="14"/>
       <c r="Q264" s="16"/>
     </row>
-    <row r="265" spans="1:17" ht="108" x14ac:dyDescent="0.65">
+    <row r="265" spans="1:17" ht="110.25" x14ac:dyDescent="0.4">
       <c r="A265" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>259</v>
       </c>
       <c r="B265" s="12"/>
@@ -18707,9 +18771,9 @@
       <c r="P265" s="14"/>
       <c r="Q265" s="16"/>
     </row>
-    <row r="266" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="266" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A266" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>260</v>
       </c>
       <c r="B266" s="12"/>
@@ -18739,9 +18803,9 @@
       <c r="P266" s="14"/>
       <c r="Q266" s="16"/>
     </row>
-    <row r="267" spans="1:17" ht="30.9" x14ac:dyDescent="0.65">
+    <row r="267" spans="1:17" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A267" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>261</v>
       </c>
       <c r="B267" s="12"/>
@@ -18767,9 +18831,9 @@
       <c r="P267" s="14"/>
       <c r="Q267" s="16"/>
     </row>
-    <row r="268" spans="1:17" ht="108" x14ac:dyDescent="0.65">
+    <row r="268" spans="1:17" ht="110.25" x14ac:dyDescent="0.4">
       <c r="A268" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>262</v>
       </c>
       <c r="B268" s="12"/>
@@ -18795,9 +18859,9 @@
       <c r="P268" s="14"/>
       <c r="Q268" s="16"/>
     </row>
-    <row r="269" spans="1:17" ht="30.9" x14ac:dyDescent="0.65">
+    <row r="269" spans="1:17" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A269" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>263</v>
       </c>
       <c r="B269" s="12"/>
@@ -18827,9 +18891,9 @@
       <c r="P269" s="14"/>
       <c r="Q269" s="16"/>
     </row>
-    <row r="270" spans="1:17" ht="92.6" x14ac:dyDescent="0.65">
+    <row r="270" spans="1:17" ht="94.5" x14ac:dyDescent="0.4">
       <c r="A270" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>264</v>
       </c>
       <c r="B270" s="12"/>
@@ -18857,9 +18921,9 @@
       <c r="P270" s="14"/>
       <c r="Q270" s="16"/>
     </row>
-    <row r="271" spans="1:17" ht="92.6" x14ac:dyDescent="0.65">
+    <row r="271" spans="1:17" ht="94.5" x14ac:dyDescent="0.4">
       <c r="A271" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>265</v>
       </c>
       <c r="B271" s="12"/>
@@ -18883,9 +18947,9 @@
       <c r="P271" s="14"/>
       <c r="Q271" s="16"/>
     </row>
-    <row r="272" spans="1:17" ht="92.6" x14ac:dyDescent="0.65">
+    <row r="272" spans="1:17" ht="94.5" x14ac:dyDescent="0.4">
       <c r="A272" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>266</v>
       </c>
       <c r="B272" s="12"/>
@@ -18909,9 +18973,9 @@
       <c r="P272" s="14"/>
       <c r="Q272" s="16"/>
     </row>
-    <row r="273" spans="1:17" ht="30.9" x14ac:dyDescent="0.65">
+    <row r="273" spans="1:17" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A273" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>267</v>
       </c>
       <c r="B273" s="12"/>
@@ -18941,9 +19005,9 @@
       <c r="P273" s="14"/>
       <c r="Q273" s="16"/>
     </row>
-    <row r="274" spans="1:17" ht="92.6" x14ac:dyDescent="0.65">
+    <row r="274" spans="1:17" ht="94.5" x14ac:dyDescent="0.4">
       <c r="A274" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>268</v>
       </c>
       <c r="B274" s="12"/>
@@ -18971,9 +19035,9 @@
       <c r="P274" s="14"/>
       <c r="Q274" s="16"/>
     </row>
-    <row r="275" spans="1:17" ht="92.6" x14ac:dyDescent="0.65">
+    <row r="275" spans="1:17" ht="94.5" x14ac:dyDescent="0.4">
       <c r="A275" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>269</v>
       </c>
       <c r="B275" s="12"/>
@@ -18997,9 +19061,9 @@
       <c r="P275" s="14"/>
       <c r="Q275" s="16"/>
     </row>
-    <row r="276" spans="1:17" ht="92.6" x14ac:dyDescent="0.65">
+    <row r="276" spans="1:17" ht="94.5" x14ac:dyDescent="0.4">
       <c r="A276" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>270</v>
       </c>
       <c r="B276" s="12"/>
@@ -19023,9 +19087,9 @@
       <c r="P276" s="14"/>
       <c r="Q276" s="16"/>
     </row>
-    <row r="277" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="277" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A277" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>271</v>
       </c>
       <c r="B277" s="12"/>
@@ -19055,9 +19119,9 @@
       <c r="P277" s="14"/>
       <c r="Q277" s="16"/>
     </row>
-    <row r="278" spans="1:17" ht="30.9" x14ac:dyDescent="0.65">
+    <row r="278" spans="1:17" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A278" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>272</v>
       </c>
       <c r="B278" s="12"/>
@@ -19083,9 +19147,9 @@
       <c r="P278" s="14"/>
       <c r="Q278" s="16"/>
     </row>
-    <row r="279" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="279" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A279" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>273</v>
       </c>
       <c r="B279" s="12"/>
@@ -19115,9 +19179,9 @@
       <c r="P279" s="14"/>
       <c r="Q279" s="16"/>
     </row>
-    <row r="280" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="280" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A280" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>274</v>
       </c>
       <c r="B280" s="12"/>
@@ -19143,9 +19207,9 @@
       <c r="P280" s="14"/>
       <c r="Q280" s="16"/>
     </row>
-    <row r="281" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="281" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A281" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>275</v>
       </c>
       <c r="B281" s="12"/>
@@ -19169,9 +19233,9 @@
       <c r="P281" s="14"/>
       <c r="Q281" s="16"/>
     </row>
-    <row r="282" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="282" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A282" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>276</v>
       </c>
       <c r="B282" s="12"/>
@@ -19197,9 +19261,9 @@
       <c r="P282" s="14"/>
       <c r="Q282" s="16"/>
     </row>
-    <row r="283" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="283" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A283" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>277</v>
       </c>
       <c r="B283" s="12"/>
@@ -19223,9 +19287,9 @@
       <c r="P283" s="14"/>
       <c r="Q283" s="16"/>
     </row>
-    <row r="284" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="284" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A284" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>278</v>
       </c>
       <c r="B284" s="12"/>
@@ -19251,9 +19315,9 @@
       <c r="P284" s="14"/>
       <c r="Q284" s="16"/>
     </row>
-    <row r="285" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="285" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A285" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>279</v>
       </c>
       <c r="B285" s="12"/>
@@ -19279,9 +19343,9 @@
       <c r="P285" s="14"/>
       <c r="Q285" s="16"/>
     </row>
-    <row r="286" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="286" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A286" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>280</v>
       </c>
       <c r="B286" s="12"/>
@@ -19305,9 +19369,9 @@
       <c r="P286" s="14"/>
       <c r="Q286" s="16"/>
     </row>
-    <row r="287" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="287" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A287" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>281</v>
       </c>
       <c r="B287" s="12"/>
@@ -19333,9 +19397,9 @@
       <c r="P287" s="14"/>
       <c r="Q287" s="16"/>
     </row>
-    <row r="288" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="288" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A288" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>282</v>
       </c>
       <c r="B288" s="12"/>
@@ -19359,9 +19423,9 @@
       <c r="P288" s="14"/>
       <c r="Q288" s="16"/>
     </row>
-    <row r="289" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="289" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A289" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>283</v>
       </c>
       <c r="B289" s="12"/>
@@ -19387,9 +19451,9 @@
       <c r="P289" s="14"/>
       <c r="Q289" s="16"/>
     </row>
-    <row r="290" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="290" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A290" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>284</v>
       </c>
       <c r="B290" s="12"/>
@@ -19415,9 +19479,9 @@
       <c r="P290" s="14"/>
       <c r="Q290" s="16"/>
     </row>
-    <row r="291" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="291" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A291" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>285</v>
       </c>
       <c r="B291" s="12"/>
@@ -19441,9 +19505,9 @@
       <c r="P291" s="14"/>
       <c r="Q291" s="16"/>
     </row>
-    <row r="292" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="292" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A292" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>286</v>
       </c>
       <c r="B292" s="12"/>
@@ -19469,9 +19533,9 @@
       <c r="P292" s="14"/>
       <c r="Q292" s="16"/>
     </row>
-    <row r="293" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="293" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A293" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>287</v>
       </c>
       <c r="B293" s="12"/>
@@ -19495,9 +19559,9 @@
       <c r="P293" s="14"/>
       <c r="Q293" s="16"/>
     </row>
-    <row r="294" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="294" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A294" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>288</v>
       </c>
       <c r="B294" s="12"/>
@@ -19525,9 +19589,9 @@
       <c r="P294" s="14"/>
       <c r="Q294" s="16"/>
     </row>
-    <row r="295" spans="1:17" ht="61.75" x14ac:dyDescent="0.65">
+    <row r="295" spans="1:17" ht="63" x14ac:dyDescent="0.4">
       <c r="A295" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>289</v>
       </c>
       <c r="B295" s="12"/>
@@ -19553,9 +19617,9 @@
       <c r="P295" s="14"/>
       <c r="Q295" s="16"/>
     </row>
-    <row r="296" spans="1:17" ht="61.75" x14ac:dyDescent="0.65">
+    <row r="296" spans="1:17" ht="63" x14ac:dyDescent="0.4">
       <c r="A296" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>290</v>
       </c>
       <c r="B296" s="12"/>
@@ -19579,9 +19643,9 @@
       <c r="P296" s="14"/>
       <c r="Q296" s="16"/>
     </row>
-    <row r="297" spans="1:17" ht="61.75" x14ac:dyDescent="0.65">
+    <row r="297" spans="1:17" ht="63" x14ac:dyDescent="0.4">
       <c r="A297" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>291</v>
       </c>
       <c r="B297" s="12"/>
@@ -19605,9 +19669,9 @@
       <c r="P297" s="14"/>
       <c r="Q297" s="16"/>
     </row>
-    <row r="298" spans="1:17" ht="61.75" x14ac:dyDescent="0.65">
+    <row r="298" spans="1:17" ht="63" x14ac:dyDescent="0.4">
       <c r="A298" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>292</v>
       </c>
       <c r="B298" s="12"/>
@@ -19631,9 +19695,9 @@
       <c r="P298" s="14"/>
       <c r="Q298" s="16"/>
     </row>
-    <row r="299" spans="1:17" ht="61.75" x14ac:dyDescent="0.65">
+    <row r="299" spans="1:17" ht="63" x14ac:dyDescent="0.4">
       <c r="A299" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>293</v>
       </c>
       <c r="B299" s="12"/>
@@ -19657,9 +19721,9 @@
       <c r="P299" s="14"/>
       <c r="Q299" s="16"/>
     </row>
-    <row r="300" spans="1:17" ht="61.75" x14ac:dyDescent="0.65">
+    <row r="300" spans="1:17" ht="63" x14ac:dyDescent="0.4">
       <c r="A300" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>294</v>
       </c>
       <c r="B300" s="12"/>
@@ -19683,9 +19747,9 @@
       <c r="P300" s="14"/>
       <c r="Q300" s="16"/>
     </row>
-    <row r="301" spans="1:17" ht="61.75" x14ac:dyDescent="0.65">
+    <row r="301" spans="1:17" ht="63" x14ac:dyDescent="0.4">
       <c r="A301" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>295</v>
       </c>
       <c r="B301" s="12"/>
@@ -19709,9 +19773,9 @@
       <c r="P301" s="14"/>
       <c r="Q301" s="16"/>
     </row>
-    <row r="302" spans="1:17" ht="61.75" x14ac:dyDescent="0.65">
+    <row r="302" spans="1:17" ht="63" x14ac:dyDescent="0.4">
       <c r="A302" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>296</v>
       </c>
       <c r="B302" s="12"/>
@@ -19737,9 +19801,9 @@
       <c r="P302" s="14"/>
       <c r="Q302" s="16"/>
     </row>
-    <row r="303" spans="1:17" ht="61.75" x14ac:dyDescent="0.65">
+    <row r="303" spans="1:17" ht="63" x14ac:dyDescent="0.4">
       <c r="A303" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>297</v>
       </c>
       <c r="B303" s="12"/>
@@ -19763,9 +19827,9 @@
       <c r="P303" s="14"/>
       <c r="Q303" s="16"/>
     </row>
-    <row r="304" spans="1:17" ht="61.75" x14ac:dyDescent="0.65">
+    <row r="304" spans="1:17" ht="63" x14ac:dyDescent="0.4">
       <c r="A304" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>298</v>
       </c>
       <c r="B304" s="12"/>
@@ -19789,9 +19853,9 @@
       <c r="P304" s="14"/>
       <c r="Q304" s="16"/>
     </row>
-    <row r="305" spans="1:17" ht="61.75" x14ac:dyDescent="0.65">
+    <row r="305" spans="1:17" ht="63" x14ac:dyDescent="0.4">
       <c r="A305" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>299</v>
       </c>
       <c r="B305" s="12"/>
@@ -19815,9 +19879,9 @@
       <c r="P305" s="14"/>
       <c r="Q305" s="16"/>
     </row>
-    <row r="306" spans="1:17" ht="61.75" x14ac:dyDescent="0.65">
+    <row r="306" spans="1:17" ht="63" x14ac:dyDescent="0.4">
       <c r="A306" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>300</v>
       </c>
       <c r="B306" s="12"/>
@@ -19841,9 +19905,9 @@
       <c r="P306" s="14"/>
       <c r="Q306" s="16"/>
     </row>
-    <row r="307" spans="1:17" ht="61.75" x14ac:dyDescent="0.65">
+    <row r="307" spans="1:17" ht="63" x14ac:dyDescent="0.4">
       <c r="A307" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>301</v>
       </c>
       <c r="B307" s="12"/>
@@ -19867,9 +19931,9 @@
       <c r="P307" s="14"/>
       <c r="Q307" s="16"/>
     </row>
-    <row r="308" spans="1:17" ht="30.9" x14ac:dyDescent="0.65">
+    <row r="308" spans="1:17" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A308" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>302</v>
       </c>
       <c r="B308" s="12"/>
@@ -19901,9 +19965,9 @@
       <c r="P308" s="14"/>
       <c r="Q308" s="16"/>
     </row>
-    <row r="309" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="309" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A309" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>303</v>
       </c>
       <c r="B309" s="12"/>
@@ -19927,9 +19991,9 @@
       <c r="P309" s="14"/>
       <c r="Q309" s="16"/>
     </row>
-    <row r="310" spans="1:17" ht="30.9" x14ac:dyDescent="0.65">
+    <row r="310" spans="1:17" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A310" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>304</v>
       </c>
       <c r="B310" s="12"/>
@@ -19959,9 +20023,9 @@
       <c r="P310" s="14"/>
       <c r="Q310" s="16"/>
     </row>
-    <row r="311" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="311" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A311" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>305</v>
       </c>
       <c r="B311" s="12"/>
@@ -19985,9 +20049,9 @@
       <c r="P311" s="14"/>
       <c r="Q311" s="16"/>
     </row>
-    <row r="312" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="312" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A312" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>306</v>
       </c>
       <c r="B312" s="12"/>
@@ -20015,9 +20079,9 @@
       <c r="P312" s="14"/>
       <c r="Q312" s="16"/>
     </row>
-    <row r="313" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="313" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A313" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>307</v>
       </c>
       <c r="B313" s="12"/>
@@ -20041,9 +20105,9 @@
       <c r="P313" s="14"/>
       <c r="Q313" s="16"/>
     </row>
-    <row r="314" spans="1:17" ht="46.3" x14ac:dyDescent="0.65">
+    <row r="314" spans="1:17" ht="47.25" x14ac:dyDescent="0.4">
       <c r="A314" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>308</v>
       </c>
       <c r="B314" s="12"/>
@@ -20069,9 +20133,9 @@
       <c r="P314" s="14"/>
       <c r="Q314" s="16"/>
     </row>
-    <row r="315" spans="1:17" ht="46.3" x14ac:dyDescent="0.65">
+    <row r="315" spans="1:17" ht="47.25" x14ac:dyDescent="0.4">
       <c r="A315" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>309</v>
       </c>
       <c r="B315" s="12"/>
@@ -20095,9 +20159,9 @@
       <c r="P315" s="14"/>
       <c r="Q315" s="16"/>
     </row>
-    <row r="316" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="316" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A316" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>310</v>
       </c>
       <c r="B316" s="12"/>
@@ -20123,9 +20187,9 @@
       <c r="P316" s="14"/>
       <c r="Q316" s="16"/>
     </row>
-    <row r="317" spans="1:17" ht="30.9" x14ac:dyDescent="0.65">
+    <row r="317" spans="1:17" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A317" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>311</v>
       </c>
       <c r="B317" s="12"/>
@@ -20149,9 +20213,9 @@
       <c r="P317" s="14"/>
       <c r="Q317" s="16"/>
     </row>
-    <row r="318" spans="1:17" ht="30.9" x14ac:dyDescent="0.65">
+    <row r="318" spans="1:17" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A318" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>312</v>
       </c>
       <c r="B318" s="12"/>
@@ -20183,9 +20247,9 @@
       <c r="P318" s="14"/>
       <c r="Q318" s="16"/>
     </row>
-    <row r="319" spans="1:17" ht="30.9" x14ac:dyDescent="0.65">
+    <row r="319" spans="1:17" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A319" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>313</v>
       </c>
       <c r="B319" s="12"/>
@@ -20209,9 +20273,9 @@
       <c r="P319" s="14"/>
       <c r="Q319" s="16"/>
     </row>
-    <row r="320" spans="1:17" ht="30.9" x14ac:dyDescent="0.65">
+    <row r="320" spans="1:17" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A320" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>314</v>
       </c>
       <c r="B320" s="12"/>
@@ -20235,9 +20299,9 @@
       <c r="P320" s="14"/>
       <c r="Q320" s="16"/>
     </row>
-    <row r="321" spans="1:17" ht="30.9" x14ac:dyDescent="0.65">
+    <row r="321" spans="1:17" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A321" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>315</v>
       </c>
       <c r="B321" s="12"/>
@@ -20263,9 +20327,9 @@
       <c r="P321" s="14"/>
       <c r="Q321" s="16"/>
     </row>
-    <row r="322" spans="1:17" ht="30.9" x14ac:dyDescent="0.65">
+    <row r="322" spans="1:17" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A322" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>316</v>
       </c>
       <c r="B322" s="12"/>
@@ -20293,9 +20357,9 @@
       <c r="P322" s="14"/>
       <c r="Q322" s="16"/>
     </row>
-    <row r="323" spans="1:17" ht="30.9" x14ac:dyDescent="0.65">
+    <row r="323" spans="1:17" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A323" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>317</v>
       </c>
       <c r="B323" s="12"/>
@@ -20321,9 +20385,9 @@
       <c r="P323" s="14"/>
       <c r="Q323" s="16"/>
     </row>
-    <row r="324" spans="1:17" ht="30.9" x14ac:dyDescent="0.65">
+    <row r="324" spans="1:17" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A324" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>318</v>
       </c>
       <c r="B324" s="12"/>
@@ -20353,9 +20417,9 @@
       <c r="P324" s="14"/>
       <c r="Q324" s="16"/>
     </row>
-    <row r="325" spans="1:17" ht="30.9" x14ac:dyDescent="0.65">
+    <row r="325" spans="1:17" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A325" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>319</v>
       </c>
       <c r="B325" s="12"/>
@@ -20379,9 +20443,9 @@
       <c r="P325" s="14"/>
       <c r="Q325" s="16"/>
     </row>
-    <row r="326" spans="1:17" ht="30.9" x14ac:dyDescent="0.65">
+    <row r="326" spans="1:17" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A326" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>320</v>
       </c>
       <c r="B326" s="12"/>
@@ -20405,9 +20469,9 @@
       <c r="P326" s="14"/>
       <c r="Q326" s="16"/>
     </row>
-    <row r="327" spans="1:17" ht="30.9" x14ac:dyDescent="0.65">
+    <row r="327" spans="1:17" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A327" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>321</v>
       </c>
       <c r="B327" s="12"/>
@@ -20433,9 +20497,9 @@
       <c r="P327" s="14"/>
       <c r="Q327" s="16"/>
     </row>
-    <row r="328" spans="1:17" ht="30.9" x14ac:dyDescent="0.65">
+    <row r="328" spans="1:17" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A328" s="10">
-        <f t="shared" ref="A328:A391" si="5">ROW()-6</f>
+        <f t="shared" ref="A328:A391" si="6">ROW()-6</f>
         <v>322</v>
       </c>
       <c r="B328" s="12"/>
@@ -20463,9 +20527,9 @@
       <c r="P328" s="14"/>
       <c r="Q328" s="16"/>
     </row>
-    <row r="329" spans="1:17" ht="30.9" x14ac:dyDescent="0.65">
+    <row r="329" spans="1:17" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A329" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>323</v>
       </c>
       <c r="B329" s="12"/>
@@ -20491,9 +20555,9 @@
       <c r="P329" s="14"/>
       <c r="Q329" s="16"/>
     </row>
-    <row r="330" spans="1:17" ht="30.9" x14ac:dyDescent="0.65">
+    <row r="330" spans="1:17" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A330" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>324</v>
       </c>
       <c r="B330" s="12"/>
@@ -20523,9 +20587,9 @@
       <c r="P330" s="14"/>
       <c r="Q330" s="16"/>
     </row>
-    <row r="331" spans="1:17" ht="30.9" x14ac:dyDescent="0.65">
+    <row r="331" spans="1:17" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A331" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>325</v>
       </c>
       <c r="B331" s="12"/>
@@ -20549,9 +20613,9 @@
       <c r="P331" s="14"/>
       <c r="Q331" s="16"/>
     </row>
-    <row r="332" spans="1:17" ht="30.9" x14ac:dyDescent="0.65">
+    <row r="332" spans="1:17" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A332" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>326</v>
       </c>
       <c r="B332" s="12"/>
@@ -20575,9 +20639,9 @@
       <c r="P332" s="14"/>
       <c r="Q332" s="16"/>
     </row>
-    <row r="333" spans="1:17" ht="30.9" x14ac:dyDescent="0.65">
+    <row r="333" spans="1:17" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A333" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>327</v>
       </c>
       <c r="B333" s="12"/>
@@ -20603,9 +20667,9 @@
       <c r="P333" s="14"/>
       <c r="Q333" s="16"/>
     </row>
-    <row r="334" spans="1:17" ht="30.9" x14ac:dyDescent="0.65">
+    <row r="334" spans="1:17" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A334" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>328</v>
       </c>
       <c r="B334" s="12"/>
@@ -20633,9 +20697,9 @@
       <c r="P334" s="14"/>
       <c r="Q334" s="16"/>
     </row>
-    <row r="335" spans="1:17" ht="30.9" x14ac:dyDescent="0.65">
+    <row r="335" spans="1:17" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A335" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>329</v>
       </c>
       <c r="B335" s="12"/>
@@ -20661,9 +20725,9 @@
       <c r="P335" s="14"/>
       <c r="Q335" s="16"/>
     </row>
-    <row r="336" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="336" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A336" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>330</v>
       </c>
       <c r="B336" s="12"/>
@@ -20689,9 +20753,9 @@
       <c r="P336" s="14"/>
       <c r="Q336" s="16"/>
     </row>
-    <row r="337" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="337" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A337" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>331</v>
       </c>
       <c r="B337" s="12"/>
@@ -20715,9 +20779,9 @@
       <c r="P337" s="14"/>
       <c r="Q337" s="16"/>
     </row>
-    <row r="338" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="338" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A338" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>332</v>
       </c>
       <c r="B338" s="12"/>
@@ -20741,9 +20805,9 @@
       <c r="P338" s="14"/>
       <c r="Q338" s="16"/>
     </row>
-    <row r="339" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="339" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A339" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>333</v>
       </c>
       <c r="B339" s="12"/>
@@ -20767,9 +20831,9 @@
       <c r="P339" s="14"/>
       <c r="Q339" s="16"/>
     </row>
-    <row r="340" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="340" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A340" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>334</v>
       </c>
       <c r="B340" s="12"/>
@@ -20793,9 +20857,9 @@
       <c r="P340" s="14"/>
       <c r="Q340" s="16"/>
     </row>
-    <row r="341" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="341" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A341" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>335</v>
       </c>
       <c r="B341" s="12"/>
@@ -20819,9 +20883,9 @@
       <c r="P341" s="14"/>
       <c r="Q341" s="16"/>
     </row>
-    <row r="342" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="342" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A342" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>336</v>
       </c>
       <c r="B342" s="12"/>
@@ -20845,9 +20909,9 @@
       <c r="P342" s="14"/>
       <c r="Q342" s="16"/>
     </row>
-    <row r="343" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="343" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A343" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>337</v>
       </c>
       <c r="B343" s="12"/>
@@ -20871,9 +20935,9 @@
       <c r="P343" s="14"/>
       <c r="Q343" s="16"/>
     </row>
-    <row r="344" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="344" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A344" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>338</v>
       </c>
       <c r="B344" s="12"/>
@@ -20897,9 +20961,9 @@
       <c r="P344" s="14"/>
       <c r="Q344" s="16"/>
     </row>
-    <row r="345" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="345" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A345" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>339</v>
       </c>
       <c r="B345" s="12"/>
@@ -20923,9 +20987,9 @@
       <c r="P345" s="14"/>
       <c r="Q345" s="16"/>
     </row>
-    <row r="346" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="346" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A346" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>340</v>
       </c>
       <c r="B346" s="12"/>
@@ -20949,9 +21013,9 @@
       <c r="P346" s="14"/>
       <c r="Q346" s="16"/>
     </row>
-    <row r="347" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="347" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A347" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>341</v>
       </c>
       <c r="B347" s="12"/>
@@ -20975,9 +21039,9 @@
       <c r="P347" s="14"/>
       <c r="Q347" s="16"/>
     </row>
-    <row r="348" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="348" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A348" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>342</v>
       </c>
       <c r="B348" s="12"/>
@@ -21001,9 +21065,9 @@
       <c r="P348" s="14"/>
       <c r="Q348" s="16"/>
     </row>
-    <row r="349" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="349" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A349" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>343</v>
       </c>
       <c r="B349" s="12"/>
@@ -21027,9 +21091,9 @@
       <c r="P349" s="14"/>
       <c r="Q349" s="16"/>
     </row>
-    <row r="350" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="350" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A350" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>344</v>
       </c>
       <c r="B350" s="12"/>
@@ -21053,9 +21117,9 @@
       <c r="P350" s="14"/>
       <c r="Q350" s="16"/>
     </row>
-    <row r="351" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="351" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A351" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>345</v>
       </c>
       <c r="B351" s="12"/>
@@ -21079,9 +21143,9 @@
       <c r="P351" s="14"/>
       <c r="Q351" s="16"/>
     </row>
-    <row r="352" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="352" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A352" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>346</v>
       </c>
       <c r="B352" s="12"/>
@@ -21105,9 +21169,9 @@
       <c r="P352" s="14"/>
       <c r="Q352" s="16"/>
     </row>
-    <row r="353" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="353" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A353" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>347</v>
       </c>
       <c r="B353" s="12"/>
@@ -21131,9 +21195,9 @@
       <c r="P353" s="14"/>
       <c r="Q353" s="16"/>
     </row>
-    <row r="354" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="354" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A354" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>348</v>
       </c>
       <c r="B354" s="12"/>
@@ -21157,9 +21221,9 @@
       <c r="P354" s="14"/>
       <c r="Q354" s="16"/>
     </row>
-    <row r="355" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="355" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A355" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>349</v>
       </c>
       <c r="B355" s="12"/>
@@ -21183,9 +21247,9 @@
       <c r="P355" s="14"/>
       <c r="Q355" s="16"/>
     </row>
-    <row r="356" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="356" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A356" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>350</v>
       </c>
       <c r="B356" s="12"/>
@@ -21209,9 +21273,9 @@
       <c r="P356" s="14"/>
       <c r="Q356" s="16"/>
     </row>
-    <row r="357" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="357" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A357" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>351</v>
       </c>
       <c r="B357" s="12"/>
@@ -21235,9 +21299,9 @@
       <c r="P357" s="14"/>
       <c r="Q357" s="16"/>
     </row>
-    <row r="358" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="358" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A358" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>352</v>
       </c>
       <c r="B358" s="12"/>
@@ -21261,9 +21325,9 @@
       <c r="P358" s="14"/>
       <c r="Q358" s="16"/>
     </row>
-    <row r="359" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="359" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A359" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>353</v>
       </c>
       <c r="B359" s="12"/>
@@ -21287,9 +21351,9 @@
       <c r="P359" s="14"/>
       <c r="Q359" s="16"/>
     </row>
-    <row r="360" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="360" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A360" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>354</v>
       </c>
       <c r="B360" s="12"/>
@@ -21313,9 +21377,9 @@
       <c r="P360" s="14"/>
       <c r="Q360" s="16"/>
     </row>
-    <row r="361" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="361" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A361" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>355</v>
       </c>
       <c r="B361" s="12"/>
@@ -21339,9 +21403,9 @@
       <c r="P361" s="14"/>
       <c r="Q361" s="16"/>
     </row>
-    <row r="362" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="362" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A362" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>356</v>
       </c>
       <c r="B362" s="12"/>
@@ -21365,9 +21429,9 @@
       <c r="P362" s="14"/>
       <c r="Q362" s="16"/>
     </row>
-    <row r="363" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="363" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A363" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>357</v>
       </c>
       <c r="B363" s="12"/>
@@ -21391,9 +21455,9 @@
       <c r="P363" s="14"/>
       <c r="Q363" s="16"/>
     </row>
-    <row r="364" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="364" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A364" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>358</v>
       </c>
       <c r="B364" s="12"/>
@@ -21417,9 +21481,9 @@
       <c r="P364" s="14"/>
       <c r="Q364" s="16"/>
     </row>
-    <row r="365" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="365" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A365" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>359</v>
       </c>
       <c r="B365" s="12"/>
@@ -21443,9 +21507,9 @@
       <c r="P365" s="14"/>
       <c r="Q365" s="16"/>
     </row>
-    <row r="366" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="366" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A366" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>360</v>
       </c>
       <c r="B366" s="12"/>
@@ -21469,9 +21533,9 @@
       <c r="P366" s="14"/>
       <c r="Q366" s="16"/>
     </row>
-    <row r="367" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="367" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A367" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>361</v>
       </c>
       <c r="B367" s="12"/>
@@ -21495,9 +21559,9 @@
       <c r="P367" s="14"/>
       <c r="Q367" s="16"/>
     </row>
-    <row r="368" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="368" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A368" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>362</v>
       </c>
       <c r="B368" s="12"/>
@@ -21521,9 +21585,9 @@
       <c r="P368" s="14"/>
       <c r="Q368" s="16"/>
     </row>
-    <row r="369" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="369" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A369" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>363</v>
       </c>
       <c r="B369" s="12"/>
@@ -21547,9 +21611,9 @@
       <c r="P369" s="14"/>
       <c r="Q369" s="16"/>
     </row>
-    <row r="370" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="370" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A370" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>364</v>
       </c>
       <c r="B370" s="12"/>
@@ -21573,9 +21637,9 @@
       <c r="P370" s="14"/>
       <c r="Q370" s="16"/>
     </row>
-    <row r="371" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="371" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A371" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>365</v>
       </c>
       <c r="B371" s="12"/>
@@ -21605,9 +21669,9 @@
       <c r="P371" s="14"/>
       <c r="Q371" s="16"/>
     </row>
-    <row r="372" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="372" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A372" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>366</v>
       </c>
       <c r="B372" s="12"/>
@@ -21631,9 +21695,9 @@
       <c r="P372" s="14"/>
       <c r="Q372" s="16"/>
     </row>
-    <row r="373" spans="1:17" ht="30.9" x14ac:dyDescent="0.65">
+    <row r="373" spans="1:17" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A373" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>367</v>
       </c>
       <c r="B373" s="12"/>
@@ -21659,9 +21723,9 @@
       <c r="P373" s="14"/>
       <c r="Q373" s="16"/>
     </row>
-    <row r="374" spans="1:17" ht="30.9" x14ac:dyDescent="0.65">
+    <row r="374" spans="1:17" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A374" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>368</v>
       </c>
       <c r="B374" s="12"/>
@@ -21685,9 +21749,9 @@
       <c r="P374" s="14"/>
       <c r="Q374" s="16"/>
     </row>
-    <row r="375" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="375" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A375" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>369</v>
       </c>
       <c r="B375" s="12"/>
@@ -21713,9 +21777,9 @@
       <c r="P375" s="14"/>
       <c r="Q375" s="16"/>
     </row>
-    <row r="376" spans="1:17" ht="61.75" x14ac:dyDescent="0.65">
+    <row r="376" spans="1:17" ht="63" x14ac:dyDescent="0.4">
       <c r="A376" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>370</v>
       </c>
       <c r="B376" s="12"/>
@@ -21747,9 +21811,9 @@
       <c r="P376" s="14"/>
       <c r="Q376" s="16"/>
     </row>
-    <row r="377" spans="1:17" ht="30.9" x14ac:dyDescent="0.65">
+    <row r="377" spans="1:17" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A377" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>371</v>
       </c>
       <c r="B377" s="12"/>
@@ -21773,9 +21837,9 @@
       <c r="P377" s="14"/>
       <c r="Q377" s="16"/>
     </row>
-    <row r="378" spans="1:17" ht="30.9" x14ac:dyDescent="0.65">
+    <row r="378" spans="1:17" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A378" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>372</v>
       </c>
       <c r="B378" s="12"/>
@@ -21799,9 +21863,9 @@
       <c r="P378" s="14"/>
       <c r="Q378" s="16"/>
     </row>
-    <row r="379" spans="1:17" ht="77.150000000000006" x14ac:dyDescent="0.65">
+    <row r="379" spans="1:17" ht="78.75" x14ac:dyDescent="0.4">
       <c r="A379" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>373</v>
       </c>
       <c r="B379" s="12"/>
@@ -21825,9 +21889,9 @@
       <c r="P379" s="14"/>
       <c r="Q379" s="16"/>
     </row>
-    <row r="380" spans="1:17" ht="30.9" x14ac:dyDescent="0.65">
+    <row r="380" spans="1:17" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A380" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>374</v>
       </c>
       <c r="B380" s="12"/>
@@ -21851,9 +21915,9 @@
       <c r="P380" s="14"/>
       <c r="Q380" s="16"/>
     </row>
-    <row r="381" spans="1:17" ht="46.3" x14ac:dyDescent="0.65">
+    <row r="381" spans="1:17" ht="47.25" x14ac:dyDescent="0.4">
       <c r="A381" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>375</v>
       </c>
       <c r="B381" s="12"/>
@@ -21881,9 +21945,9 @@
       <c r="P381" s="14"/>
       <c r="Q381" s="16"/>
     </row>
-    <row r="382" spans="1:17" ht="46.3" x14ac:dyDescent="0.65">
+    <row r="382" spans="1:17" ht="47.25" x14ac:dyDescent="0.4">
       <c r="A382" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>376</v>
       </c>
       <c r="B382" s="12"/>
@@ -21909,9 +21973,9 @@
       <c r="P382" s="14"/>
       <c r="Q382" s="16"/>
     </row>
-    <row r="383" spans="1:17" ht="46.3" x14ac:dyDescent="0.65">
+    <row r="383" spans="1:17" ht="47.25" x14ac:dyDescent="0.4">
       <c r="A383" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>377</v>
       </c>
       <c r="B383" s="12"/>
@@ -21937,9 +22001,9 @@
       <c r="P383" s="14"/>
       <c r="Q383" s="16"/>
     </row>
-    <row r="384" spans="1:17" ht="77.150000000000006" x14ac:dyDescent="0.65">
+    <row r="384" spans="1:17" ht="78.75" x14ac:dyDescent="0.4">
       <c r="A384" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>378</v>
       </c>
       <c r="B384" s="12"/>
@@ -21967,9 +22031,9 @@
       <c r="P384" s="14"/>
       <c r="Q384" s="16"/>
     </row>
-    <row r="385" spans="1:17" ht="30.9" x14ac:dyDescent="0.65">
+    <row r="385" spans="1:17" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A385" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>379</v>
       </c>
       <c r="B385" s="12"/>
@@ -21993,9 +22057,9 @@
       <c r="P385" s="14"/>
       <c r="Q385" s="16"/>
     </row>
-    <row r="386" spans="1:17" ht="46.3" x14ac:dyDescent="0.65">
+    <row r="386" spans="1:17" ht="47.25" x14ac:dyDescent="0.4">
       <c r="A386" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>380</v>
       </c>
       <c r="B386" s="12"/>
@@ -22023,9 +22087,9 @@
       <c r="P386" s="14"/>
       <c r="Q386" s="16"/>
     </row>
-    <row r="387" spans="1:17" ht="61.75" x14ac:dyDescent="0.65">
+    <row r="387" spans="1:17" ht="63" x14ac:dyDescent="0.4">
       <c r="A387" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>381</v>
       </c>
       <c r="B387" s="12"/>
@@ -22053,9 +22117,9 @@
       <c r="P387" s="14"/>
       <c r="Q387" s="16"/>
     </row>
-    <row r="388" spans="1:17" ht="77.150000000000006" x14ac:dyDescent="0.65">
+    <row r="388" spans="1:17" ht="78.75" x14ac:dyDescent="0.4">
       <c r="A388" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>382</v>
       </c>
       <c r="B388" s="12"/>
@@ -22085,9 +22149,9 @@
       <c r="P388" s="14"/>
       <c r="Q388" s="16"/>
     </row>
-    <row r="389" spans="1:17" ht="30.9" x14ac:dyDescent="0.65">
+    <row r="389" spans="1:17" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A389" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>383</v>
       </c>
       <c r="B389" s="12"/>
@@ -22111,9 +22175,9 @@
       <c r="P389" s="14"/>
       <c r="Q389" s="16"/>
     </row>
-    <row r="390" spans="1:17" ht="30.9" x14ac:dyDescent="0.65">
+    <row r="390" spans="1:17" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A390" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>384</v>
       </c>
       <c r="B390" s="12"/>
@@ -22137,9 +22201,9 @@
       <c r="P390" s="14"/>
       <c r="Q390" s="16"/>
     </row>
-    <row r="391" spans="1:17" ht="30.9" x14ac:dyDescent="0.65">
+    <row r="391" spans="1:17" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A391" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>385</v>
       </c>
       <c r="B391" s="12"/>
@@ -22165,9 +22229,9 @@
       <c r="P391" s="14"/>
       <c r="Q391" s="16"/>
     </row>
-    <row r="392" spans="1:17" ht="30.9" x14ac:dyDescent="0.65">
+    <row r="392" spans="1:17" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A392" s="10">
-        <f t="shared" ref="A392:A455" si="6">ROW()-6</f>
+        <f t="shared" ref="A392:A455" si="7">ROW()-6</f>
         <v>386</v>
       </c>
       <c r="B392" s="12"/>
@@ -22191,9 +22255,9 @@
       <c r="P392" s="14"/>
       <c r="Q392" s="16"/>
     </row>
-    <row r="393" spans="1:17" ht="46.3" x14ac:dyDescent="0.65">
+    <row r="393" spans="1:17" ht="47.25" x14ac:dyDescent="0.4">
       <c r="A393" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>387</v>
       </c>
       <c r="B393" s="12"/>
@@ -22219,9 +22283,9 @@
       <c r="P393" s="14"/>
       <c r="Q393" s="16"/>
     </row>
-    <row r="394" spans="1:17" ht="46.3" x14ac:dyDescent="0.65">
+    <row r="394" spans="1:17" ht="47.25" x14ac:dyDescent="0.4">
       <c r="A394" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>388</v>
       </c>
       <c r="B394" s="12"/>
@@ -22247,9 +22311,9 @@
       <c r="P394" s="14"/>
       <c r="Q394" s="16"/>
     </row>
-    <row r="395" spans="1:17" ht="30.9" x14ac:dyDescent="0.65">
+    <row r="395" spans="1:17" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A395" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>389</v>
       </c>
       <c r="B395" s="12"/>
@@ -22273,9 +22337,9 @@
       <c r="P395" s="14"/>
       <c r="Q395" s="16"/>
     </row>
-    <row r="396" spans="1:17" ht="46.3" x14ac:dyDescent="0.65">
+    <row r="396" spans="1:17" ht="47.25" x14ac:dyDescent="0.4">
       <c r="A396" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>390</v>
       </c>
       <c r="B396" s="12"/>
@@ -22301,9 +22365,9 @@
       <c r="P396" s="14"/>
       <c r="Q396" s="16"/>
     </row>
-    <row r="397" spans="1:17" ht="46.3" x14ac:dyDescent="0.65">
+    <row r="397" spans="1:17" ht="47.25" x14ac:dyDescent="0.4">
       <c r="A397" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>391</v>
       </c>
       <c r="B397" s="12"/>
@@ -22329,9 +22393,9 @@
       <c r="P397" s="14"/>
       <c r="Q397" s="16"/>
     </row>
-    <row r="398" spans="1:17" ht="77.150000000000006" x14ac:dyDescent="0.65">
+    <row r="398" spans="1:17" ht="78.75" x14ac:dyDescent="0.4">
       <c r="A398" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>392</v>
       </c>
       <c r="B398" s="12"/>
@@ -22357,9 +22421,9 @@
       <c r="P398" s="14"/>
       <c r="Q398" s="16"/>
     </row>
-    <row r="399" spans="1:17" ht="92.6" x14ac:dyDescent="0.65">
+    <row r="399" spans="1:17" ht="94.5" x14ac:dyDescent="0.4">
       <c r="A399" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>393</v>
       </c>
       <c r="B399" s="12"/>
@@ -22385,9 +22449,9 @@
       <c r="P399" s="14"/>
       <c r="Q399" s="16"/>
     </row>
-    <row r="400" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="400" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A400" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>394</v>
       </c>
       <c r="B400" s="12"/>
@@ -22411,9 +22475,9 @@
       <c r="P400" s="14"/>
       <c r="Q400" s="16"/>
     </row>
-    <row r="401" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="401" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A401" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>395</v>
       </c>
       <c r="B401" s="12"/>
@@ -22437,9 +22501,9 @@
       <c r="P401" s="14"/>
       <c r="Q401" s="16"/>
     </row>
-    <row r="402" spans="1:17" ht="61.75" x14ac:dyDescent="0.65">
+    <row r="402" spans="1:17" ht="63" x14ac:dyDescent="0.4">
       <c r="A402" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>396</v>
       </c>
       <c r="B402" s="12"/>
@@ -22463,9 +22527,9 @@
       <c r="P402" s="14"/>
       <c r="Q402" s="16"/>
     </row>
-    <row r="403" spans="1:17" ht="30.9" x14ac:dyDescent="0.65">
+    <row r="403" spans="1:17" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A403" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>397</v>
       </c>
       <c r="B403" s="12"/>
@@ -22491,9 +22555,9 @@
       <c r="P403" s="14"/>
       <c r="Q403" s="16"/>
     </row>
-    <row r="404" spans="1:17" ht="30.9" x14ac:dyDescent="0.65">
+    <row r="404" spans="1:17" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A404" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>398</v>
       </c>
       <c r="B404" s="12"/>
@@ -22521,9 +22585,9 @@
       <c r="P404" s="14"/>
       <c r="Q404" s="16"/>
     </row>
-    <row r="405" spans="1:17" ht="30.9" x14ac:dyDescent="0.65">
+    <row r="405" spans="1:17" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A405" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>399</v>
       </c>
       <c r="B405" s="12"/>
@@ -22549,9 +22613,9 @@
       <c r="P405" s="14"/>
       <c r="Q405" s="16"/>
     </row>
-    <row r="406" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="406" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A406" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>400</v>
       </c>
       <c r="B406" s="12"/>
@@ -22583,9 +22647,9 @@
       <c r="P406" s="14"/>
       <c r="Q406" s="16"/>
     </row>
-    <row r="407" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="407" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A407" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>401</v>
       </c>
       <c r="B407" s="12"/>
@@ -22609,9 +22673,9 @@
       <c r="P407" s="14"/>
       <c r="Q407" s="16"/>
     </row>
-    <row r="408" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="408" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A408" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>402</v>
       </c>
       <c r="B408" s="12"/>
@@ -22637,9 +22701,9 @@
       <c r="P408" s="14"/>
       <c r="Q408" s="16"/>
     </row>
-    <row r="409" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="409" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A409" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>403</v>
       </c>
       <c r="B409" s="12"/>
@@ -22663,9 +22727,9 @@
       <c r="P409" s="14"/>
       <c r="Q409" s="16"/>
     </row>
-    <row r="410" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="410" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A410" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>404</v>
       </c>
       <c r="B410" s="12"/>
@@ -22691,9 +22755,9 @@
       <c r="P410" s="14"/>
       <c r="Q410" s="16"/>
     </row>
-    <row r="411" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="411" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A411" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>405</v>
       </c>
       <c r="B411" s="12"/>
@@ -22717,9 +22781,9 @@
       <c r="P411" s="14"/>
       <c r="Q411" s="16"/>
     </row>
-    <row r="412" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="412" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A412" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>406</v>
       </c>
       <c r="B412" s="12"/>
@@ -22745,9 +22809,9 @@
       <c r="P412" s="14"/>
       <c r="Q412" s="16"/>
     </row>
-    <row r="413" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="413" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A413" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>407</v>
       </c>
       <c r="B413" s="12"/>
@@ -22771,9 +22835,9 @@
       <c r="P413" s="14"/>
       <c r="Q413" s="16"/>
     </row>
-    <row r="414" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="414" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A414" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>408</v>
       </c>
       <c r="B414" s="12"/>
@@ -22799,9 +22863,9 @@
       <c r="P414" s="14"/>
       <c r="Q414" s="16"/>
     </row>
-    <row r="415" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="415" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A415" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>409</v>
       </c>
       <c r="B415" s="12"/>
@@ -22825,9 +22889,9 @@
       <c r="P415" s="14"/>
       <c r="Q415" s="16"/>
     </row>
-    <row r="416" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="416" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A416" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>410</v>
       </c>
       <c r="B416" s="12"/>
@@ -22851,9 +22915,9 @@
       <c r="P416" s="14"/>
       <c r="Q416" s="16"/>
     </row>
-    <row r="417" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="417" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A417" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>411</v>
       </c>
       <c r="B417" s="12"/>
@@ -22877,9 +22941,9 @@
       <c r="P417" s="14"/>
       <c r="Q417" s="16"/>
     </row>
-    <row r="418" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="418" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A418" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>412</v>
       </c>
       <c r="B418" s="12"/>
@@ -22907,9 +22971,9 @@
       <c r="P418" s="14"/>
       <c r="Q418" s="16"/>
     </row>
-    <row r="419" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="419" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A419" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>413</v>
       </c>
       <c r="B419" s="12"/>
@@ -22933,9 +22997,9 @@
       <c r="P419" s="14"/>
       <c r="Q419" s="16"/>
     </row>
-    <row r="420" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="420" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A420" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>414</v>
       </c>
       <c r="B420" s="12"/>
@@ -22959,9 +23023,9 @@
       <c r="P420" s="14"/>
       <c r="Q420" s="16"/>
     </row>
-    <row r="421" spans="1:17" ht="30.9" x14ac:dyDescent="0.65">
+    <row r="421" spans="1:17" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A421" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>415</v>
       </c>
       <c r="B421" s="12"/>
@@ -22985,9 +23049,9 @@
       <c r="P421" s="14"/>
       <c r="Q421" s="16"/>
     </row>
-    <row r="422" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="422" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A422" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>416</v>
       </c>
       <c r="B422" s="12"/>
@@ -23013,9 +23077,9 @@
       <c r="P422" s="14"/>
       <c r="Q422" s="16"/>
     </row>
-    <row r="423" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="423" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A423" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>417</v>
       </c>
       <c r="B423" s="12"/>
@@ -23039,9 +23103,9 @@
       <c r="P423" s="14"/>
       <c r="Q423" s="16"/>
     </row>
-    <row r="424" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="424" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A424" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>418</v>
       </c>
       <c r="B424" s="12"/>
@@ -23067,9 +23131,9 @@
       <c r="P424" s="14"/>
       <c r="Q424" s="16"/>
     </row>
-    <row r="425" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="425" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A425" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>419</v>
       </c>
       <c r="B425" s="12"/>
@@ -23093,9 +23157,9 @@
       <c r="P425" s="14"/>
       <c r="Q425" s="16"/>
     </row>
-    <row r="426" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="426" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A426" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>420</v>
       </c>
       <c r="B426" s="12"/>
@@ -23121,9 +23185,9 @@
       <c r="P426" s="14"/>
       <c r="Q426" s="16"/>
     </row>
-    <row r="427" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="427" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A427" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>421</v>
       </c>
       <c r="B427" s="12"/>
@@ -23147,9 +23211,9 @@
       <c r="P427" s="14"/>
       <c r="Q427" s="16"/>
     </row>
-    <row r="428" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="428" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A428" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>422</v>
       </c>
       <c r="B428" s="12"/>
@@ -23173,9 +23237,9 @@
       <c r="P428" s="14"/>
       <c r="Q428" s="16"/>
     </row>
-    <row r="429" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="429" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A429" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>423</v>
       </c>
       <c r="B429" s="12"/>
@@ -23199,9 +23263,9 @@
       <c r="P429" s="14"/>
       <c r="Q429" s="16"/>
     </row>
-    <row r="430" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="430" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A430" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>424</v>
       </c>
       <c r="B430" s="12"/>
@@ -23229,9 +23293,9 @@
       <c r="P430" s="14"/>
       <c r="Q430" s="16"/>
     </row>
-    <row r="431" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="431" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A431" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>425</v>
       </c>
       <c r="B431" s="12"/>
@@ -23255,9 +23319,9 @@
       <c r="P431" s="14"/>
       <c r="Q431" s="16"/>
     </row>
-    <row r="432" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="432" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A432" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>426</v>
       </c>
       <c r="B432" s="12"/>
@@ -23281,9 +23345,9 @@
       <c r="P432" s="14"/>
       <c r="Q432" s="16"/>
     </row>
-    <row r="433" spans="1:17" ht="30.9" x14ac:dyDescent="0.65">
+    <row r="433" spans="1:17" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A433" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>427</v>
       </c>
       <c r="B433" s="12"/>
@@ -23307,9 +23371,9 @@
       <c r="P433" s="14"/>
       <c r="Q433" s="16"/>
     </row>
-    <row r="434" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="434" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A434" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>428</v>
       </c>
       <c r="B434" s="12"/>
@@ -23335,9 +23399,9 @@
       <c r="P434" s="14"/>
       <c r="Q434" s="16"/>
     </row>
-    <row r="435" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="435" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A435" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>429</v>
       </c>
       <c r="B435" s="12"/>
@@ -23361,9 +23425,9 @@
       <c r="P435" s="14"/>
       <c r="Q435" s="16"/>
     </row>
-    <row r="436" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="436" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A436" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>430</v>
       </c>
       <c r="B436" s="12"/>
@@ -23389,9 +23453,9 @@
       <c r="P436" s="14"/>
       <c r="Q436" s="16"/>
     </row>
-    <row r="437" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="437" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A437" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>431</v>
       </c>
       <c r="B437" s="12"/>
@@ -23415,9 +23479,9 @@
       <c r="P437" s="14"/>
       <c r="Q437" s="16"/>
     </row>
-    <row r="438" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="438" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A438" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>432</v>
       </c>
       <c r="B438" s="12"/>
@@ -23449,9 +23513,9 @@
       <c r="P438" s="14"/>
       <c r="Q438" s="16"/>
     </row>
-    <row r="439" spans="1:17" ht="77.150000000000006" x14ac:dyDescent="0.65">
+    <row r="439" spans="1:17" ht="78.75" x14ac:dyDescent="0.4">
       <c r="A439" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>433</v>
       </c>
       <c r="B439" s="12"/>
@@ -23475,9 +23539,9 @@
       <c r="P439" s="14"/>
       <c r="Q439" s="16"/>
     </row>
-    <row r="440" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="440" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A440" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>434</v>
       </c>
       <c r="B440" s="12"/>
@@ -23503,9 +23567,9 @@
       <c r="P440" s="14"/>
       <c r="Q440" s="16"/>
     </row>
-    <row r="441" spans="1:17" ht="61.75" x14ac:dyDescent="0.65">
+    <row r="441" spans="1:17" ht="63" x14ac:dyDescent="0.4">
       <c r="A441" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>435</v>
       </c>
       <c r="B441" s="12"/>
@@ -23529,9 +23593,9 @@
       <c r="P441" s="14"/>
       <c r="Q441" s="16"/>
     </row>
-    <row r="442" spans="1:17" ht="46.3" x14ac:dyDescent="0.65">
+    <row r="442" spans="1:17" ht="47.25" x14ac:dyDescent="0.4">
       <c r="A442" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>436</v>
       </c>
       <c r="B442" s="12"/>
@@ -23559,9 +23623,9 @@
       <c r="P442" s="14"/>
       <c r="Q442" s="16"/>
     </row>
-    <row r="443" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="443" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A443" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>437</v>
       </c>
       <c r="B443" s="12"/>
@@ -23585,9 +23649,9 @@
       <c r="P443" s="14"/>
       <c r="Q443" s="16"/>
     </row>
-    <row r="444" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="444" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A444" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>438</v>
       </c>
       <c r="B444" s="12"/>
@@ -23615,9 +23679,9 @@
       <c r="P444" s="14"/>
       <c r="Q444" s="16"/>
     </row>
-    <row r="445" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="445" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A445" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>439</v>
       </c>
       <c r="B445" s="12"/>
@@ -23641,9 +23705,9 @@
       <c r="P445" s="14"/>
       <c r="Q445" s="16"/>
     </row>
-    <row r="446" spans="1:17" ht="231.45" x14ac:dyDescent="0.65">
+    <row r="446" spans="1:17" ht="236.25" x14ac:dyDescent="0.4">
       <c r="A446" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>440</v>
       </c>
       <c r="B446" s="12"/>
@@ -23675,9 +23739,9 @@
       <c r="P446" s="14"/>
       <c r="Q446" s="16"/>
     </row>
-    <row r="447" spans="1:17" ht="216" x14ac:dyDescent="0.65">
+    <row r="447" spans="1:17" ht="220.5" x14ac:dyDescent="0.4">
       <c r="A447" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>441</v>
       </c>
       <c r="B447" s="12"/>
@@ -23699,9 +23763,9 @@
       <c r="P447" s="14"/>
       <c r="Q447" s="16"/>
     </row>
-    <row r="448" spans="1:17" ht="385.75" x14ac:dyDescent="0.65">
+    <row r="448" spans="1:17" ht="393.75" x14ac:dyDescent="0.4">
       <c r="A448" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>442</v>
       </c>
       <c r="B448" s="12"/>
@@ -23723,9 +23787,9 @@
       <c r="P448" s="14"/>
       <c r="Q448" s="16"/>
     </row>
-    <row r="449" spans="1:17" ht="277.75" x14ac:dyDescent="0.65">
+    <row r="449" spans="1:17" ht="283.5" x14ac:dyDescent="0.4">
       <c r="A449" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>443</v>
       </c>
       <c r="B449" s="12"/>
@@ -23747,9 +23811,9 @@
       <c r="P449" s="14"/>
       <c r="Q449" s="16"/>
     </row>
-    <row r="450" spans="1:17" ht="154.30000000000001" x14ac:dyDescent="0.65">
+    <row r="450" spans="1:17" ht="157.5" x14ac:dyDescent="0.4">
       <c r="A450" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>444</v>
       </c>
       <c r="B450" s="12"/>
@@ -23771,9 +23835,9 @@
       <c r="P450" s="14"/>
       <c r="Q450" s="16"/>
     </row>
-    <row r="451" spans="1:17" ht="185.15" x14ac:dyDescent="0.65">
+    <row r="451" spans="1:17" ht="189" x14ac:dyDescent="0.4">
       <c r="A451" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>445</v>
       </c>
       <c r="B451" s="12"/>
@@ -23795,9 +23859,9 @@
       <c r="P451" s="14"/>
       <c r="Q451" s="16"/>
     </row>
-    <row r="452" spans="1:17" ht="216" x14ac:dyDescent="0.65">
+    <row r="452" spans="1:17" ht="220.5" x14ac:dyDescent="0.4">
       <c r="A452" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>446</v>
       </c>
       <c r="B452" s="12"/>
@@ -23825,9 +23889,9 @@
       <c r="P452" s="14"/>
       <c r="Q452" s="16"/>
     </row>
-    <row r="453" spans="1:17" ht="216" x14ac:dyDescent="0.65">
+    <row r="453" spans="1:17" ht="220.5" x14ac:dyDescent="0.4">
       <c r="A453" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>447</v>
       </c>
       <c r="B453" s="12"/>
@@ -23855,9 +23919,9 @@
       <c r="P453" s="14"/>
       <c r="Q453" s="16"/>
     </row>
-    <row r="454" spans="1:17" ht="216" x14ac:dyDescent="0.65">
+    <row r="454" spans="1:17" ht="220.5" x14ac:dyDescent="0.4">
       <c r="A454" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>448</v>
       </c>
       <c r="B454" s="12"/>
@@ -23885,9 +23949,9 @@
       <c r="P454" s="14"/>
       <c r="Q454" s="16"/>
     </row>
-    <row r="455" spans="1:17" ht="216" x14ac:dyDescent="0.65">
+    <row r="455" spans="1:17" ht="220.5" x14ac:dyDescent="0.4">
       <c r="A455" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>449</v>
       </c>
       <c r="B455" s="12"/>
@@ -23915,9 +23979,9 @@
       <c r="P455" s="14"/>
       <c r="Q455" s="16"/>
     </row>
-    <row r="456" spans="1:17" ht="216" x14ac:dyDescent="0.65">
+    <row r="456" spans="1:17" ht="220.5" x14ac:dyDescent="0.4">
       <c r="A456" s="10">
-        <f t="shared" ref="A456:A494" si="7">ROW()-6</f>
+        <f t="shared" ref="A456:A494" si="8">ROW()-6</f>
         <v>450</v>
       </c>
       <c r="B456" s="12"/>
@@ -23945,9 +24009,9 @@
       <c r="P456" s="14"/>
       <c r="Q456" s="16"/>
     </row>
-    <row r="457" spans="1:17" ht="277.75" x14ac:dyDescent="0.65">
+    <row r="457" spans="1:17" ht="283.5" x14ac:dyDescent="0.4">
       <c r="A457" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>451</v>
       </c>
       <c r="B457" s="12"/>
@@ -23973,9 +24037,9 @@
       <c r="P457" s="14"/>
       <c r="Q457" s="16"/>
     </row>
-    <row r="458" spans="1:17" ht="277.75" x14ac:dyDescent="0.65">
+    <row r="458" spans="1:17" ht="283.5" x14ac:dyDescent="0.4">
       <c r="A458" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>452</v>
       </c>
       <c r="B458" s="12"/>
@@ -24001,9 +24065,9 @@
       <c r="P458" s="14"/>
       <c r="Q458" s="16"/>
     </row>
-    <row r="459" spans="1:17" ht="277.75" x14ac:dyDescent="0.65">
+    <row r="459" spans="1:17" ht="283.5" x14ac:dyDescent="0.4">
       <c r="A459" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>453</v>
       </c>
       <c r="B459" s="12"/>
@@ -24029,9 +24093,9 @@
       <c r="P459" s="14"/>
       <c r="Q459" s="16"/>
     </row>
-    <row r="460" spans="1:17" ht="277.75" x14ac:dyDescent="0.65">
+    <row r="460" spans="1:17" ht="283.5" x14ac:dyDescent="0.4">
       <c r="A460" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>454</v>
       </c>
       <c r="B460" s="12"/>
@@ -24057,9 +24121,9 @@
       <c r="P460" s="14"/>
       <c r="Q460" s="16"/>
     </row>
-    <row r="461" spans="1:17" ht="46.3" x14ac:dyDescent="0.65">
+    <row r="461" spans="1:17" ht="47.25" x14ac:dyDescent="0.4">
       <c r="A461" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>455</v>
       </c>
       <c r="B461" s="12"/>
@@ -24089,9 +24153,9 @@
       <c r="P461" s="14"/>
       <c r="Q461" s="16"/>
     </row>
-    <row r="462" spans="1:17" ht="216" x14ac:dyDescent="0.65">
+    <row r="462" spans="1:17" ht="220.5" x14ac:dyDescent="0.4">
       <c r="A462" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>456</v>
       </c>
       <c r="B462" s="12"/>
@@ -24117,9 +24181,9 @@
       <c r="P462" s="14"/>
       <c r="Q462" s="16"/>
     </row>
-    <row r="463" spans="1:17" ht="46.3" x14ac:dyDescent="0.65">
+    <row r="463" spans="1:17" ht="47.25" x14ac:dyDescent="0.4">
       <c r="A463" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>457</v>
       </c>
       <c r="B463" s="12"/>
@@ -24145,9 +24209,9 @@
       <c r="P463" s="14"/>
       <c r="Q463" s="16"/>
     </row>
-    <row r="464" spans="1:17" ht="46.3" x14ac:dyDescent="0.65">
+    <row r="464" spans="1:17" ht="47.25" x14ac:dyDescent="0.4">
       <c r="A464" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>458</v>
       </c>
       <c r="B464" s="12"/>
@@ -24173,9 +24237,9 @@
       <c r="P464" s="14"/>
       <c r="Q464" s="16"/>
     </row>
-    <row r="465" spans="1:17" ht="277.75" x14ac:dyDescent="0.65">
+    <row r="465" spans="1:17" ht="283.5" x14ac:dyDescent="0.4">
       <c r="A465" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>459</v>
       </c>
       <c r="B465" s="12"/>
@@ -24201,9 +24265,9 @@
       <c r="P465" s="14"/>
       <c r="Q465" s="16"/>
     </row>
-    <row r="466" spans="1:17" ht="277.75" x14ac:dyDescent="0.65">
+    <row r="466" spans="1:17" ht="283.5" x14ac:dyDescent="0.4">
       <c r="A466" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>460</v>
       </c>
       <c r="B466" s="12"/>
@@ -24229,9 +24293,9 @@
       <c r="P466" s="14"/>
       <c r="Q466" s="16"/>
     </row>
-    <row r="467" spans="1:17" ht="61.75" x14ac:dyDescent="0.65">
+    <row r="467" spans="1:17" ht="63" x14ac:dyDescent="0.4">
       <c r="A467" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>461</v>
       </c>
       <c r="B467" s="12"/>
@@ -24263,9 +24327,9 @@
       <c r="P467" s="14"/>
       <c r="Q467" s="16"/>
     </row>
-    <row r="468" spans="1:17" ht="231.45" x14ac:dyDescent="0.65">
+    <row r="468" spans="1:17" ht="236.25" x14ac:dyDescent="0.4">
       <c r="A468" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>462</v>
       </c>
       <c r="B468" s="12"/>
@@ -24293,9 +24357,9 @@
       <c r="P468" s="14"/>
       <c r="Q468" s="16"/>
     </row>
-    <row r="469" spans="1:17" ht="200.6" x14ac:dyDescent="0.65">
+    <row r="469" spans="1:17" ht="204.75" x14ac:dyDescent="0.4">
       <c r="A469" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>463</v>
       </c>
       <c r="B469" s="12"/>
@@ -24317,9 +24381,9 @@
       <c r="P469" s="14"/>
       <c r="Q469" s="16"/>
     </row>
-    <row r="470" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="470" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A470" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>464</v>
       </c>
       <c r="B470" s="12"/>
@@ -24347,9 +24411,9 @@
       <c r="P470" s="14"/>
       <c r="Q470" s="16"/>
     </row>
-    <row r="471" spans="1:17" ht="61.75" x14ac:dyDescent="0.65">
+    <row r="471" spans="1:17" ht="63" x14ac:dyDescent="0.4">
       <c r="A471" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>465</v>
       </c>
       <c r="B471" s="12"/>
@@ -24375,9 +24439,9 @@
       <c r="P471" s="14"/>
       <c r="Q471" s="16"/>
     </row>
-    <row r="472" spans="1:17" ht="46.3" x14ac:dyDescent="0.65">
+    <row r="472" spans="1:17" ht="47.25" x14ac:dyDescent="0.4">
       <c r="A472" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>466</v>
       </c>
       <c r="B472" s="12"/>
@@ -24403,9 +24467,9 @@
       <c r="P472" s="14"/>
       <c r="Q472" s="16"/>
     </row>
-    <row r="473" spans="1:17" ht="46.3" x14ac:dyDescent="0.65">
+    <row r="473" spans="1:17" ht="47.25" x14ac:dyDescent="0.4">
       <c r="A473" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>467</v>
       </c>
       <c r="B473" s="12"/>
@@ -24431,9 +24495,9 @@
       <c r="P473" s="14"/>
       <c r="Q473" s="16"/>
     </row>
-    <row r="474" spans="1:17" ht="46.3" x14ac:dyDescent="0.65">
+    <row r="474" spans="1:17" ht="47.25" x14ac:dyDescent="0.4">
       <c r="A474" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>468</v>
       </c>
       <c r="B474" s="12"/>
@@ -24459,9 +24523,9 @@
       <c r="P474" s="14"/>
       <c r="Q474" s="16"/>
     </row>
-    <row r="475" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="475" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A475" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>469</v>
       </c>
       <c r="B475" s="12"/>
@@ -24485,9 +24549,9 @@
       <c r="P475" s="14"/>
       <c r="Q475" s="16"/>
     </row>
-    <row r="476" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="476" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A476" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>470</v>
       </c>
       <c r="B476" s="12"/>
@@ -24511,9 +24575,9 @@
       <c r="P476" s="14"/>
       <c r="Q476" s="16"/>
     </row>
-    <row r="477" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="477" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A477" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>471</v>
       </c>
       <c r="B477" s="12"/>
@@ -24537,9 +24601,9 @@
       <c r="P477" s="14"/>
       <c r="Q477" s="16"/>
     </row>
-    <row r="478" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="478" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A478" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>472</v>
       </c>
       <c r="B478" s="12"/>
@@ -24563,9 +24627,9 @@
       <c r="P478" s="14"/>
       <c r="Q478" s="16"/>
     </row>
-    <row r="479" spans="1:17" ht="61.75" x14ac:dyDescent="0.65">
+    <row r="479" spans="1:17" ht="63" x14ac:dyDescent="0.4">
       <c r="A479" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>473</v>
       </c>
       <c r="B479" s="12"/>
@@ -24595,9 +24659,9 @@
       <c r="P479" s="14"/>
       <c r="Q479" s="16"/>
     </row>
-    <row r="480" spans="1:17" ht="92.6" x14ac:dyDescent="0.65">
+    <row r="480" spans="1:17" ht="94.5" x14ac:dyDescent="0.4">
       <c r="A480" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>474</v>
       </c>
       <c r="B480" s="12"/>
@@ -24623,9 +24687,9 @@
       <c r="P480" s="14"/>
       <c r="Q480" s="16"/>
     </row>
-    <row r="481" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="481" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A481" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>475</v>
       </c>
       <c r="B481" s="12"/>
@@ -24653,9 +24717,9 @@
       <c r="P481" s="14"/>
       <c r="Q481" s="16"/>
     </row>
-    <row r="482" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="482" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A482" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>476</v>
       </c>
       <c r="B482" s="12"/>
@@ -24681,9 +24745,9 @@
       <c r="P482" s="14"/>
       <c r="Q482" s="16"/>
     </row>
-    <row r="483" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="483" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A483" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>477</v>
       </c>
       <c r="B483" s="12"/>
@@ -24705,9 +24769,9 @@
       <c r="P483" s="14"/>
       <c r="Q483" s="16"/>
     </row>
-    <row r="484" spans="1:17" ht="169.75" x14ac:dyDescent="0.65">
+    <row r="484" spans="1:17" ht="173.25" x14ac:dyDescent="0.4">
       <c r="A484" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>478</v>
       </c>
       <c r="B484" s="12"/>
@@ -24729,9 +24793,9 @@
       <c r="P484" s="14"/>
       <c r="Q484" s="16"/>
     </row>
-    <row r="485" spans="1:17" ht="30.9" x14ac:dyDescent="0.65">
+    <row r="485" spans="1:17" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A485" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>479</v>
       </c>
       <c r="B485" s="12"/>
@@ -24753,9 +24817,9 @@
       <c r="P485" s="14"/>
       <c r="Q485" s="16"/>
     </row>
-    <row r="486" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="486" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A486" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>480</v>
       </c>
       <c r="B486" s="12"/>
@@ -24783,9 +24847,9 @@
       <c r="P486" s="14"/>
       <c r="Q486" s="16"/>
     </row>
-    <row r="487" spans="1:17" ht="30.9" x14ac:dyDescent="0.65">
+    <row r="487" spans="1:17" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A487" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>481</v>
       </c>
       <c r="B487" s="12"/>
@@ -24811,9 +24875,9 @@
       <c r="P487" s="14"/>
       <c r="Q487" s="16"/>
     </row>
-    <row r="488" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="488" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A488" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>482</v>
       </c>
       <c r="B488" s="12"/>
@@ -24835,9 +24899,9 @@
       <c r="P488" s="14"/>
       <c r="Q488" s="16"/>
     </row>
-    <row r="489" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="489" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A489" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>483</v>
       </c>
       <c r="B489" s="12"/>
@@ -24859,9 +24923,9 @@
       <c r="P489" s="14"/>
       <c r="Q489" s="16"/>
     </row>
-    <row r="490" spans="1:17" ht="169.75" x14ac:dyDescent="0.65">
+    <row r="490" spans="1:17" ht="173.25" x14ac:dyDescent="0.4">
       <c r="A490" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>484</v>
       </c>
       <c r="B490" s="12"/>
@@ -24883,9 +24947,9 @@
       <c r="P490" s="14"/>
       <c r="Q490" s="16"/>
     </row>
-    <row r="491" spans="1:17" ht="30.9" x14ac:dyDescent="0.65">
+    <row r="491" spans="1:17" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A491" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>485</v>
       </c>
       <c r="B491" s="12"/>
@@ -24907,9 +24971,9 @@
       <c r="P491" s="14"/>
       <c r="Q491" s="16"/>
     </row>
-    <row r="492" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="492" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A492" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>486</v>
       </c>
       <c r="B492" s="12"/>
@@ -24935,9 +24999,9 @@
       <c r="P492" s="14"/>
       <c r="Q492" s="16"/>
     </row>
-    <row r="493" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="493" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A493" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>487</v>
       </c>
       <c r="B493" s="12"/>
@@ -24963,9 +25027,9 @@
       <c r="P493" s="14"/>
       <c r="Q493" s="16"/>
     </row>
-    <row r="494" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="494" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A494" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>488</v>
       </c>
       <c r="B494" s="12"/>
@@ -24991,7 +25055,7 @@
       <c r="P494" s="14"/>
       <c r="Q494" s="16"/>
     </row>
-    <row r="495" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="495" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A495" s="10"/>
       <c r="B495" s="12"/>
       <c r="C495" s="12"/>
@@ -25249,15 +25313,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="e8618445-b921-4c48-afdf-14e883213c59">
@@ -25268,14 +25323,49 @@
 </p:properties>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{12A8846C-59E6-49DE-8953-A076C34F38C2}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{12A8846C-59E6-49DE-8953-A076C34F38C2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="85d2ad52-74ac-4f33-99b9-ed27c5c58b6d"/>
+    <ds:schemaRef ds:uri="e8618445-b921-4c48-afdf-14e883213c59"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{19942A3C-1E34-4C78-937D-DD2BA9D69AD2}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{30B9E712-DB5C-45E2-9DDC-4524B210B021}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="e8618445-b921-4c48-afdf-14e883213c59"/>
+    <ds:schemaRef ds:uri="85d2ad52-74ac-4f33-99b9-ed27c5c58b6d"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{30B9E712-DB5C-45E2-9DDC-4524B210B021}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{19942A3C-1E34-4C78-937D-DD2BA9D69AD2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/PJ管理/01.成果物/04.T_テスト／移行/テスト仕様書兼報告書_DMS30201_検索閲覧出図画面.xlsx
+++ b/PJ管理/01.成果物/04.T_テスト／移行/テスト仕様書兼報告書_DMS30201_検索閲覧出図画面.xlsx
@@ -8,12 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\DRASAP_Web\PJ管理\01.成果物\04.T_テスト／移行\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92767319-B306-4895-9008-5F9B75911C50}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90031B0F-6C18-4F32-8FE5-F369F48F613D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="-105" windowWidth="33120" windowHeight="18120" tabRatio="368" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="検索閲覧出図画面（日本語）" sheetId="2" r:id="rId1"/>
+    <sheet name="300_JP" sheetId="3" r:id="rId2"/>
+    <sheet name="301_JP" sheetId="4" r:id="rId3"/>
+    <sheet name="302_JP" sheetId="6" r:id="rId4"/>
+    <sheet name="303_JP" sheetId="5" r:id="rId5"/>
+    <sheet name="304_JP" sheetId="7" r:id="rId6"/>
+    <sheet name="305_JP" sheetId="10" r:id="rId7"/>
+    <sheet name="306_JP" sheetId="11" r:id="rId8"/>
+    <sheet name="307_JP" sheetId="12" r:id="rId9"/>
+    <sheet name="308_JP" sheetId="13" r:id="rId10"/>
+    <sheet name="309_JP" sheetId="14" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1516" uniqueCount="672">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1536" uniqueCount="674">
   <si>
     <t>作成者</t>
     <rPh sb="0" eb="3">
@@ -11278,6 +11288,17 @@
     </rPh>
     <rPh sb="209" eb="211">
       <t>ズバン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>OK</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>満</t>
+    <rPh sb="0" eb="1">
+      <t>マン</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -11614,6 +11635,27 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="3" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -11656,27 +11698,6 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="3" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -11699,6 +11720,4567 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>459753</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>144258</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="14" name="グループ化 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FAC4BAE2-123E-4816-B1C4-CCF71B101D56}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="0" y="476250"/>
+          <a:ext cx="18290553" cy="9907383"/>
+          <a:chOff x="0" y="476250"/>
+          <a:chExt cx="18290553" cy="9907383"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="9" name="図 8">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{046682C3-8877-4B7B-805C-FB9720D446F5}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="0" y="476250"/>
+            <a:ext cx="18290553" cy="9907383"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="3" name="正方形/長方形 2">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{631BA0BD-B221-4A50-AC3D-C4984D0CA49B}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1304925" y="1381125"/>
+            <a:ext cx="3419475" cy="219075"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="4" name="吹き出し: 四角形 3">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1571ADE7-02C8-4709-B71D-B3E2D68CF647}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3962399" y="1962150"/>
+            <a:ext cx="2790825" cy="828675"/>
+          </a:xfrm>
+          <a:prstGeom prst="wedgeRectCallout">
+            <a:avLst>
+              <a:gd name="adj1" fmla="val -52880"/>
+              <a:gd name="adj2" fmla="val -93967"/>
+            </a:avLst>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:t>11</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>桁図番の場合（ハイフン抜きで）</a:t>
+            </a:r>
+            <a:br>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            </a:br>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>図番に</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:t>'A0005GM001*'</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>を使う</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="7" name="正方形/長方形 6">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B09A8FC-F65F-4A32-A390-33FFF9FE7CF6}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7810500" y="1409700"/>
+            <a:ext cx="228600" cy="247650"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="8" name="吹き出し: 四角形 7">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4837C141-D831-4EED-82ED-968793FFAA8D}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8782050" y="1057275"/>
+            <a:ext cx="1543050" cy="752475"/>
+          </a:xfrm>
+          <a:prstGeom prst="wedgeRectCallout">
+            <a:avLst>
+              <a:gd name="adj1" fmla="val -95524"/>
+              <a:gd name="adj2" fmla="val 16930"/>
+            </a:avLst>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>最新追番のチェックを外して検索</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>459753</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>144258</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="13" name="グループ化 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3ED5AA2-4ABC-4F5C-86E9-691BAE213EDE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="0" y="11191875"/>
+          <a:ext cx="18290553" cy="9907383"/>
+          <a:chOff x="0" y="11191875"/>
+          <a:chExt cx="18290553" cy="9907383"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="10" name="図 9">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C3E1AE5-C215-49D7-9171-0E521D97FCBC}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="0" y="11191875"/>
+            <a:ext cx="18290553" cy="9907383"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="11" name="正方形/長方形 10">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C88037B-EFEC-4529-B74E-9B5A568DE42F}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="104775" y="20783550"/>
+            <a:ext cx="3876675" cy="285750"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="12" name="吹き出し: 四角形 11">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A19700D-4538-4D74-A2FC-A9A27ADE4455}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4410074" y="19402425"/>
+            <a:ext cx="2714625" cy="1133476"/>
+          </a:xfrm>
+          <a:prstGeom prst="wedgeRectCallout">
+            <a:avLst>
+              <a:gd name="adj1" fmla="val -66288"/>
+              <a:gd name="adj2" fmla="val 85877"/>
+            </a:avLst>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>リビジョン</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:t>A</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>～</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:t>Z</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>までの図面が</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:t>24</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>件表示される</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:t>※</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>リビジョン</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:t>I, O</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>は使用禁止文字なので存在しない</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>459753</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>144258</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="7" name="グループ化 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E2EF12E-9A27-4A09-BA66-C8A7AE16224D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="0" y="238125"/>
+          <a:ext cx="18290553" cy="9907383"/>
+          <a:chOff x="0" y="238125"/>
+          <a:chExt cx="18290553" cy="9907383"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="2" name="図 1">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2423015B-877B-4C67-A368-718B1CE89B67}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="0" y="238125"/>
+            <a:ext cx="18290553" cy="9907383"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="3" name="正方形/長方形 2">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{722C4522-DFF0-43E4-82DF-EB5A505C5B4C}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6115050" y="1190625"/>
+            <a:ext cx="1181100" cy="600075"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="4" name="正方形/長方形 3">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69FF82AC-E093-4613-A7BB-3CB8FDF28E74}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7781925" y="1381125"/>
+            <a:ext cx="247650" cy="180975"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="5" name="吹き出し: 四角形 4">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{048EE27B-B730-4C6E-BCE4-4E72E07837C0}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5915025" y="1981200"/>
+            <a:ext cx="1800225" cy="895350"/>
+          </a:xfrm>
+          <a:prstGeom prst="wedgeRectCallout">
+            <a:avLst>
+              <a:gd name="adj1" fmla="val -16071"/>
+              <a:gd name="adj2" fmla="val -71543"/>
+            </a:avLst>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>図番にワイルドカード</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:t>(*)</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>を使用</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="6" name="吹き出し: 四角形 5">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18E2FAF4-8C38-4CA3-9E43-DF9D1C40AB3E}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8562975" y="1609725"/>
+            <a:ext cx="1800225" cy="895350"/>
+          </a:xfrm>
+          <a:prstGeom prst="wedgeRectCallout">
+            <a:avLst>
+              <a:gd name="adj1" fmla="val -77447"/>
+              <a:gd name="adj2" fmla="val -55586"/>
+            </a:avLst>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>図番指定順</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:t>ON</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>459753</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>144258</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="12" name="グループ化 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CAE09C80-C47A-4F45-A88F-EA89EAF6A825}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="0" y="10953750"/>
+          <a:ext cx="18290553" cy="9907383"/>
+          <a:chOff x="0" y="10953750"/>
+          <a:chExt cx="18290553" cy="9907383"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="8" name="図 7">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FAC8F585-8873-4825-8A10-066E7C442891}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="0" y="10953750"/>
+            <a:ext cx="18290553" cy="9907383"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="9" name="正方形/長方形 8">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6DEE02F-427E-4623-9E4C-D7FD0F53B0D1}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7105650" y="11610975"/>
+            <a:ext cx="4124325" cy="942975"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="10" name="吹き出し: 四角形 9">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31E8B4C0-5071-44C6-9AF3-365982C57FEE}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="11287124" y="11106150"/>
+            <a:ext cx="2124075" cy="933450"/>
+          </a:xfrm>
+          <a:prstGeom prst="wedgeRectCallout">
+            <a:avLst>
+              <a:gd name="adj1" fmla="val -52206"/>
+              <a:gd name="adj2" fmla="val 78442"/>
+            </a:avLst>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>ダイアログが開き、</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>図番指定順の場合、ワイルドカードは使用できません。</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>459753</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>144258</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="11" name="グループ化 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D4F9D0D-B664-4D90-80DB-E93A1B732B79}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="0" y="238125"/>
+          <a:ext cx="18290553" cy="9907383"/>
+          <a:chOff x="0" y="238125"/>
+          <a:chExt cx="18290553" cy="9907383"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="2" name="図 1">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2ACBE4E-1B0E-4B58-B4BD-444BF42132A4}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="0" y="238125"/>
+            <a:ext cx="18290553" cy="9907383"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="3" name="正方形/長方形 2">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F0AFD34-B3EA-4345-96A6-922885EB1CBD}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1266825" y="1133475"/>
+            <a:ext cx="3543300" cy="238125"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="4" name="正方形/長方形 3">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2348E506-F3DB-49C7-9093-F84E04A9D94E}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7791450" y="1152525"/>
+            <a:ext cx="247650" cy="257175"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="5" name="吹き出し: 四角形 4">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F95BE472-D0BD-49C8-A2E4-81136FE77B31}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3343275" y="1619250"/>
+            <a:ext cx="2647950" cy="771525"/>
+          </a:xfrm>
+          <a:prstGeom prst="wedgeRectCallout">
+            <a:avLst>
+              <a:gd name="adj1" fmla="val -29166"/>
+              <a:gd name="adj2" fmla="val -84414"/>
+            </a:avLst>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:t>11</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>桁図番の場合（ハイフン抜きで）</a:t>
+            </a:r>
+            <a:br>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            </a:br>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:t>※</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>図番に</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:t>'A0005GM001*'</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>を使う</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="6" name="吹き出し: 四角形 5">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C4360FC7-ABAE-46B8-BD50-65AAEFBA7968}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8315325" y="1457325"/>
+            <a:ext cx="1828800" cy="771525"/>
+          </a:xfrm>
+          <a:prstGeom prst="wedgeRectCallout">
+            <a:avLst>
+              <a:gd name="adj1" fmla="val -65104"/>
+              <a:gd name="adj2" fmla="val -65896"/>
+            </a:avLst>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>最新追番のチェックを入れて検索</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>459753</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>144258</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="10" name="グループ化 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0971C645-8690-4CC4-BCD0-21DC3E7F2F84}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="0" y="10715625"/>
+          <a:ext cx="18290553" cy="9907383"/>
+          <a:chOff x="0" y="10715625"/>
+          <a:chExt cx="18290553" cy="9907383"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="7" name="図 6">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84206D02-4ED9-43BF-AF73-F37C4A050878}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="0" y="10715625"/>
+            <a:ext cx="18290553" cy="9907383"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="8" name="正方形/長方形 7">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA552392-451D-4EF5-ABDC-F461E270232B}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="19050" y="14077950"/>
+            <a:ext cx="11029950" cy="285750"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="9" name="吹き出し: 四角形 8">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71F0B6EF-1419-4E3B-9892-9537BD8ECDD7}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6829425" y="14516100"/>
+            <a:ext cx="2981325" cy="485775"/>
+          </a:xfrm>
+          <a:prstGeom prst="wedgeRectCallout">
+            <a:avLst>
+              <a:gd name="adj1" fmla="val -37446"/>
+              <a:gd name="adj2" fmla="val -84263"/>
+            </a:avLst>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>リビジョン</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:t>Z</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>のみの図面が</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:t>1</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>件表示される</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>478803</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>153783</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="9" name="グループ化 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8AD2901E-B041-4A43-90B4-C5EC473E78AE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="19050" y="247650"/>
+          <a:ext cx="18290553" cy="9907383"/>
+          <a:chOff x="19050" y="247650"/>
+          <a:chExt cx="18290553" cy="9907383"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="8" name="図 7">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C46D5D3C-1A6C-4ABD-B9CA-D2D8B64C448C}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="19050" y="247650"/>
+            <a:ext cx="18290553" cy="9907383"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="3" name="正方形/長方形 2">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7FD84A3E-829D-4D85-A775-58B120E06E51}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1304925" y="1143000"/>
+            <a:ext cx="3495675" cy="228600"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="5" name="吹き出し: 四角形 4">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4805C02A-13F7-4C73-8F05-2103DF048843}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2447925" y="1704975"/>
+            <a:ext cx="2609850" cy="895350"/>
+          </a:xfrm>
+          <a:prstGeom prst="wedgeRectCallout">
+            <a:avLst>
+              <a:gd name="adj1" fmla="val -47889"/>
+              <a:gd name="adj2" fmla="val -89306"/>
+            </a:avLst>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:t>12</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>桁図番の場合（ハイフン抜きで）</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="6" name="正方形/長方形 5">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D6D6B50-532C-4385-AAB9-A8272EFFB7ED}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7781925" y="1190625"/>
+            <a:ext cx="266700" cy="200025"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="7" name="吹き出し: 四角形 6">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F03A623-17C3-4D2B-82BD-D70EB210CF99}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8743950" y="904875"/>
+            <a:ext cx="1666875" cy="828675"/>
+          </a:xfrm>
+          <a:prstGeom prst="wedgeRectCallout">
+            <a:avLst>
+              <a:gd name="adj1" fmla="val -90547"/>
+              <a:gd name="adj2" fmla="val -1868"/>
+            </a:avLst>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>最新追番のチェックを外して検索</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>459753</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>144258</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="13" name="グループ化 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97E22933-E7D3-485F-8BB3-2143828CF337}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="0" y="10953750"/>
+          <a:ext cx="18290553" cy="9907383"/>
+          <a:chOff x="0" y="10953750"/>
+          <a:chExt cx="18290553" cy="9907383"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="10" name="図 9">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59C6F8E2-1951-480F-86AC-700B257B61AE}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="0" y="10953750"/>
+            <a:ext cx="18290553" cy="9907383"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="11" name="正方形/長方形 10">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7907B5D-EEFF-4215-AE45-14BFC7C75D63}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="104775" y="20564475"/>
+            <a:ext cx="4276725" cy="238125"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="12" name="吹き出し: 四角形 11">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E7EAB7F-069A-4D22-BEBF-9DDDB2DC3AE9}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5029200" y="19402425"/>
+            <a:ext cx="3305175" cy="1009650"/>
+          </a:xfrm>
+          <a:prstGeom prst="wedgeRectCallout">
+            <a:avLst>
+              <a:gd name="adj1" fmla="val -69248"/>
+              <a:gd name="adj2" fmla="val 74764"/>
+            </a:avLst>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>リビジョン</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:t>AA</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>～</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:t>BN</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>までの図面が</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:t>35</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>件表示される</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:t>※</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>リビジョン</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:t>I, O</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>は使用禁止文字なので存在しない</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>459753</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>144258</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="7" name="グループ化 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B2ABC0E-83BD-4DA9-A37D-55A84CE9E8E4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="0" y="238125"/>
+          <a:ext cx="18290553" cy="9907383"/>
+          <a:chOff x="0" y="238125"/>
+          <a:chExt cx="18290553" cy="9907383"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="2" name="図 1">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D831748-253E-4098-AF7C-9E9230BB13ED}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="0" y="238125"/>
+            <a:ext cx="18290553" cy="9907383"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="3" name="正方形/長方形 2">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{573D7DF1-6ECB-4725-9067-261FA4D1E631}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1276350" y="1152525"/>
+            <a:ext cx="3514725" cy="228600"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="4" name="正方形/長方形 3">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97C1DE39-2780-4D8D-B637-1B4B34C196D2}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7810501" y="1190625"/>
+            <a:ext cx="209550" cy="209550"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="5" name="吹き出し: 四角形 4">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C972E68-AC47-4E6E-B50E-1011BA0C6F6D}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3667125" y="1714500"/>
+            <a:ext cx="3371850" cy="1000125"/>
+          </a:xfrm>
+          <a:prstGeom prst="wedgeRectCallout">
+            <a:avLst>
+              <a:gd name="adj1" fmla="val -47662"/>
+              <a:gd name="adj2" fmla="val -81568"/>
+            </a:avLst>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:t>12</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>桁図番の場合（ハイフン抜きで）</a:t>
+            </a:r>
+            <a:br>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            </a:br>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:t>※</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>図番に</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:t>'SM03BCFA01*'</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>を使う</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="6" name="吹き出し: 四角形 5">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{970EF719-9DA9-40EB-9BC0-D1FE0DF97F50}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7953375" y="1514475"/>
+            <a:ext cx="2657476" cy="514349"/>
+          </a:xfrm>
+          <a:prstGeom prst="wedgeRectCallout">
+            <a:avLst>
+              <a:gd name="adj1" fmla="val -47662"/>
+              <a:gd name="adj2" fmla="val -81568"/>
+            </a:avLst>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>最新追番のチェックを入れて検索</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>459753</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>144258</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="11" name="グループ化 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C47C6B29-B8FE-4448-91B3-99CFA53ADDD1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="0" y="10715625"/>
+          <a:ext cx="18290553" cy="9907383"/>
+          <a:chOff x="0" y="10715625"/>
+          <a:chExt cx="18290553" cy="9907383"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="8" name="図 7">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F44A76CF-A231-4842-9AB1-7CFE29B9D51F}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="0" y="10715625"/>
+            <a:ext cx="18290553" cy="9907383"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="9" name="正方形/長方形 8">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6739205-785E-43B1-ADBD-A68F16BCDAA0}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="85725" y="14106525"/>
+            <a:ext cx="10953750" cy="228600"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="10" name="吹き出し: 四角形 9">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57603C1A-5E93-4C95-AEDD-465A9BDCE2E1}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="11982450" y="13992226"/>
+            <a:ext cx="3248025" cy="400050"/>
+          </a:xfrm>
+          <a:prstGeom prst="wedgeRectCallout">
+            <a:avLst>
+              <a:gd name="adj1" fmla="val -78311"/>
+              <a:gd name="adj2" fmla="val 8446"/>
+            </a:avLst>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>リビジョン</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:t>BN</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>のみの図面が</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:t>1</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>件表示される</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>459753</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>144258</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="12" name="グループ化 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E7840E0-0A2C-4A5D-B50B-EAB15D12F91B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="18290553" cy="10145508"/>
+          <a:chOff x="0" y="0"/>
+          <a:chExt cx="18290553" cy="10145508"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="11" name="図 10">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4664F5B0-1050-422F-9EA7-C1148DD172FF}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="0" y="238125"/>
+            <a:ext cx="18290553" cy="9907383"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="3" name="吹き出し: 四角形 2">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A89CB86-C740-482A-9CBA-0544AC8E69D9}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6629400" y="0"/>
+            <a:ext cx="3086100" cy="1038225"/>
+          </a:xfrm>
+          <a:prstGeom prst="wedgeRectCallout">
+            <a:avLst>
+              <a:gd name="adj1" fmla="val -35957"/>
+              <a:gd name="adj2" fmla="val 67088"/>
+            </a:avLst>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:t>1000</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>件までの図番入力</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="4" name="正方形/長方形 3">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F62E51DF-912C-4B2D-82BB-B3F98A86DF46}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7820025" y="1200150"/>
+            <a:ext cx="209550" cy="209550"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="5" name="吹き出し: 四角形 4">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A637D9AD-B4EE-43C9-9601-4863D276F672}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9248775" y="1276350"/>
+            <a:ext cx="1685925" cy="457200"/>
+          </a:xfrm>
+          <a:prstGeom prst="wedgeRectCallout">
+            <a:avLst>
+              <a:gd name="adj1" fmla="val -121398"/>
+              <a:gd name="adj2" fmla="val -22917"/>
+            </a:avLst>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>図番指定順</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:t>OFF</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>459753</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>144258</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="15" name="グループ化 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E534C241-5F9F-49B3-9CAD-368083D33981}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="0" y="10953750"/>
+          <a:ext cx="18290553" cy="9907383"/>
+          <a:chOff x="0" y="10953750"/>
+          <a:chExt cx="18290553" cy="9907383"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="13" name="図 12">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8ABF4EAA-A99B-413E-AFA2-C1226CF20674}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="0" y="10953750"/>
+            <a:ext cx="18290553" cy="9907383"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="14" name="吹き出し: 四角形 13">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{340692A5-6A56-4918-82AE-D4BA5ABF89D4}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="12353925" y="15906750"/>
+            <a:ext cx="5362575" cy="1400175"/>
+          </a:xfrm>
+          <a:prstGeom prst="wedgeRectCallout">
+            <a:avLst>
+              <a:gd name="adj1" fmla="val -61508"/>
+              <a:gd name="adj2" fmla="val 68622"/>
+            </a:avLst>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>検索条件にヒットした図面が、図番の昇順にソートされ表示される</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>459753</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>77583</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="13" name="グループ化 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B74B68BF-1C82-4F49-8353-B0F497CE1340}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="0" y="28575"/>
+          <a:ext cx="18290553" cy="10050258"/>
+          <a:chOff x="0" y="28575"/>
+          <a:chExt cx="18290553" cy="10050258"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="12" name="図 11">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91B46126-62E5-4E86-A124-216B983E1D2A}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="0" y="171450"/>
+            <a:ext cx="18290553" cy="9907383"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="3" name="正方形/長方形 2">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2767A734-334F-49B3-8C00-B89ACA7EF312}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6076950" y="1152525"/>
+            <a:ext cx="1162050" cy="1171575"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="4" name="正方形/長方形 3">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C32C26EF-16AA-4CEB-9690-2E3E809E0B57}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7781925" y="1266825"/>
+            <a:ext cx="2686050" cy="257175"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="5" name="吹き出し: 四角形 4">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85B398D1-0474-402B-A45C-07326B42CDD1}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6648450" y="28575"/>
+            <a:ext cx="3619500" cy="847725"/>
+          </a:xfrm>
+          <a:prstGeom prst="wedgeRectCallout">
+            <a:avLst>
+              <a:gd name="adj1" fmla="val -34780"/>
+              <a:gd name="adj2" fmla="val 86096"/>
+            </a:avLst>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:t>1000</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>件までの図番入力</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="6" name="吹き出し: 四角形 5">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D126F07-62B3-46B7-892C-D97478B387B2}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="11106150" y="742950"/>
+            <a:ext cx="1685925" cy="704850"/>
+          </a:xfrm>
+          <a:prstGeom prst="wedgeRectCallout">
+            <a:avLst>
+              <a:gd name="adj1" fmla="val -90325"/>
+              <a:gd name="adj2" fmla="val 63851"/>
+            </a:avLst>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>図番指定順</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:t>ON</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>459753</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>144258</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="15" name="グループ化 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92540622-670B-4AD0-AE6B-8EFDB2161E59}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="0" y="10715625"/>
+          <a:ext cx="18290553" cy="9907383"/>
+          <a:chOff x="0" y="10715625"/>
+          <a:chExt cx="18290553" cy="9907383"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="14" name="図 13">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0EF2F632-3C05-4148-9776-030A3B89B6BB}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="0" y="10715625"/>
+            <a:ext cx="18290553" cy="9907383"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="10" name="吹き出し: 四角形 9">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF6636A4-E992-4E1D-A11A-44DEDA1E02BF}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="12439650" y="14944725"/>
+            <a:ext cx="3590925" cy="2371725"/>
+          </a:xfrm>
+          <a:prstGeom prst="wedgeRectCallout">
+            <a:avLst>
+              <a:gd name="adj1" fmla="val -73618"/>
+              <a:gd name="adj2" fmla="val 56878"/>
+            </a:avLst>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>検索条件にヒットした図面が、複数図番の入力順に表示される</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>459753</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>144258</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="10" name="グループ化 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ECB3B62B-589C-44FB-92B2-7CDB02810FEC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="0" y="238125"/>
+          <a:ext cx="18290553" cy="9907383"/>
+          <a:chOff x="0" y="238125"/>
+          <a:chExt cx="18290553" cy="9907383"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="7" name="図 6">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C66F278D-EABA-40AC-B7A8-AF2A45A9F34D}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="0" y="238125"/>
+            <a:ext cx="18290553" cy="9907383"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="3" name="正方形/長方形 2">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC49D916-ADCF-49DD-B95A-B8EC6CB17E80}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6105525" y="1190625"/>
+            <a:ext cx="1209675" cy="1266825"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="4" name="正方形/長方形 3">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B22E0818-3AD6-4AB8-AFA3-68D799A8FA1A}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7848600" y="1390650"/>
+            <a:ext cx="2657475" cy="209550"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="5" name="吹き出し: 四角形 4">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D91E05D-D30A-44A3-BF70-99ECEFDCF060}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5410200" y="2657475"/>
+            <a:ext cx="2000250" cy="866775"/>
+          </a:xfrm>
+          <a:prstGeom prst="wedgeRectCallout">
+            <a:avLst>
+              <a:gd name="adj1" fmla="val 30596"/>
+              <a:gd name="adj2" fmla="val -71566"/>
+            </a:avLst>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:t>1000</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>件を超える図番入力</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="6" name="吹き出し: 四角形 5">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7506A000-FAC3-4D22-BF01-126C5CA09C07}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9534525" y="1885950"/>
+            <a:ext cx="2000250" cy="866775"/>
+          </a:xfrm>
+          <a:prstGeom prst="wedgeRectCallout">
+            <a:avLst>
+              <a:gd name="adj1" fmla="val -24166"/>
+              <a:gd name="adj2" fmla="val -81456"/>
+            </a:avLst>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>図番指定順</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:t>OFF</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>459753</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>144258</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="14" name="グループ化 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{811EFADB-7547-44FA-936E-F3303F9E6A92}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="0" y="10715625"/>
+          <a:ext cx="18290553" cy="9907383"/>
+          <a:chOff x="0" y="10715625"/>
+          <a:chExt cx="18290553" cy="9907383"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="11" name="図 10">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8DB2014-0951-4522-B414-1BDB7F86BFE4}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="0" y="10715625"/>
+            <a:ext cx="18290553" cy="9907383"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="12" name="正方形/長方形 11">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC0CFDC3-55E6-491B-8C96-A281D5667DDB}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7029450" y="13592175"/>
+            <a:ext cx="4238625" cy="809625"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="13" name="吹き出し: 四角形 12">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC06696F-465B-442D-BBE0-E618C5B890BA}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="11915775" y="13496925"/>
+            <a:ext cx="3200400" cy="1057275"/>
+          </a:xfrm>
+          <a:prstGeom prst="wedgeRectCallout">
+            <a:avLst>
+              <a:gd name="adj1" fmla="val -71973"/>
+              <a:gd name="adj2" fmla="val 12943"/>
+            </a:avLst>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>警告</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:t>1</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>度の検索で指定可能な図番の件数は</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:t>1000</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>件です。</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>図番の件数を</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:t>1000</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>件以下にしてください。</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>459753</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>144258</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="7" name="グループ化 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0CA825EC-CB52-4286-97B8-182753DE718B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="0" y="476250"/>
+          <a:ext cx="18290553" cy="9907383"/>
+          <a:chOff x="0" y="476250"/>
+          <a:chExt cx="18290553" cy="9907383"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="2" name="図 1">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7543370B-2986-43A1-B247-B87CB9244B7E}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="0" y="476250"/>
+            <a:ext cx="18290553" cy="9907383"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="3" name="正方形/長方形 2">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5DED758-08EC-4001-919D-7EC0BAD391DA}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6124574" y="1409700"/>
+            <a:ext cx="1543051" cy="1304925"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="4" name="正方形/長方形 3">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{180A1230-16A9-46A2-9B92-0D8162AED6EC}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7762875" y="1590675"/>
+            <a:ext cx="257175" cy="228600"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="5" name="吹き出し: 四角形 4">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{96D920BB-C382-4BA9-8749-470DF90C1061}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6124575" y="2933700"/>
+            <a:ext cx="2057400" cy="1000125"/>
+          </a:xfrm>
+          <a:prstGeom prst="wedgeRectCallout">
+            <a:avLst>
+              <a:gd name="adj1" fmla="val -25463"/>
+              <a:gd name="adj2" fmla="val -70833"/>
+            </a:avLst>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:t>1000</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>件を超える図番入力</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="6" name="吹き出し: 四角形 5">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F53AE3C2-94CB-49F2-B439-A319D1A6B330}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9086850" y="1533525"/>
+            <a:ext cx="2057400" cy="1000125"/>
+          </a:xfrm>
+          <a:prstGeom prst="wedgeRectCallout">
+            <a:avLst>
+              <a:gd name="adj1" fmla="val -101389"/>
+              <a:gd name="adj2" fmla="val -29881"/>
+            </a:avLst>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>図番指定順</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:t>OFF</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>459753</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>144258</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="11" name="グループ化 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A1E5C8D-2FDB-4BC3-A2FF-21D6C16EB86D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="0" y="10953750"/>
+          <a:ext cx="18290553" cy="9907383"/>
+          <a:chOff x="0" y="10953750"/>
+          <a:chExt cx="18290553" cy="9907383"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="8" name="図 7">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D7F24DA-B1EF-4BD8-B462-59E3B20FADE9}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="0" y="10953750"/>
+            <a:ext cx="18290553" cy="9907383"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="9" name="正方形/長方形 8">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2256C5A8-7995-49A0-AB83-D5016AD74B1D}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6991350" y="13630275"/>
+            <a:ext cx="4238625" cy="809625"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="10" name="吹き出し: 四角形 9">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0DC36B7C-152D-404E-A46D-C78972891B65}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="11877675" y="13535025"/>
+            <a:ext cx="3200400" cy="1057275"/>
+          </a:xfrm>
+          <a:prstGeom prst="wedgeRectCallout">
+            <a:avLst>
+              <a:gd name="adj1" fmla="val -71973"/>
+              <a:gd name="adj2" fmla="val 12943"/>
+            </a:avLst>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>警告</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:t>1</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>度の検索で指定可能な図番の件数は</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:t>1000</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>件です。</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>図番の件数を</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:t>1000</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>件以下にしてください。</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>459753</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>163308</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="8" name="グループ化 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0DC22F95-A55C-4341-9642-E4683781E1A4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="0" y="733425"/>
+          <a:ext cx="18290553" cy="9907383"/>
+          <a:chOff x="0" y="733425"/>
+          <a:chExt cx="18290553" cy="9907383"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="2" name="図 1">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1878A035-A6D5-437B-876A-4FCFC350A2A4}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="0" y="733425"/>
+            <a:ext cx="18290553" cy="9907383"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="3" name="正方形/長方形 2">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5DA07B4-E9E9-49EE-98BD-83218DB6A25D}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6029325" y="1619250"/>
+            <a:ext cx="1304925" cy="628650"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="4" name="正方形/長方形 3">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E17984F-6A4F-4E1B-8DFA-27C52DE337DC}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7791450" y="1876425"/>
+            <a:ext cx="257175" cy="200025"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="6" name="吹き出し: 四角形 5">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B63E498A-420F-4D8C-AA8B-23B66D3AA188}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6010275" y="2428875"/>
+            <a:ext cx="1409700" cy="809625"/>
+          </a:xfrm>
+          <a:prstGeom prst="wedgeRectCallout">
+            <a:avLst>
+              <a:gd name="adj1" fmla="val -18806"/>
+              <a:gd name="adj2" fmla="val -71618"/>
+            </a:avLst>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>図番にワイルドカード</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:t>(*)</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>を使用</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="7" name="吹き出し: 四角形 6">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BBE052B9-3B08-4244-AC05-D9E6959E980F}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9067800" y="2009775"/>
+            <a:ext cx="1409700" cy="809625"/>
+          </a:xfrm>
+          <a:prstGeom prst="wedgeRectCallout">
+            <a:avLst>
+              <a:gd name="adj1" fmla="val -122860"/>
+              <a:gd name="adj2" fmla="val -46912"/>
+            </a:avLst>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>図番指定順</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:t>OFF</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>459753</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>144258</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="12" name="グループ化 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F887BD2A-9FFA-4E2B-A71E-A45041D65BBC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="0" y="11430000"/>
+          <a:ext cx="18290553" cy="9907383"/>
+          <a:chOff x="0" y="11430000"/>
+          <a:chExt cx="18290553" cy="9907383"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="9" name="図 8">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E04CE88B-6482-4BAA-B78B-5E520202CCF3}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="0" y="11430000"/>
+            <a:ext cx="18290553" cy="9907383"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="10" name="正方形/長方形 9">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E10B3A6-96B1-4D13-8728-39CDDBE2D963}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="47625" y="14668500"/>
+            <a:ext cx="12125325" cy="1695450"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="11" name="吹き出し: 四角形 10">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1CD42F7A-C21B-446A-8604-419E4B3B5C6B}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="12944475" y="14478000"/>
+            <a:ext cx="3124200" cy="1304925"/>
+          </a:xfrm>
+          <a:prstGeom prst="wedgeRectCallout">
+            <a:avLst>
+              <a:gd name="adj1" fmla="val -75711"/>
+              <a:gd name="adj2" fmla="val 45712"/>
+            </a:avLst>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>検索条件にヒットした図面が、図番の昇順にソートされ表示される</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -11966,8 +16548,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q504"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A460" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="E493" sqref="E493"/>
+    <sheetView tabSelected="1" topLeftCell="C192" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="I205" sqref="I205"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
@@ -11989,27 +16571,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="23.65" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="35"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="42"/>
       <c r="F1" s="22"/>
       <c r="N1" s="28" t="s">
         <v>634</v>
       </c>
       <c r="O1" s="2">
         <f>COUNTIF(N$7:N$998,N1)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="37"/>
+      <c r="B2" s="44"/>
       <c r="C2" s="20" t="s">
         <v>17</v>
       </c>
@@ -12028,10 +16610,10 @@
       </c>
     </row>
     <row r="3" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="38" t="s">
+      <c r="A3" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="39"/>
+      <c r="B3" s="46"/>
       <c r="C3" s="5" t="s">
         <v>18</v>
       </c>
@@ -12051,13 +16633,13 @@
       </c>
     </row>
     <row r="4" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="33" t="s">
+      <c r="A4" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="34"/>
-      <c r="C4" s="34"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="35"/>
+      <c r="B4" s="41"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="42"/>
       <c r="F4" s="22"/>
       <c r="N4" s="28" t="s">
         <v>637</v>
@@ -12068,20 +16650,20 @@
       </c>
     </row>
     <row r="5" spans="1:17" ht="67.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="40" t="s">
+      <c r="A5" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="41"/>
-      <c r="C5" s="41"/>
-      <c r="D5" s="42"/>
-      <c r="E5" s="43"/>
+      <c r="B5" s="48"/>
+      <c r="C5" s="48"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="50"/>
       <c r="F5" s="24"/>
       <c r="N5" s="28" t="s">
         <v>638</v>
       </c>
       <c r="O5" s="29" t="str">
         <f>"未実施："&amp;COUNTA(A$7:A$998)-SUM(O1:O4)&amp;"／実施済："&amp;SUM(O1:O4)</f>
-        <v>未実施：498／実施済：0</v>
+        <v>未実施：488／実施済：10</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.4">
@@ -12094,14 +16676,14 @@
       <c r="C6" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="30" t="s">
+      <c r="D6" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="31"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="31"/>
-      <c r="H6" s="31"/>
-      <c r="I6" s="32"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="38"/>
+      <c r="I6" s="39"/>
       <c r="J6" s="19"/>
       <c r="K6" s="19"/>
       <c r="L6" s="19"/>
@@ -20584,9 +25166,15 @@
       <c r="M306" s="13" t="s">
         <v>281</v>
       </c>
-      <c r="N306" s="14"/>
-      <c r="O306" s="15"/>
-      <c r="P306" s="14"/>
+      <c r="N306" s="14" t="s">
+        <v>672</v>
+      </c>
+      <c r="O306" s="15">
+        <v>45565</v>
+      </c>
+      <c r="P306" s="14" t="s">
+        <v>673</v>
+      </c>
       <c r="Q306" s="16"/>
     </row>
     <row r="307" spans="1:17" x14ac:dyDescent="0.4">
@@ -20610,9 +25198,15 @@
       <c r="M307" s="13" t="s">
         <v>282</v>
       </c>
-      <c r="N307" s="14"/>
-      <c r="O307" s="15"/>
-      <c r="P307" s="14"/>
+      <c r="N307" s="14" t="s">
+        <v>672</v>
+      </c>
+      <c r="O307" s="15">
+        <v>45565</v>
+      </c>
+      <c r="P307" s="14" t="s">
+        <v>673</v>
+      </c>
       <c r="Q307" s="16"/>
     </row>
     <row r="308" spans="1:17" ht="31.5" x14ac:dyDescent="0.4">
@@ -20642,9 +25236,15 @@
       <c r="M308" s="13" t="s">
         <v>285</v>
       </c>
-      <c r="N308" s="14"/>
-      <c r="O308" s="15"/>
-      <c r="P308" s="14"/>
+      <c r="N308" s="14" t="s">
+        <v>672</v>
+      </c>
+      <c r="O308" s="15">
+        <v>45565</v>
+      </c>
+      <c r="P308" s="14" t="s">
+        <v>673</v>
+      </c>
       <c r="Q308" s="16"/>
     </row>
     <row r="309" spans="1:17" x14ac:dyDescent="0.4">
@@ -20668,9 +25268,15 @@
       <c r="M309" s="13" t="s">
         <v>284</v>
       </c>
-      <c r="N309" s="14"/>
-      <c r="O309" s="15"/>
-      <c r="P309" s="14"/>
+      <c r="N309" s="14" t="s">
+        <v>672</v>
+      </c>
+      <c r="O309" s="15">
+        <v>45565</v>
+      </c>
+      <c r="P309" s="14" t="s">
+        <v>673</v>
+      </c>
       <c r="Q309" s="16"/>
     </row>
     <row r="310" spans="1:17" x14ac:dyDescent="0.4">
@@ -20698,9 +25304,15 @@
       <c r="M310" s="13" t="s">
         <v>305</v>
       </c>
-      <c r="N310" s="14"/>
-      <c r="O310" s="15"/>
-      <c r="P310" s="14"/>
+      <c r="N310" s="14" t="s">
+        <v>672</v>
+      </c>
+      <c r="O310" s="15">
+        <v>45565</v>
+      </c>
+      <c r="P310" s="14" t="s">
+        <v>673</v>
+      </c>
       <c r="Q310" s="16"/>
     </row>
     <row r="311" spans="1:17" x14ac:dyDescent="0.4">
@@ -20724,9 +25336,15 @@
       <c r="M311" s="13" t="s">
         <v>302</v>
       </c>
-      <c r="N311" s="14"/>
-      <c r="O311" s="15"/>
-      <c r="P311" s="14"/>
+      <c r="N311" s="14" t="s">
+        <v>672</v>
+      </c>
+      <c r="O311" s="15">
+        <v>45565</v>
+      </c>
+      <c r="P311" s="14" t="s">
+        <v>673</v>
+      </c>
       <c r="Q311" s="16"/>
     </row>
     <row r="312" spans="1:17" ht="47.25" x14ac:dyDescent="0.4">
@@ -20752,9 +25370,15 @@
       <c r="M312" s="13" t="s">
         <v>303</v>
       </c>
-      <c r="N312" s="14"/>
-      <c r="O312" s="15"/>
-      <c r="P312" s="14"/>
+      <c r="N312" s="14" t="s">
+        <v>672</v>
+      </c>
+      <c r="O312" s="15">
+        <v>45565</v>
+      </c>
+      <c r="P312" s="14" t="s">
+        <v>673</v>
+      </c>
       <c r="Q312" s="16"/>
     </row>
     <row r="313" spans="1:17" ht="47.25" x14ac:dyDescent="0.4">
@@ -20778,9 +25402,15 @@
       <c r="M313" s="13" t="s">
         <v>303</v>
       </c>
-      <c r="N313" s="14"/>
-      <c r="O313" s="15"/>
-      <c r="P313" s="14"/>
+      <c r="N313" s="14" t="s">
+        <v>672</v>
+      </c>
+      <c r="O313" s="15">
+        <v>45565</v>
+      </c>
+      <c r="P313" s="14" t="s">
+        <v>673</v>
+      </c>
       <c r="Q313" s="16"/>
     </row>
     <row r="314" spans="1:17" x14ac:dyDescent="0.4">
@@ -20806,9 +25436,15 @@
       <c r="M314" s="13" t="s">
         <v>305</v>
       </c>
-      <c r="N314" s="14"/>
-      <c r="O314" s="15"/>
-      <c r="P314" s="14"/>
+      <c r="N314" s="14" t="s">
+        <v>672</v>
+      </c>
+      <c r="O314" s="15">
+        <v>45565</v>
+      </c>
+      <c r="P314" s="14" t="s">
+        <v>673</v>
+      </c>
       <c r="Q314" s="16"/>
     </row>
     <row r="315" spans="1:17" ht="31.5" x14ac:dyDescent="0.4">
@@ -20832,9 +25468,15 @@
       <c r="M315" s="13" t="s">
         <v>304</v>
       </c>
-      <c r="N315" s="14"/>
-      <c r="O315" s="15"/>
-      <c r="P315" s="14"/>
+      <c r="N315" s="14" t="s">
+        <v>672</v>
+      </c>
+      <c r="O315" s="15">
+        <v>45565</v>
+      </c>
+      <c r="P315" s="14" t="s">
+        <v>673</v>
+      </c>
       <c r="Q315" s="16"/>
     </row>
     <row r="316" spans="1:17" ht="31.5" x14ac:dyDescent="0.4">
@@ -25680,386 +30322,386 @@
       <c r="Q492" s="16"/>
     </row>
     <row r="493" spans="1:17" ht="141.75" x14ac:dyDescent="0.4">
-      <c r="A493" s="49">
+      <c r="A493" s="35">
         <f t="shared" si="7"/>
         <v>487</v>
       </c>
-      <c r="B493" s="49"/>
-      <c r="C493" s="49" t="s">
+      <c r="B493" s="35"/>
+      <c r="C493" s="35" t="s">
         <v>639</v>
       </c>
-      <c r="D493" s="50" t="s">
+      <c r="D493" s="36" t="s">
         <v>640</v>
       </c>
-      <c r="E493" s="50" t="s">
+      <c r="E493" s="36" t="s">
         <v>641</v>
       </c>
-      <c r="F493" s="50" t="s">
+      <c r="F493" s="36" t="s">
         <v>642</v>
       </c>
-      <c r="G493" s="49" t="s">
+      <c r="G493" s="35" t="s">
         <v>643</v>
       </c>
-      <c r="H493" s="50"/>
-      <c r="I493" s="49"/>
-      <c r="J493" s="44"/>
-      <c r="K493" s="44"/>
-      <c r="L493" s="44"/>
-      <c r="M493" s="45" t="s">
+      <c r="H493" s="36"/>
+      <c r="I493" s="35"/>
+      <c r="J493" s="30"/>
+      <c r="K493" s="30"/>
+      <c r="L493" s="30"/>
+      <c r="M493" s="31" t="s">
         <v>644</v>
       </c>
-      <c r="N493" s="46"/>
-      <c r="O493" s="47"/>
-      <c r="P493" s="46"/>
-      <c r="Q493" s="48"/>
+      <c r="N493" s="32"/>
+      <c r="O493" s="33"/>
+      <c r="P493" s="32"/>
+      <c r="Q493" s="34"/>
     </row>
     <row r="494" spans="1:17" ht="31.5" x14ac:dyDescent="0.4">
-      <c r="A494" s="49">
+      <c r="A494" s="35">
         <f t="shared" si="7"/>
         <v>488</v>
       </c>
-      <c r="B494" s="49"/>
-      <c r="C494" s="49"/>
-      <c r="D494" s="50"/>
-      <c r="E494" s="50" t="s">
+      <c r="B494" s="35"/>
+      <c r="C494" s="35"/>
+      <c r="D494" s="36"/>
+      <c r="E494" s="36" t="s">
         <v>645</v>
       </c>
-      <c r="F494" s="50" t="s">
+      <c r="F494" s="36" t="s">
         <v>642</v>
       </c>
-      <c r="G494" s="49" t="s">
+      <c r="G494" s="35" t="s">
         <v>643</v>
       </c>
-      <c r="H494" s="50"/>
-      <c r="I494" s="49"/>
-      <c r="J494" s="44"/>
-      <c r="K494" s="44"/>
-      <c r="L494" s="44"/>
-      <c r="M494" s="45" t="s">
+      <c r="H494" s="36"/>
+      <c r="I494" s="35"/>
+      <c r="J494" s="30"/>
+      <c r="K494" s="30"/>
+      <c r="L494" s="30"/>
+      <c r="M494" s="31" t="s">
         <v>646</v>
       </c>
-      <c r="N494" s="46"/>
-      <c r="O494" s="47"/>
-      <c r="P494" s="46"/>
-      <c r="Q494" s="48"/>
+      <c r="N494" s="32"/>
+      <c r="O494" s="33"/>
+      <c r="P494" s="32"/>
+      <c r="Q494" s="34"/>
     </row>
     <row r="495" spans="1:17" ht="31.5" x14ac:dyDescent="0.4">
-      <c r="A495" s="49">
+      <c r="A495" s="35">
         <f t="shared" si="7"/>
         <v>489</v>
       </c>
-      <c r="B495" s="49"/>
-      <c r="C495" s="49"/>
-      <c r="D495" s="50"/>
-      <c r="E495" s="50" t="s">
+      <c r="B495" s="35"/>
+      <c r="C495" s="35"/>
+      <c r="D495" s="36"/>
+      <c r="E495" s="36" t="s">
         <v>647</v>
       </c>
-      <c r="F495" s="50" t="s">
+      <c r="F495" s="36" t="s">
         <v>642</v>
       </c>
-      <c r="G495" s="49" t="s">
+      <c r="G495" s="35" t="s">
         <v>643</v>
       </c>
-      <c r="H495" s="50"/>
-      <c r="I495" s="49"/>
-      <c r="J495" s="44"/>
-      <c r="K495" s="44"/>
-      <c r="L495" s="44"/>
-      <c r="M495" s="45" t="s">
+      <c r="H495" s="36"/>
+      <c r="I495" s="35"/>
+      <c r="J495" s="30"/>
+      <c r="K495" s="30"/>
+      <c r="L495" s="30"/>
+      <c r="M495" s="31" t="s">
         <v>648</v>
       </c>
-      <c r="N495" s="46"/>
-      <c r="O495" s="47"/>
-      <c r="P495" s="46"/>
-      <c r="Q495" s="48"/>
+      <c r="N495" s="32"/>
+      <c r="O495" s="33"/>
+      <c r="P495" s="32"/>
+      <c r="Q495" s="34"/>
     </row>
     <row r="496" spans="1:17" ht="31.5" x14ac:dyDescent="0.4">
-      <c r="A496" s="49">
+      <c r="A496" s="35">
         <f t="shared" si="7"/>
         <v>490</v>
       </c>
-      <c r="B496" s="49"/>
-      <c r="C496" s="49"/>
-      <c r="D496" s="49"/>
-      <c r="E496" s="50"/>
-      <c r="F496" s="50" t="s">
+      <c r="B496" s="35"/>
+      <c r="C496" s="35"/>
+      <c r="D496" s="35"/>
+      <c r="E496" s="36"/>
+      <c r="F496" s="36" t="s">
         <v>649</v>
       </c>
-      <c r="G496" s="50" t="s">
+      <c r="G496" s="36" t="s">
         <v>643</v>
       </c>
-      <c r="H496" s="49"/>
-      <c r="I496" s="49"/>
-      <c r="J496" s="44"/>
-      <c r="K496" s="44"/>
-      <c r="L496" s="44"/>
-      <c r="M496" s="45" t="s">
+      <c r="H496" s="35"/>
+      <c r="I496" s="35"/>
+      <c r="J496" s="30"/>
+      <c r="K496" s="30"/>
+      <c r="L496" s="30"/>
+      <c r="M496" s="31" t="s">
         <v>650</v>
       </c>
-      <c r="N496" s="46"/>
-      <c r="O496" s="47"/>
-      <c r="P496" s="46"/>
-      <c r="Q496" s="48"/>
+      <c r="N496" s="32"/>
+      <c r="O496" s="33"/>
+      <c r="P496" s="32"/>
+      <c r="Q496" s="34"/>
     </row>
     <row r="497" spans="1:17" ht="31.5" x14ac:dyDescent="0.4">
-      <c r="A497" s="49">
+      <c r="A497" s="35">
         <f t="shared" si="7"/>
         <v>491</v>
       </c>
-      <c r="B497" s="49"/>
-      <c r="C497" s="49"/>
-      <c r="D497" s="49"/>
-      <c r="E497" s="50" t="s">
+      <c r="B497" s="35"/>
+      <c r="C497" s="35"/>
+      <c r="D497" s="35"/>
+      <c r="E497" s="36" t="s">
         <v>651</v>
       </c>
-      <c r="F497" s="50" t="s">
+      <c r="F497" s="36" t="s">
         <v>652</v>
       </c>
-      <c r="G497" s="50" t="s">
+      <c r="G497" s="36" t="s">
         <v>651</v>
       </c>
-      <c r="H497" s="49"/>
-      <c r="I497" s="49"/>
-      <c r="J497" s="44"/>
-      <c r="K497" s="44"/>
-      <c r="L497" s="44"/>
-      <c r="M497" s="45" t="s">
+      <c r="H497" s="35"/>
+      <c r="I497" s="35"/>
+      <c r="J497" s="30"/>
+      <c r="K497" s="30"/>
+      <c r="L497" s="30"/>
+      <c r="M497" s="31" t="s">
         <v>653</v>
       </c>
-      <c r="N497" s="46"/>
-      <c r="O497" s="47"/>
-      <c r="P497" s="46"/>
-      <c r="Q497" s="48"/>
+      <c r="N497" s="32"/>
+      <c r="O497" s="33"/>
+      <c r="P497" s="32"/>
+      <c r="Q497" s="34"/>
     </row>
     <row r="498" spans="1:17" ht="31.5" x14ac:dyDescent="0.4">
-      <c r="A498" s="49">
+      <c r="A498" s="35">
         <f t="shared" si="7"/>
         <v>492</v>
       </c>
-      <c r="B498" s="49"/>
-      <c r="C498" s="49"/>
-      <c r="D498" s="49"/>
-      <c r="E498" s="50" t="s">
+      <c r="B498" s="35"/>
+      <c r="C498" s="35"/>
+      <c r="D498" s="35"/>
+      <c r="E498" s="36" t="s">
         <v>120</v>
       </c>
-      <c r="F498" s="50" t="s">
+      <c r="F498" s="36" t="s">
         <v>652</v>
       </c>
-      <c r="G498" s="50" t="s">
+      <c r="G498" s="36" t="s">
         <v>120</v>
       </c>
-      <c r="H498" s="49"/>
-      <c r="I498" s="49"/>
-      <c r="J498" s="44"/>
-      <c r="K498" s="44"/>
-      <c r="L498" s="44"/>
-      <c r="M498" s="45" t="s">
+      <c r="H498" s="35"/>
+      <c r="I498" s="35"/>
+      <c r="J498" s="30"/>
+      <c r="K498" s="30"/>
+      <c r="L498" s="30"/>
+      <c r="M498" s="31" t="s">
         <v>653</v>
       </c>
-      <c r="N498" s="46"/>
-      <c r="O498" s="47"/>
-      <c r="P498" s="46"/>
-      <c r="Q498" s="48"/>
+      <c r="N498" s="32"/>
+      <c r="O498" s="33"/>
+      <c r="P498" s="32"/>
+      <c r="Q498" s="34"/>
     </row>
     <row r="499" spans="1:17" ht="31.5" x14ac:dyDescent="0.4">
-      <c r="A499" s="49">
+      <c r="A499" s="35">
         <f t="shared" si="7"/>
         <v>493</v>
       </c>
-      <c r="B499" s="49"/>
-      <c r="C499" s="49"/>
-      <c r="D499" s="49"/>
-      <c r="E499" s="50" t="s">
+      <c r="B499" s="35"/>
+      <c r="C499" s="35"/>
+      <c r="D499" s="35"/>
+      <c r="E499" s="36" t="s">
         <v>110</v>
       </c>
-      <c r="F499" s="50" t="s">
+      <c r="F499" s="36" t="s">
         <v>652</v>
       </c>
-      <c r="G499" s="50" t="s">
+      <c r="G499" s="36" t="s">
         <v>110</v>
       </c>
-      <c r="H499" s="49"/>
-      <c r="I499" s="49"/>
-      <c r="J499" s="44"/>
-      <c r="K499" s="44"/>
-      <c r="L499" s="44"/>
-      <c r="M499" s="45" t="s">
+      <c r="H499" s="35"/>
+      <c r="I499" s="35"/>
+      <c r="J499" s="30"/>
+      <c r="K499" s="30"/>
+      <c r="L499" s="30"/>
+      <c r="M499" s="31" t="s">
         <v>654</v>
       </c>
-      <c r="N499" s="46"/>
-      <c r="O499" s="47"/>
-      <c r="P499" s="46"/>
-      <c r="Q499" s="48"/>
+      <c r="N499" s="32"/>
+      <c r="O499" s="33"/>
+      <c r="P499" s="32"/>
+      <c r="Q499" s="34"/>
     </row>
     <row r="500" spans="1:17" ht="31.5" x14ac:dyDescent="0.4">
-      <c r="A500" s="49">
+      <c r="A500" s="35">
         <f t="shared" si="7"/>
         <v>494</v>
       </c>
-      <c r="B500" s="49"/>
-      <c r="C500" s="49"/>
-      <c r="D500" s="49"/>
-      <c r="E500" s="50" t="s">
+      <c r="B500" s="35"/>
+      <c r="C500" s="35"/>
+      <c r="D500" s="35"/>
+      <c r="E500" s="36" t="s">
         <v>113</v>
       </c>
-      <c r="F500" s="50" t="s">
+      <c r="F500" s="36" t="s">
         <v>652</v>
       </c>
-      <c r="G500" s="50" t="s">
+      <c r="G500" s="36" t="s">
         <v>113</v>
       </c>
-      <c r="H500" s="49"/>
-      <c r="I500" s="49"/>
-      <c r="J500" s="44"/>
-      <c r="K500" s="44"/>
-      <c r="L500" s="44"/>
-      <c r="M500" s="45" t="s">
+      <c r="H500" s="35"/>
+      <c r="I500" s="35"/>
+      <c r="J500" s="30"/>
+      <c r="K500" s="30"/>
+      <c r="L500" s="30"/>
+      <c r="M500" s="31" t="s">
         <v>655</v>
       </c>
-      <c r="N500" s="46"/>
-      <c r="O500" s="47"/>
-      <c r="P500" s="46"/>
-      <c r="Q500" s="48"/>
+      <c r="N500" s="32"/>
+      <c r="O500" s="33"/>
+      <c r="P500" s="32"/>
+      <c r="Q500" s="34"/>
     </row>
     <row r="501" spans="1:17" ht="141.75" x14ac:dyDescent="0.4">
-      <c r="A501" s="49">
+      <c r="A501" s="35">
         <f t="shared" si="7"/>
         <v>495</v>
       </c>
-      <c r="B501" s="49"/>
-      <c r="C501" s="49" t="s">
+      <c r="B501" s="35"/>
+      <c r="C501" s="35" t="s">
         <v>656</v>
       </c>
-      <c r="D501" s="50" t="s">
+      <c r="D501" s="36" t="s">
         <v>657</v>
       </c>
-      <c r="E501" s="50" t="s">
+      <c r="E501" s="36" t="s">
         <v>658</v>
       </c>
-      <c r="F501" s="50" t="s">
+      <c r="F501" s="36" t="s">
         <v>642</v>
       </c>
-      <c r="G501" s="49" t="s">
+      <c r="G501" s="35" t="s">
         <v>643</v>
       </c>
-      <c r="H501" s="50"/>
-      <c r="I501" s="49"/>
-      <c r="J501" s="44"/>
-      <c r="K501" s="44"/>
-      <c r="L501" s="44"/>
-      <c r="M501" s="45" t="s">
+      <c r="H501" s="36"/>
+      <c r="I501" s="35"/>
+      <c r="J501" s="30"/>
+      <c r="K501" s="30"/>
+      <c r="L501" s="30"/>
+      <c r="M501" s="31" t="s">
         <v>659</v>
       </c>
-      <c r="N501" s="46"/>
-      <c r="O501" s="47"/>
-      <c r="P501" s="46"/>
-      <c r="Q501" s="48"/>
+      <c r="N501" s="32"/>
+      <c r="O501" s="33"/>
+      <c r="P501" s="32"/>
+      <c r="Q501" s="34"/>
     </row>
     <row r="502" spans="1:17" ht="94.5" x14ac:dyDescent="0.4">
-      <c r="A502" s="49">
+      <c r="A502" s="35">
         <f t="shared" si="7"/>
         <v>496</v>
       </c>
-      <c r="B502" s="49"/>
-      <c r="C502" s="49"/>
-      <c r="D502" s="49"/>
-      <c r="E502" s="50" t="s">
+      <c r="B502" s="35"/>
+      <c r="C502" s="35"/>
+      <c r="D502" s="35"/>
+      <c r="E502" s="36" t="s">
         <v>660</v>
       </c>
-      <c r="F502" s="50" t="s">
+      <c r="F502" s="36" t="s">
         <v>661</v>
       </c>
-      <c r="G502" s="50" t="s">
+      <c r="G502" s="36" t="s">
         <v>642</v>
       </c>
-      <c r="H502" s="49" t="s">
+      <c r="H502" s="35" t="s">
         <v>662</v>
       </c>
-      <c r="I502" s="49" t="s">
+      <c r="I502" s="35" t="s">
         <v>643</v>
       </c>
-      <c r="J502" s="44"/>
-      <c r="K502" s="44"/>
-      <c r="L502" s="44"/>
-      <c r="M502" s="45" t="s">
+      <c r="J502" s="30"/>
+      <c r="K502" s="30"/>
+      <c r="L502" s="30"/>
+      <c r="M502" s="31" t="s">
         <v>663</v>
       </c>
-      <c r="N502" s="46"/>
-      <c r="O502" s="47"/>
-      <c r="P502" s="46"/>
-      <c r="Q502" s="48"/>
+      <c r="N502" s="32"/>
+      <c r="O502" s="33"/>
+      <c r="P502" s="32"/>
+      <c r="Q502" s="34"/>
     </row>
     <row r="503" spans="1:17" ht="157.5" x14ac:dyDescent="0.4">
-      <c r="A503" s="49">
+      <c r="A503" s="35">
         <f t="shared" si="7"/>
         <v>497</v>
       </c>
-      <c r="B503" s="49"/>
-      <c r="C503" s="49"/>
-      <c r="D503" s="49"/>
-      <c r="E503" s="50" t="s">
+      <c r="B503" s="35"/>
+      <c r="C503" s="35"/>
+      <c r="D503" s="35"/>
+      <c r="E503" s="36" t="s">
         <v>664</v>
       </c>
-      <c r="F503" s="50" t="s">
+      <c r="F503" s="36" t="s">
         <v>665</v>
       </c>
-      <c r="G503" s="50" t="s">
+      <c r="G503" s="36" t="s">
         <v>642</v>
       </c>
-      <c r="H503" s="49" t="s">
+      <c r="H503" s="35" t="s">
         <v>662</v>
       </c>
-      <c r="I503" s="49" t="s">
+      <c r="I503" s="35" t="s">
         <v>643</v>
       </c>
-      <c r="J503" s="44"/>
-      <c r="K503" s="44"/>
-      <c r="L503" s="44"/>
-      <c r="M503" s="45" t="s">
+      <c r="J503" s="30"/>
+      <c r="K503" s="30"/>
+      <c r="L503" s="30"/>
+      <c r="M503" s="31" t="s">
         <v>666</v>
       </c>
-      <c r="N503" s="46"/>
-      <c r="O503" s="47"/>
-      <c r="P503" s="46"/>
-      <c r="Q503" s="48"/>
+      <c r="N503" s="32"/>
+      <c r="O503" s="33"/>
+      <c r="P503" s="32"/>
+      <c r="Q503" s="34"/>
     </row>
     <row r="504" spans="1:17" ht="252" x14ac:dyDescent="0.4">
-      <c r="A504" s="49">
+      <c r="A504" s="35">
         <f t="shared" si="7"/>
         <v>498</v>
       </c>
-      <c r="B504" s="49"/>
-      <c r="C504" s="49" t="s">
+      <c r="B504" s="35"/>
+      <c r="C504" s="35" t="s">
         <v>667</v>
       </c>
-      <c r="D504" s="50" t="s">
+      <c r="D504" s="36" t="s">
         <v>668</v>
       </c>
-      <c r="E504" s="50" t="s">
+      <c r="E504" s="36" t="s">
         <v>669</v>
       </c>
-      <c r="F504" s="50" t="s">
+      <c r="F504" s="36" t="s">
         <v>642</v>
       </c>
-      <c r="G504" s="50" t="s">
+      <c r="G504" s="36" t="s">
         <v>670</v>
       </c>
-      <c r="H504" s="49" t="s">
+      <c r="H504" s="35" t="s">
         <v>110</v>
       </c>
-      <c r="I504" s="49" t="s">
+      <c r="I504" s="35" t="s">
         <v>643</v>
       </c>
-      <c r="J504" s="44"/>
-      <c r="K504" s="44"/>
-      <c r="L504" s="44"/>
-      <c r="M504" s="45" t="s">
+      <c r="J504" s="30"/>
+      <c r="K504" s="30"/>
+      <c r="L504" s="30"/>
+      <c r="M504" s="31" t="s">
         <v>671</v>
       </c>
-      <c r="N504" s="46"/>
-      <c r="O504" s="47"/>
-      <c r="P504" s="46"/>
-      <c r="Q504" s="48"/>
+      <c r="N504" s="32"/>
+      <c r="O504" s="33"/>
+      <c r="P504" s="32"/>
+      <c r="Q504" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -26073,6 +30715,166 @@
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB0AF5F5-346B-4CB1-8EA5-5D4FC3781B7A}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A49" sqref="A49"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData/>
+  <phoneticPr fontId="3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5633B90-2517-42D6-A961-7CD6371084BB}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A49" sqref="A49"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData/>
+  <phoneticPr fontId="3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E90034C3-639C-41CC-AE53-97760CD59179}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="A48" sqref="A48"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData/>
+  <phoneticPr fontId="3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88DE9434-D8EB-4081-8315-FCCA34F08A6F}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A46" sqref="A46"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData/>
+  <phoneticPr fontId="3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3E3C42F-4B57-4B90-94A8-30C5BD82B6D9}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K92" sqref="K92"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData/>
+  <phoneticPr fontId="3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{262B0213-0167-4862-AF53-0FDC0151E067}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A46" sqref="A46"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData/>
+  <phoneticPr fontId="3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B57BC045-CAEB-4BFF-A752-E83FEF4E4A3D}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A47" sqref="A47"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData/>
+  <phoneticPr fontId="3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7951CF25-7EEC-494C-B719-70E8AC35907A}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A46" sqref="A46"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData/>
+  <phoneticPr fontId="3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6ACC998-3BB7-40A7-BA79-7437C4151E8A}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="A46" sqref="A46"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData/>
+  <phoneticPr fontId="3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21A40041-058A-444A-982F-DE8CF35340CD}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A46" sqref="A46"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData/>
+  <phoneticPr fontId="3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -26300,15 +31102,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="e8618445-b921-4c48-afdf-14e883213c59">
@@ -26317,6 +31110,15 @@
     <TaxCatchAll xmlns="85d2ad52-74ac-4f33-99b9-ed27c5c58b6d" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -26339,14 +31141,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{19942A3C-1E34-4C78-937D-DD2BA9D69AD2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{30B9E712-DB5C-45E2-9DDC-4524B210B021}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -26355,4 +31149,12 @@
     <ds:schemaRef ds:uri="85d2ad52-74ac-4f33-99b9-ed27c5c58b6d"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{19942A3C-1E34-4C78-937D-DD2BA9D69AD2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>